--- a/data/IdentificacionSesgo.xlsx
+++ b/data/IdentificacionSesgo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="298">
   <si>
     <r>
       <rPr>
@@ -878,19 +878,25 @@
     <t>Una primera razón es la gran debilidad de las organizaciones populares en Colombia. No tenemos los partidos indígenas de otros países andinos, ni los sindicatos poderosos de Argentina o de Brasil, ni la coalición de clases medias en el estilo de Chile; tenemos núcleos regionales como el CRIC, sindicatos sectoriales como Fecode o movilizaciones locales contra algunos proyectos mineros. En segundo lugar, las organizaciones nacionales siempre han estado intensamente fragmentadas. El movimiento campesino se dividió y se divide en varias “líneas”, los estudiantes o los pensionados tienen varias “federaciones”, e inclusive hoy en el Comité Nacional del Paro toman asiento tres centrales obreras que llevan años de disputarse el predominio.</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>Programmasch</t>
   </si>
   <si>
     <t>Esa debilidad y esa fragmentación son a su vez reflejo de un problema más hondo: nadie en Colombia representa a nadie. Los sindicatos hablan por un 4 % de los trabajadores en las grandes empresas, las ONG hablan por sus respectivos activistas, los gremios dicen unas cosas mientras Sarmiento y los antioqueños se aseguran de otras cosas, el periodismo desapareció, las redes son ruido puro… e incluso los políticos de oposición hablan a título personal (como dijo De la Calle cuando la Coalición de la Esperanza se reunió con Iván Duque).</t>
   </si>
   <si>
+    <t>1,1,2</t>
+  </si>
+  <si>
     <t>La Federación de Empresarios del Transporte de Carga (Fedetranscarga) analizó los viajes de carga realizados entre el 28 de abril, cuando inició el paro, al 15 de junio, y los comparó con el mismo periodo de 2020, fecha en que había en el país algunas restricciones por el aislamiento obligatorio, y encontró que se dio una reducción en la carga de 3,1%.</t>
   </si>
   <si>
     <t>Según la Oficina de planeación y estudios económicos de Fedegán, los productores de leche dejaron de comercializar unos 395.900 millones de litros de leche (cerca de $403.000 millones). Por otra parte, los novillos que no fueron sacrificados desde el inicio del paro totalizaron 222.597 y las pérdidas son cercanas a $456.000 millones.</t>
+  </si>
+  <si>
+    <t>3,2,2</t>
+  </si>
+  <si>
+    <t>0,0,1</t>
   </si>
   <si>
     <t>La Asociación del Sector Automotriz y sus Partes (Asopartes) encendió de nuevo las alarmas por cuenta de las afectaciones que ha presentado el sector de fabricación y ensamblaje de vehículos tras varias semanas de paro nacional en el país. Este tipo de situaciones en la cadena logística y de adquisición de 
@@ -898,7 +904,7 @@
 hasta el 500 %, razón por la que en algunos casos los precios finales al consumidor podrían incrementarse cuatro o cinco veces.</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>1,2,2</t>
   </si>
   <si>
     <t>En opinión de analistas, si se mide con esa vara, el balance del Congreso es agridulce, pues si bien se hundieron iniciativas tan impopulares como las reformas tributaria y a la salud, y el proyecto que buscaba la extensión del período presidencial, otras relacionadas con la educación, el medio ambiente y el desarrollo del Acuerdo de Paz quedaron en veremos. Además, en materia de control político, aunque el ministro de Defensa, Diego Molano, fue citado para responder por los excesos de la fuerza pública durante el paro, finalmente logró conservar su cargo.</t>
@@ -907,9 +913,6 @@
     <t>Aunque fueron varias las iniciativas que no lograron prosperar en el Congreso, el hundimiento del proyecto de matrícula cero levantó ampolla. La iniciativa buscaba que la matrícula de los universitarios de estratos bajos que estudian en universidades públicas fuera gratuita. “Las mayorías uribistas en el Senado le dan la espalda de nuevo a los jóvenes”, reclamó el senador Antonio Sanguino (Alianza Verde), uno de sus autores. Por su parte, Gustavo Bolívar (Coalición Decentes) manifestó que persistirán en el proyecto en el período que arranca el 20 de julio, pero llamó la atención por su poco respaldo en el Congreso. “Lo seguiremos intentando, pero con estas minorías es imposible”, dijo.</t>
   </si>
   <si>
-    <t>2,2</t>
-  </si>
-  <si>
     <t>Entre $4,8 billones y $6,1 billones estima Fedesarrollo el costo que hoy ha dejado para el país el paro nacional, luego de un mes de bloqueos y manifestaciones. El director del centro de análisis, Luis Fernando Mejía, dijo que “estimamos que el costo económico del paro nacional en el mes de mayo oscila entre $4,8 y $6,1 billones. Sin embargo, una prolongación de los bloqueos implicaría un costo económico superior al estimado”.</t>
   </si>
   <si>
@@ -919,12 +922,12 @@
     <t>Claro está, hay que tener en cuenta que, en hechos como los ocurridos en Colombia durante el último mes, los hogares no son el objetivo de vandalismo. Sin embargo, terminan metidos en la ola, por vecindad con los puntos focales, que, en este caso, han sido las estaciones y vehículos de los sistemas de transporte; los bienes en espacio público como estatuas que hacen parte de los símbolos de algún hecho histórico en el país; los vehículos, entre otros.</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
     <t>El director de Fedesarrollo anunció que el pronóstico de crecimiento de la economía colombiana en 2021 sería revisado al alza a pesar de la situación de orden público que está experimentando el país. Allí precisó que “el sorprendente dato de crecimiento en el primer trimestre del año, la aceleración del proceso de vacunación en las últimas semanas y la baja base de comparación de 2020 implican que la tasa de crecimiento del PIB de 2021 sería superior al 4,8% que pronosticábamos a inicio de año”. Estas cifras de Fedesarrollo contrastas con las que señaló el Ministro de Hacienda, quien calculó las pérdidas en $10 billones.</t>
   </si>
   <si>
+    <t>0,0,2</t>
+  </si>
+  <si>
     <t>El vicepresidente técnico de Fasecolda indicó que “sin lugar a dudas, quienes resultaron afectados y contaban con un seguro, verán minimizado el impacto de los daños provocados por el vandalismo. Aquellos que no tenían un seguro, deberán asumir estos daños de su propio bolsillo”.</t>
   </si>
   <si>
@@ -934,24 +937,27 @@
     <t>Los expertos —incluido el ministro Ruiz— concuerdan en que es difícil saber con exactitud cuánta responsabilidad tienen las protestas en la crisis sanitaria, debido a que el estallido coincidió con varias medidas de reapertura de la actividad económica, y la llegada, comprobada por las autoridades, de al menos dos de las cuatro variantes de covid-19 que exacerban la transmisibilidad.</t>
   </si>
   <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
     <t>En un barrio rico de Cali, civiles sacaron sus pistolas y fusiles para disparar contra manifestantes, con policías a su lado. Querían cuidar sus bienes de personas que querían afectarlos. Ya fracturada por la desigualdad y el racismo, la capital del Valle del Cauca se encontró en el paro nacional con una realidad soterrada. El 28 de mayo, una turba de barrios marginales arribó al exclusivo sector de Ciudad Jardín e intentó incendiar una estación de policía. Los vecinos respondieron a tiros.</t>
   </si>
   <si>
-    <t>-1,0</t>
+    <t>3,3,0</t>
   </si>
   <si>
     <t>Ambas organizaciones están instaladas en la plazoleta frente al importante portal Américas, pero la primera línea se ha mostrado más resistente a un acuerdo. “Nos consideramos independientes. Respetamos las dinámicas del Comité del Paro, pero no las reconocemos como nuestras. No aceptamos el bajarse de la mesa ni que se acaben los bloqueos. La primera línea portal de la Resistencia sigue en pie de lucha y seguimos en un proceso de conformación de un movimiento político y, como tal, no vamos a descansar”, aseguró el Profe. Han sido claros en señalar que las vías de hecho no se van a abandonar por ahora y que defenderán a la población y a los manifestantes. “La primera línea prestará seguridad contra la represión estatal”, agregó. Pero ¿qué piden? Tienen al menos un pliego de 21 peticiones de carácter nacional y distrital.</t>
   </si>
   <si>
+    <t>1,0,2</t>
+  </si>
+  <si>
     <t>Aunque la desigualdad ya venía empeorando incluso antes de la pandemia, se agigantó entre 2019 y 2020, cuando cayeron en pobreza 375.990 personas en la urbe de 2,2 millones de habitantes. Sin nada que perder, estos mismos jóvenes escalaron el pulso cerrando calles enteras para instalarse en verdaderos campamentos urbanos que exasperan a una buena parte de la población que padece con esos bloqueos.</t>
   </si>
   <si>
     <t>Y, además, dicen que para iniciar el diálogo solicitan la no judicialización de los miembros de la primera línea por delitos relacionados con terrorismo, vandalismo, daño en bien público y demás delitos relacionados con bienes jurídicos protegidos y el reconocimiento del parque Mundo como una zona de campamento permanente para miembros de las primeras líneas que al momento de ejercer el derecho de la manifestación se quedaron sin hogar. “Exigimos que se nos establezca ese campamento con veeduría 24/7”.</t>
   </si>
   <si>
-    <t>0,-1</t>
-  </si>
-  <si>
     <t>Luego de esta intervención se determinó que es de carácter prioritario que la alcaldía local adopte las medidas necesarias para preservar el orden público. Así fue que el 11 de junio de 2021, la alcaldía de Kennedy conoció de una petición ciudadana relacionada con la situación de seguridad y deterioro de ese espacio. Allí no solo hay vandalismo sino consumo de droga y se han reportado varios delitos cometidos en las inmediaciones del lugar.</t>
   </si>
   <si>
@@ -970,9 +976,18 @@
     <t>Y el despliegue de fuerza, ante la mirada de algunos policías cómplices, hizo que los manifestantes sintieran que su ‘enemigo’ se encontraba más cerca de lo pensado. Cuando intentaron responder el 28 de mayo, fueron recibidos a bala. La policía anunció acciones contra los agentes “permisivos”.</t>
   </si>
   <si>
+    <t>2,2,3</t>
+  </si>
+  <si>
+    <t>0,0,-1</t>
+  </si>
+  <si>
     <t>A su turno, el analista político Julián Peña recalca que todos los gobernantes deben propender constitucionalmente por el orden público y la seguridad de la ciudadanía, incluso los que han tenido una postura de apoyo o diálogo con los manifestantes. “Varios alcaldes se dedicaron fue a hacer politiquería, maltratando a la Fuerza Pública, porque era popular. Hoy en día se sienten maniatados entre sus propuestas y sus obligaciones constitucionales”, dice.</t>
   </si>
   <si>
+    <t>1,0,1</t>
+  </si>
+  <si>
     <t>El paro nacional ha dejado un saldo de 21 víctimas mortales confirmadas que guardan relación con las manifestaciones. Esta es una cifra terrible a la que debe sumarse la de más de 2.000 heridos, hechos que sumaron una presión adicional a un sistema hospitalario ya de por sí copado por el pico de la pandemia. En un país como el nuestro, donde el valor de la vida siempre ha sido relativo, volver a las épocas donde la ideología de alguien era una lápida a cuestas es muy triste. El paro agudizó la polarización hasta puntos nunca antes vistos</t>
   </si>
   <si>
@@ -985,12 +1000,18 @@
     <t>el paro nacional logró arrojar luz sobre la fractura social que vivimos. Las personas se dividieron en dos bandos que hacían gala de una intolerancia enfermiza en ocasiones, como cuando se pedía el boicot a empresas por opiniones personales de sus CEO o se justificaba el fallecimiento de un bebé dentro de una ambulancia paralizada por los bloqueos.</t>
   </si>
   <si>
+    <t>3,2,3</t>
+  </si>
+  <si>
     <t>Sin embargo, las circunstancias de orden público han sido protagonistas, sobre todo en el sureste del país y en otras regiones en las que se han registrado distintos actos de violencia y bloqueos. Frente a ello, la CCOA hizo hincapié en que “Con los bloqueos perdemos todos, se perjudica a los campesinos, comerciantes, empleados, empresarios, estudiantes y jóvenes, pero quienes más pierden finalmente son los mismos actores sociales y el Comité Nacional del Paro. Estas enturbian sus justas pretensiones“.</t>
   </si>
   <si>
     <t>Tengo la impresión de que los colombianos están aún más polarizados que a inicios del año y que la concordia social, tan necesaria en momentos donde necesitamos una reactivación económica con el esfuerzo de todos, puede desaparecer sin remedio. Muchos leen esta situación como un claro indicio de estallido social, aunque el escaso aforo en las manifestaciones desmienta esa percepción. Más que un estallido, sufrimos una fractura social.</t>
   </si>
   <si>
+    <t>0,1,1</t>
+  </si>
+  <si>
     <t>La manifestación se concentró a las 10 de la mañana en el Puente de la 4 Sur, en el sur de Medellín. De allí arrancó, también por el sur con destino a la estación Itagüí del Metro. Sobre las 4:30 de la tarde, la situación se salió de control cuando, de acuerdo con denuncias y videos en redes sociales, los manifestantes comenzaron a generar daños en algunas estructuras.</t>
   </si>
   <si>
@@ -1027,7 +1048,7 @@
     <t>A través de mensajes recibidos por redes sociales y llamadas telefónicas, Gustavo Orozco, uno de los promotores de la marcha del silencio que pidió en Cali por el cese de la violencia al margen del paro nacional, recibió de nuevo amenazas de muerte.</t>
   </si>
   <si>
-    <t>2,3</t>
+    <t>2,3,2</t>
   </si>
   <si>
     <t>Miembros del Comité Nacional del Paro —un grupo conformado por sindicatos y organizaciones estudiantiles— señaló en conferencia de prensa que suspenderán las marchas que se habían estado realizando cada semana a fin de evitar la muerte de más manifestantes a manos de la policía y también para reducir los contagios de coronavirus en el país, que registra una cifra récord de decesos relacionados con la enfermedad.</t>
@@ -1094,6 +1115,30 @@
   </si>
   <si>
     <t>Las organizaciones no gubernamentales (ONG) Indepaz y Temblores denunciaron el lunes que durante los dos meses de Paro Nacional en Colombia, que se ha desarrollado bajo el “uso excesivo de la violencia por parte de la Fuerza Pública”, se han cometido 75 asesinatos.</t>
+  </si>
+  <si>
+    <t>Los oficiales del Ejército de la reserva activa del Curso Militar “Coronel Antonio Arredondo” expresaron este jueves su preocupación por la situación que atraviesa el país actualmente por cuenta del paro nacional. De acuerdo con el grupo de oficiales, Colombia
+ está “frente a una amenaza que atenta contra la integridad del Estado, 
+la democracia y las instituciones, al mismo tiempo que afecta la 
+estructura productiva y empresarial del país”.</t>
+  </si>
+  <si>
+    <t>Este lunes Colombia cumplió dos meses de movilizaciones por el Paro Nacional. Las manifestaciones de la semana se vieron marcadas por un nuevo recrudecimiento de la violencia. Tras la protesta del 29 de junio contra la brutalidad policial en Bogotá, tres oficiales han sido suspendidos por agredir físicamente a dos periodistas y a un joven civil. Por otro lado, en Bogotá fracasó el intento por instalar la mesa de diálogo con los representantes de la llamada Primera Línea.</t>
+  </si>
+  <si>
+    <t>El último informe de Monitoreo de Riesgos y Prevención de Afectaciones a los Derechos Humanos en Colombia de la JEP resalta el "surgimiento de prácticas de autodefensa y paramilitarismo para atemorizar a las personas que participan en la protesta social". La entidad informó que tienen evidencias del surgimiento de "grupos de civiles armados" en al menos 27 ciudades que realizaron 56 acciones violentas entre el 28 de abril y el 30 de mayo pasados.</t>
+  </si>
+  <si>
+    <t>“Aunque los medios colombianos continúan absteniéndose de informar sobre la represión arbitraria y las violaciones sistemáticas por parte de las fuerzas del orden, muchas organizaciones de defensa de los derechos humanos han denunciado incansablemente la situación. Incluso la población colombiana, a través de las redes sociales, continúa día tras día exponiendo los hechos de extrema violencia a manos de la policía y del ejército”, señaló la Asamblea en un documento publicado en junio.</t>
+  </si>
+  <si>
+    <t>La razón es que Gómez admitió que los jóvenes que se autodenominan como de la ‘primera línea’ “son grupos muy dispersos y no tienen líderes definidos. Aunque se autodenominen ‘primera línea’, bajo esa denominación hay muchísimos grupos, unos mucho más beligerantes, hay unos violentos. Hay otros que son personas muy estructuradas que buscan el diálogo”, dijo el funcionario en Caracol Radio.</t>
+  </si>
+  <si>
+    <t>Las movilizaciones sociales en contra del Gobierno de Iván Duque Márquez completaron dos meses de continuidad, desde que se inauguró el paro nacional el pasado 28 de abril en Colombia. Pese a que las protestas decrecieron en concurrencia e intensidad y aún no tienen un desenlace, marcaron un hito en cuanto a las luchas sociales en el país.</t>
+  </si>
+  <si>
+    <t>El Instituto de Estudios para el Desarrollo y la Paz (Indepaz) denunció el asesinato de tres jóvenes en el departamento colombiano de Cauca, una de las regiones con gran población indígena en Colombia, dos de ellos identificados como integrantes de la Coordinadora de Procesos Populares y Comunitarios (CPPC) y miembros activos del paro nacional contra el gobierno de derecha de  Iván Duque.</t>
   </si>
 </sst>
 </file>
@@ -1132,6 +1177,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF141414"/>
       <name val="Arial"/>
@@ -1143,14 +1191,13 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Open_sansregular"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -1190,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1234,34 +1281,31 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1269,7 +1313,16 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2789,27 +2842,27 @@
         <v>211</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>213</v>
+        <v>123</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>213</v>
+        <v>123</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="93">
@@ -2817,13 +2870,13 @@
         <v>215</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>213</v>
+        <v>123</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="94">
@@ -2831,1752 +2884,1822 @@
         <v>216</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>213</v>
+        <v>218</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>213</v>
+      <c r="D95" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B96" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>213</v>
+      <c r="D99" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>213</v>
+        <v>224</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>213</v>
+      <c r="B101" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>213</v>
+      <c r="B102" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>213</v>
+        <v>228</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>213</v>
+        <v>229</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>213</v>
+        <v>230</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>213</v>
+        <v>232</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>213</v>
+        <v>234</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>213</v>
+        <v>236</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>213</v>
+        <v>237</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>213</v>
+        <v>238</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>213</v>
+        <v>239</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>213</v>
+        <v>240</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>213</v>
+        <v>241</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>213</v>
+        <v>242</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>213</v>
+        <v>243</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>213</v>
+        <v>246</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>213</v>
+        <v>248</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>213</v>
+        <v>249</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>213</v>
+      <c r="A119" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>213</v>
+        <v>251</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>213</v>
+        <v>253</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>213</v>
+        <v>254</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>213</v>
+        <v>256</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>213</v>
+        <v>257</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>213</v>
+        <v>258</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>213</v>
+        <v>259</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>213</v>
+        <v>260</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>213</v>
+        <v>261</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>213</v>
+        <v>262</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>213</v>
+        <v>263</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>213</v>
+        <v>264</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>213</v>
+        <v>265</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>213</v>
+        <v>266</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>213</v>
+        <v>267</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>213</v>
+        <v>269</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>213</v>
+        <v>270</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>213</v>
+        <v>271</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>213</v>
+        <v>272</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>213</v>
+        <v>273</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>213</v>
+        <v>274</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>212</v>
+        <v>275</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="21" t="s">
-        <v>269</v>
+      <c r="A142" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="22" t="s">
-        <v>272</v>
+      <c r="A143" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="21" t="s">
-        <v>274</v>
+      <c r="A144" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C145" s="24" t="s">
-        <v>271</v>
+      <c r="A145" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C146" s="24" t="s">
-        <v>271</v>
+      <c r="A146" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B147" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>279</v>
+      <c r="A147" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="B148" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>271</v>
+      <c r="A148" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>271</v>
+      <c r="A149" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C150" s="24" t="s">
-        <v>271</v>
+      <c r="A150" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>279</v>
+      <c r="A151" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
+      <c r="A152" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="153">
-      <c r="B153" s="27"/>
-      <c r="C153" s="27"/>
+      <c r="A153" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="154">
-      <c r="B154" s="27"/>
-      <c r="C154" s="27"/>
+      <c r="A154" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="155">
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
+      <c r="A155" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="156">
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
+      <c r="A156" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="157">
-      <c r="B157" s="27"/>
-      <c r="C157" s="27"/>
+      <c r="A157" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="158">
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
+      <c r="A158" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="159">
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
     </row>
     <row r="160">
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
     </row>
     <row r="161">
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
     </row>
     <row r="162">
-      <c r="B162" s="27"/>
-      <c r="C162" s="27"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="29"/>
     </row>
     <row r="163">
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
     </row>
     <row r="164">
-      <c r="B164" s="27"/>
-      <c r="C164" s="27"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
     </row>
     <row r="165">
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
     </row>
     <row r="166">
-      <c r="B166" s="27"/>
-      <c r="C166" s="27"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
     </row>
     <row r="167">
-      <c r="B167" s="27"/>
-      <c r="C167" s="27"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
     </row>
     <row r="168">
-      <c r="B168" s="27"/>
-      <c r="C168" s="27"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
     </row>
     <row r="169">
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
     </row>
     <row r="170">
-      <c r="B170" s="27"/>
-      <c r="C170" s="27"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
     </row>
     <row r="171">
-      <c r="B171" s="27"/>
-      <c r="C171" s="27"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
     </row>
     <row r="172">
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
     </row>
     <row r="173">
-      <c r="B173" s="27"/>
-      <c r="C173" s="27"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
     </row>
     <row r="174">
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="29"/>
     </row>
     <row r="175">
-      <c r="B175" s="27"/>
-      <c r="C175" s="27"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
     </row>
     <row r="176">
-      <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
     </row>
     <row r="177">
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
     </row>
     <row r="178">
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="29"/>
     </row>
     <row r="179">
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
     </row>
     <row r="180">
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
     </row>
     <row r="181">
-      <c r="B181" s="27"/>
-      <c r="C181" s="27"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
     </row>
     <row r="182">
-      <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
     </row>
     <row r="183">
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
     </row>
     <row r="184">
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
     </row>
     <row r="185">
-      <c r="B185" s="27"/>
-      <c r="C185" s="27"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="29"/>
     </row>
     <row r="186">
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
     </row>
     <row r="187">
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="29"/>
     </row>
     <row r="188">
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
     </row>
     <row r="189">
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
     </row>
     <row r="190">
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
     </row>
     <row r="191">
-      <c r="B191" s="27"/>
-      <c r="C191" s="27"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
     </row>
     <row r="192">
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
     </row>
     <row r="193">
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="29"/>
     </row>
     <row r="194">
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="29"/>
     </row>
     <row r="195">
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
+      <c r="B195" s="29"/>
+      <c r="C195" s="29"/>
     </row>
     <row r="196">
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="29"/>
     </row>
     <row r="197">
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="29"/>
     </row>
     <row r="198">
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
     </row>
     <row r="199">
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
     </row>
     <row r="200">
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
     </row>
     <row r="201">
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="29"/>
     </row>
     <row r="202">
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
     </row>
     <row r="203">
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
     </row>
     <row r="204">
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
+      <c r="B204" s="29"/>
+      <c r="C204" s="29"/>
     </row>
     <row r="205">
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
     </row>
     <row r="206">
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
     </row>
     <row r="207">
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
+      <c r="B207" s="29"/>
+      <c r="C207" s="29"/>
     </row>
     <row r="208">
-      <c r="B208" s="27"/>
-      <c r="C208" s="27"/>
+      <c r="B208" s="29"/>
+      <c r="C208" s="29"/>
     </row>
     <row r="209">
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
+      <c r="B209" s="29"/>
+      <c r="C209" s="29"/>
     </row>
     <row r="210">
-      <c r="B210" s="27"/>
-      <c r="C210" s="27"/>
+      <c r="B210" s="29"/>
+      <c r="C210" s="29"/>
     </row>
     <row r="211">
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
+      <c r="B211" s="29"/>
+      <c r="C211" s="29"/>
     </row>
     <row r="212">
-      <c r="B212" s="27"/>
-      <c r="C212" s="27"/>
+      <c r="B212" s="29"/>
+      <c r="C212" s="29"/>
     </row>
     <row r="213">
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
+      <c r="B213" s="29"/>
+      <c r="C213" s="29"/>
     </row>
     <row r="214">
-      <c r="B214" s="27"/>
-      <c r="C214" s="27"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="29"/>
     </row>
     <row r="215">
-      <c r="B215" s="27"/>
-      <c r="C215" s="27"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="29"/>
     </row>
     <row r="216">
-      <c r="B216" s="27"/>
-      <c r="C216" s="27"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="29"/>
     </row>
     <row r="217">
-      <c r="B217" s="27"/>
-      <c r="C217" s="27"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="29"/>
     </row>
     <row r="218">
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
+      <c r="B218" s="29"/>
+      <c r="C218" s="29"/>
     </row>
     <row r="219">
-      <c r="B219" s="27"/>
-      <c r="C219" s="27"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
     </row>
     <row r="220">
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
     </row>
     <row r="221">
-      <c r="B221" s="27"/>
-      <c r="C221" s="27"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="29"/>
     </row>
     <row r="222">
-      <c r="B222" s="27"/>
-      <c r="C222" s="27"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="29"/>
     </row>
     <row r="223">
-      <c r="B223" s="27"/>
-      <c r="C223" s="27"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="29"/>
     </row>
     <row r="224">
-      <c r="B224" s="27"/>
-      <c r="C224" s="27"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="29"/>
     </row>
     <row r="225">
-      <c r="B225" s="27"/>
-      <c r="C225" s="27"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="29"/>
     </row>
     <row r="226">
-      <c r="B226" s="27"/>
-      <c r="C226" s="27"/>
+      <c r="B226" s="29"/>
+      <c r="C226" s="29"/>
     </row>
     <row r="227">
-      <c r="B227" s="27"/>
-      <c r="C227" s="27"/>
+      <c r="B227" s="29"/>
+      <c r="C227" s="29"/>
     </row>
     <row r="228">
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="29"/>
     </row>
     <row r="229">
-      <c r="B229" s="27"/>
-      <c r="C229" s="27"/>
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
     </row>
     <row r="230">
-      <c r="B230" s="27"/>
-      <c r="C230" s="27"/>
+      <c r="B230" s="29"/>
+      <c r="C230" s="29"/>
     </row>
     <row r="231">
-      <c r="B231" s="27"/>
-      <c r="C231" s="27"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
     </row>
     <row r="232">
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
     </row>
     <row r="233">
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
     </row>
     <row r="234">
-      <c r="B234" s="27"/>
-      <c r="C234" s="27"/>
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
     </row>
     <row r="235">
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
+      <c r="B235" s="29"/>
+      <c r="C235" s="29"/>
     </row>
     <row r="236">
-      <c r="B236" s="27"/>
-      <c r="C236" s="27"/>
+      <c r="B236" s="29"/>
+      <c r="C236" s="29"/>
     </row>
     <row r="237">
-      <c r="B237" s="27"/>
-      <c r="C237" s="27"/>
+      <c r="B237" s="29"/>
+      <c r="C237" s="29"/>
     </row>
     <row r="238">
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="29"/>
+      <c r="C238" s="29"/>
     </row>
     <row r="239">
-      <c r="B239" s="27"/>
-      <c r="C239" s="27"/>
+      <c r="B239" s="29"/>
+      <c r="C239" s="29"/>
     </row>
     <row r="240">
-      <c r="B240" s="27"/>
-      <c r="C240" s="27"/>
+      <c r="B240" s="29"/>
+      <c r="C240" s="29"/>
     </row>
     <row r="241">
-      <c r="B241" s="27"/>
-      <c r="C241" s="27"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="29"/>
     </row>
     <row r="242">
-      <c r="B242" s="27"/>
-      <c r="C242" s="27"/>
+      <c r="B242" s="29"/>
+      <c r="C242" s="29"/>
     </row>
     <row r="243">
-      <c r="B243" s="27"/>
-      <c r="C243" s="27"/>
+      <c r="B243" s="29"/>
+      <c r="C243" s="29"/>
     </row>
     <row r="244">
-      <c r="B244" s="27"/>
-      <c r="C244" s="27"/>
+      <c r="B244" s="29"/>
+      <c r="C244" s="29"/>
     </row>
     <row r="245">
-      <c r="B245" s="27"/>
-      <c r="C245" s="27"/>
+      <c r="B245" s="29"/>
+      <c r="C245" s="29"/>
     </row>
     <row r="246">
-      <c r="B246" s="27"/>
-      <c r="C246" s="27"/>
+      <c r="B246" s="29"/>
+      <c r="C246" s="29"/>
     </row>
     <row r="247">
-      <c r="B247" s="27"/>
-      <c r="C247" s="27"/>
+      <c r="B247" s="29"/>
+      <c r="C247" s="29"/>
     </row>
     <row r="248">
-      <c r="B248" s="27"/>
-      <c r="C248" s="27"/>
+      <c r="B248" s="29"/>
+      <c r="C248" s="29"/>
     </row>
     <row r="249">
-      <c r="B249" s="27"/>
-      <c r="C249" s="27"/>
+      <c r="B249" s="29"/>
+      <c r="C249" s="29"/>
     </row>
     <row r="250">
-      <c r="B250" s="27"/>
-      <c r="C250" s="27"/>
+      <c r="B250" s="29"/>
+      <c r="C250" s="29"/>
     </row>
     <row r="251">
-      <c r="B251" s="27"/>
-      <c r="C251" s="27"/>
+      <c r="B251" s="29"/>
+      <c r="C251" s="29"/>
     </row>
     <row r="252">
-      <c r="B252" s="27"/>
-      <c r="C252" s="27"/>
+      <c r="B252" s="29"/>
+      <c r="C252" s="29"/>
     </row>
     <row r="253">
-      <c r="B253" s="27"/>
-      <c r="C253" s="27"/>
+      <c r="B253" s="29"/>
+      <c r="C253" s="29"/>
     </row>
     <row r="254">
-      <c r="B254" s="27"/>
-      <c r="C254" s="27"/>
+      <c r="B254" s="29"/>
+      <c r="C254" s="29"/>
     </row>
     <row r="255">
-      <c r="B255" s="27"/>
-      <c r="C255" s="27"/>
+      <c r="B255" s="29"/>
+      <c r="C255" s="29"/>
     </row>
     <row r="256">
-      <c r="B256" s="27"/>
-      <c r="C256" s="27"/>
+      <c r="B256" s="29"/>
+      <c r="C256" s="29"/>
     </row>
     <row r="257">
-      <c r="B257" s="27"/>
-      <c r="C257" s="27"/>
+      <c r="B257" s="29"/>
+      <c r="C257" s="29"/>
     </row>
     <row r="258">
-      <c r="B258" s="27"/>
-      <c r="C258" s="27"/>
+      <c r="B258" s="29"/>
+      <c r="C258" s="29"/>
     </row>
     <row r="259">
-      <c r="B259" s="27"/>
-      <c r="C259" s="27"/>
+      <c r="B259" s="29"/>
+      <c r="C259" s="29"/>
     </row>
     <row r="260">
-      <c r="B260" s="27"/>
-      <c r="C260" s="27"/>
+      <c r="B260" s="29"/>
+      <c r="C260" s="29"/>
     </row>
     <row r="261">
-      <c r="B261" s="27"/>
-      <c r="C261" s="27"/>
+      <c r="B261" s="29"/>
+      <c r="C261" s="29"/>
     </row>
     <row r="262">
-      <c r="B262" s="27"/>
-      <c r="C262" s="27"/>
+      <c r="B262" s="29"/>
+      <c r="C262" s="29"/>
     </row>
     <row r="263">
-      <c r="B263" s="27"/>
-      <c r="C263" s="27"/>
+      <c r="B263" s="29"/>
+      <c r="C263" s="29"/>
     </row>
     <row r="264">
-      <c r="B264" s="27"/>
-      <c r="C264" s="27"/>
+      <c r="B264" s="29"/>
+      <c r="C264" s="29"/>
     </row>
     <row r="265">
-      <c r="B265" s="27"/>
-      <c r="C265" s="27"/>
+      <c r="B265" s="29"/>
+      <c r="C265" s="29"/>
     </row>
     <row r="266">
-      <c r="B266" s="27"/>
-      <c r="C266" s="27"/>
+      <c r="B266" s="29"/>
+      <c r="C266" s="29"/>
     </row>
     <row r="267">
-      <c r="B267" s="27"/>
-      <c r="C267" s="27"/>
+      <c r="B267" s="29"/>
+      <c r="C267" s="29"/>
     </row>
     <row r="268">
-      <c r="B268" s="27"/>
-      <c r="C268" s="27"/>
+      <c r="B268" s="29"/>
+      <c r="C268" s="29"/>
     </row>
     <row r="269">
-      <c r="B269" s="27"/>
-      <c r="C269" s="27"/>
+      <c r="B269" s="29"/>
+      <c r="C269" s="29"/>
     </row>
     <row r="270">
-      <c r="B270" s="27"/>
-      <c r="C270" s="27"/>
+      <c r="B270" s="29"/>
+      <c r="C270" s="29"/>
     </row>
     <row r="271">
-      <c r="B271" s="27"/>
-      <c r="C271" s="27"/>
+      <c r="B271" s="29"/>
+      <c r="C271" s="29"/>
     </row>
     <row r="272">
-      <c r="B272" s="27"/>
-      <c r="C272" s="27"/>
+      <c r="B272" s="29"/>
+      <c r="C272" s="29"/>
     </row>
     <row r="273">
-      <c r="B273" s="27"/>
-      <c r="C273" s="27"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="29"/>
     </row>
     <row r="274">
-      <c r="B274" s="27"/>
-      <c r="C274" s="27"/>
+      <c r="B274" s="29"/>
+      <c r="C274" s="29"/>
     </row>
     <row r="275">
-      <c r="B275" s="27"/>
-      <c r="C275" s="27"/>
+      <c r="B275" s="29"/>
+      <c r="C275" s="29"/>
     </row>
     <row r="276">
-      <c r="B276" s="27"/>
-      <c r="C276" s="27"/>
+      <c r="B276" s="29"/>
+      <c r="C276" s="29"/>
     </row>
     <row r="277">
-      <c r="B277" s="27"/>
-      <c r="C277" s="27"/>
+      <c r="B277" s="29"/>
+      <c r="C277" s="29"/>
     </row>
     <row r="278">
-      <c r="B278" s="27"/>
-      <c r="C278" s="27"/>
+      <c r="B278" s="29"/>
+      <c r="C278" s="29"/>
     </row>
     <row r="279">
-      <c r="B279" s="27"/>
-      <c r="C279" s="27"/>
+      <c r="B279" s="29"/>
+      <c r="C279" s="29"/>
     </row>
     <row r="280">
-      <c r="B280" s="27"/>
-      <c r="C280" s="27"/>
+      <c r="B280" s="29"/>
+      <c r="C280" s="29"/>
     </row>
     <row r="281">
-      <c r="B281" s="27"/>
-      <c r="C281" s="27"/>
+      <c r="B281" s="29"/>
+      <c r="C281" s="29"/>
     </row>
     <row r="282">
-      <c r="B282" s="27"/>
-      <c r="C282" s="27"/>
+      <c r="B282" s="29"/>
+      <c r="C282" s="29"/>
     </row>
     <row r="283">
-      <c r="B283" s="27"/>
-      <c r="C283" s="27"/>
+      <c r="B283" s="29"/>
+      <c r="C283" s="29"/>
     </row>
     <row r="284">
-      <c r="B284" s="27"/>
-      <c r="C284" s="27"/>
+      <c r="B284" s="29"/>
+      <c r="C284" s="29"/>
     </row>
     <row r="285">
-      <c r="B285" s="27"/>
-      <c r="C285" s="27"/>
+      <c r="B285" s="29"/>
+      <c r="C285" s="29"/>
     </row>
     <row r="286">
-      <c r="B286" s="27"/>
-      <c r="C286" s="27"/>
+      <c r="B286" s="29"/>
+      <c r="C286" s="29"/>
     </row>
     <row r="287">
-      <c r="B287" s="27"/>
-      <c r="C287" s="27"/>
+      <c r="B287" s="29"/>
+      <c r="C287" s="29"/>
     </row>
     <row r="288">
-      <c r="B288" s="27"/>
-      <c r="C288" s="27"/>
+      <c r="B288" s="29"/>
+      <c r="C288" s="29"/>
     </row>
     <row r="289">
-      <c r="B289" s="27"/>
-      <c r="C289" s="27"/>
+      <c r="B289" s="29"/>
+      <c r="C289" s="29"/>
     </row>
     <row r="290">
-      <c r="B290" s="27"/>
-      <c r="C290" s="27"/>
+      <c r="B290" s="29"/>
+      <c r="C290" s="29"/>
     </row>
     <row r="291">
-      <c r="B291" s="27"/>
-      <c r="C291" s="27"/>
+      <c r="B291" s="29"/>
+      <c r="C291" s="29"/>
     </row>
     <row r="292">
-      <c r="B292" s="27"/>
-      <c r="C292" s="27"/>
+      <c r="B292" s="29"/>
+      <c r="C292" s="29"/>
     </row>
     <row r="293">
-      <c r="B293" s="27"/>
-      <c r="C293" s="27"/>
+      <c r="B293" s="29"/>
+      <c r="C293" s="29"/>
     </row>
     <row r="294">
-      <c r="B294" s="27"/>
-      <c r="C294" s="27"/>
+      <c r="B294" s="29"/>
+      <c r="C294" s="29"/>
     </row>
     <row r="295">
-      <c r="B295" s="27"/>
-      <c r="C295" s="27"/>
+      <c r="B295" s="29"/>
+      <c r="C295" s="29"/>
     </row>
     <row r="296">
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="29"/>
+      <c r="C296" s="29"/>
     </row>
     <row r="297">
-      <c r="B297" s="27"/>
-      <c r="C297" s="27"/>
+      <c r="B297" s="29"/>
+      <c r="C297" s="29"/>
     </row>
     <row r="298">
-      <c r="B298" s="27"/>
-      <c r="C298" s="27"/>
+      <c r="B298" s="29"/>
+      <c r="C298" s="29"/>
     </row>
     <row r="299">
-      <c r="B299" s="27"/>
-      <c r="C299" s="27"/>
+      <c r="B299" s="29"/>
+      <c r="C299" s="29"/>
     </row>
     <row r="300">
-      <c r="B300" s="27"/>
-      <c r="C300" s="27"/>
+      <c r="B300" s="29"/>
+      <c r="C300" s="29"/>
     </row>
     <row r="301">
-      <c r="B301" s="27"/>
-      <c r="C301" s="27"/>
+      <c r="B301" s="29"/>
+      <c r="C301" s="29"/>
     </row>
     <row r="302">
-      <c r="B302" s="27"/>
-      <c r="C302" s="27"/>
+      <c r="B302" s="29"/>
+      <c r="C302" s="29"/>
     </row>
     <row r="303">
-      <c r="B303" s="27"/>
-      <c r="C303" s="27"/>
+      <c r="B303" s="29"/>
+      <c r="C303" s="29"/>
     </row>
     <row r="304">
-      <c r="B304" s="27"/>
-      <c r="C304" s="27"/>
+      <c r="B304" s="29"/>
+      <c r="C304" s="29"/>
     </row>
     <row r="305">
-      <c r="B305" s="27"/>
-      <c r="C305" s="27"/>
+      <c r="B305" s="29"/>
+      <c r="C305" s="29"/>
     </row>
     <row r="306">
-      <c r="B306" s="27"/>
-      <c r="C306" s="27"/>
+      <c r="B306" s="29"/>
+      <c r="C306" s="29"/>
     </row>
     <row r="307">
-      <c r="B307" s="27"/>
-      <c r="C307" s="27"/>
+      <c r="B307" s="29"/>
+      <c r="C307" s="29"/>
     </row>
     <row r="308">
-      <c r="B308" s="27"/>
-      <c r="C308" s="27"/>
+      <c r="B308" s="29"/>
+      <c r="C308" s="29"/>
     </row>
     <row r="309">
-      <c r="B309" s="27"/>
-      <c r="C309" s="27"/>
+      <c r="B309" s="29"/>
+      <c r="C309" s="29"/>
     </row>
     <row r="310">
-      <c r="B310" s="27"/>
-      <c r="C310" s="27"/>
+      <c r="B310" s="29"/>
+      <c r="C310" s="29"/>
     </row>
     <row r="311">
-      <c r="B311" s="27"/>
-      <c r="C311" s="27"/>
+      <c r="B311" s="29"/>
+      <c r="C311" s="29"/>
     </row>
     <row r="312">
-      <c r="B312" s="27"/>
-      <c r="C312" s="27"/>
+      <c r="B312" s="29"/>
+      <c r="C312" s="29"/>
     </row>
     <row r="313">
-      <c r="B313" s="27"/>
-      <c r="C313" s="27"/>
+      <c r="B313" s="29"/>
+      <c r="C313" s="29"/>
     </row>
     <row r="314">
-      <c r="B314" s="27"/>
-      <c r="C314" s="27"/>
+      <c r="B314" s="29"/>
+      <c r="C314" s="29"/>
     </row>
     <row r="315">
-      <c r="B315" s="27"/>
-      <c r="C315" s="27"/>
+      <c r="B315" s="29"/>
+      <c r="C315" s="29"/>
     </row>
     <row r="316">
-      <c r="B316" s="27"/>
-      <c r="C316" s="27"/>
+      <c r="B316" s="29"/>
+      <c r="C316" s="29"/>
     </row>
     <row r="317">
-      <c r="B317" s="27"/>
-      <c r="C317" s="27"/>
+      <c r="B317" s="29"/>
+      <c r="C317" s="29"/>
     </row>
     <row r="318">
-      <c r="B318" s="27"/>
-      <c r="C318" s="27"/>
+      <c r="B318" s="29"/>
+      <c r="C318" s="29"/>
     </row>
     <row r="319">
-      <c r="B319" s="27"/>
-      <c r="C319" s="27"/>
+      <c r="B319" s="29"/>
+      <c r="C319" s="29"/>
     </row>
     <row r="320">
-      <c r="B320" s="27"/>
-      <c r="C320" s="27"/>
+      <c r="B320" s="29"/>
+      <c r="C320" s="29"/>
     </row>
     <row r="321">
-      <c r="B321" s="27"/>
-      <c r="C321" s="27"/>
+      <c r="B321" s="29"/>
+      <c r="C321" s="29"/>
     </row>
     <row r="322">
-      <c r="B322" s="27"/>
-      <c r="C322" s="27"/>
+      <c r="B322" s="29"/>
+      <c r="C322" s="29"/>
     </row>
     <row r="323">
-      <c r="B323" s="27"/>
-      <c r="C323" s="27"/>
+      <c r="B323" s="29"/>
+      <c r="C323" s="29"/>
     </row>
     <row r="324">
-      <c r="B324" s="27"/>
-      <c r="C324" s="27"/>
+      <c r="B324" s="29"/>
+      <c r="C324" s="29"/>
     </row>
     <row r="325">
-      <c r="B325" s="27"/>
-      <c r="C325" s="27"/>
+      <c r="B325" s="29"/>
+      <c r="C325" s="29"/>
     </row>
     <row r="326">
-      <c r="B326" s="27"/>
-      <c r="C326" s="27"/>
+      <c r="B326" s="29"/>
+      <c r="C326" s="29"/>
     </row>
     <row r="327">
-      <c r="B327" s="27"/>
-      <c r="C327" s="27"/>
+      <c r="B327" s="29"/>
+      <c r="C327" s="29"/>
     </row>
     <row r="328">
-      <c r="B328" s="27"/>
-      <c r="C328" s="27"/>
+      <c r="B328" s="29"/>
+      <c r="C328" s="29"/>
     </row>
     <row r="329">
-      <c r="B329" s="27"/>
-      <c r="C329" s="27"/>
+      <c r="B329" s="29"/>
+      <c r="C329" s="29"/>
     </row>
     <row r="330">
-      <c r="B330" s="27"/>
-      <c r="C330" s="27"/>
+      <c r="B330" s="29"/>
+      <c r="C330" s="29"/>
     </row>
     <row r="331">
-      <c r="B331" s="27"/>
-      <c r="C331" s="27"/>
+      <c r="B331" s="29"/>
+      <c r="C331" s="29"/>
     </row>
     <row r="332">
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
+      <c r="B332" s="29"/>
+      <c r="C332" s="29"/>
     </row>
     <row r="333">
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
+      <c r="B333" s="29"/>
+      <c r="C333" s="29"/>
     </row>
     <row r="334">
-      <c r="B334" s="27"/>
-      <c r="C334" s="27"/>
+      <c r="B334" s="29"/>
+      <c r="C334" s="29"/>
     </row>
     <row r="335">
-      <c r="B335" s="27"/>
-      <c r="C335" s="27"/>
+      <c r="B335" s="29"/>
+      <c r="C335" s="29"/>
     </row>
     <row r="336">
-      <c r="B336" s="27"/>
-      <c r="C336" s="27"/>
+      <c r="B336" s="29"/>
+      <c r="C336" s="29"/>
     </row>
     <row r="337">
-      <c r="B337" s="27"/>
-      <c r="C337" s="27"/>
+      <c r="B337" s="29"/>
+      <c r="C337" s="29"/>
     </row>
     <row r="338">
-      <c r="B338" s="27"/>
-      <c r="C338" s="27"/>
+      <c r="B338" s="29"/>
+      <c r="C338" s="29"/>
     </row>
     <row r="339">
-      <c r="B339" s="27"/>
-      <c r="C339" s="27"/>
+      <c r="B339" s="29"/>
+      <c r="C339" s="29"/>
     </row>
     <row r="340">
-      <c r="B340" s="27"/>
-      <c r="C340" s="27"/>
+      <c r="B340" s="29"/>
+      <c r="C340" s="29"/>
     </row>
     <row r="341">
-      <c r="B341" s="27"/>
-      <c r="C341" s="27"/>
+      <c r="B341" s="29"/>
+      <c r="C341" s="29"/>
     </row>
     <row r="342">
-      <c r="B342" s="27"/>
-      <c r="C342" s="27"/>
+      <c r="B342" s="29"/>
+      <c r="C342" s="29"/>
     </row>
     <row r="343">
-      <c r="B343" s="27"/>
-      <c r="C343" s="27"/>
+      <c r="B343" s="29"/>
+      <c r="C343" s="29"/>
     </row>
     <row r="344">
-      <c r="B344" s="27"/>
-      <c r="C344" s="27"/>
+      <c r="B344" s="29"/>
+      <c r="C344" s="29"/>
     </row>
     <row r="345">
-      <c r="B345" s="27"/>
-      <c r="C345" s="27"/>
+      <c r="B345" s="29"/>
+      <c r="C345" s="29"/>
     </row>
     <row r="346">
-      <c r="B346" s="27"/>
-      <c r="C346" s="27"/>
+      <c r="B346" s="29"/>
+      <c r="C346" s="29"/>
     </row>
     <row r="347">
-      <c r="B347" s="27"/>
-      <c r="C347" s="27"/>
+      <c r="B347" s="29"/>
+      <c r="C347" s="29"/>
     </row>
     <row r="348">
-      <c r="B348" s="27"/>
-      <c r="C348" s="27"/>
+      <c r="B348" s="29"/>
+      <c r="C348" s="29"/>
     </row>
     <row r="349">
-      <c r="B349" s="27"/>
-      <c r="C349" s="27"/>
+      <c r="B349" s="29"/>
+      <c r="C349" s="29"/>
     </row>
     <row r="350">
-      <c r="B350" s="27"/>
-      <c r="C350" s="27"/>
+      <c r="B350" s="29"/>
+      <c r="C350" s="29"/>
     </row>
     <row r="351">
-      <c r="B351" s="27"/>
-      <c r="C351" s="27"/>
+      <c r="B351" s="29"/>
+      <c r="C351" s="29"/>
     </row>
     <row r="352">
-      <c r="B352" s="27"/>
-      <c r="C352" s="27"/>
+      <c r="B352" s="29"/>
+      <c r="C352" s="29"/>
     </row>
     <row r="353">
-      <c r="B353" s="27"/>
-      <c r="C353" s="27"/>
+      <c r="B353" s="29"/>
+      <c r="C353" s="29"/>
     </row>
     <row r="354">
-      <c r="B354" s="27"/>
-      <c r="C354" s="27"/>
+      <c r="B354" s="29"/>
+      <c r="C354" s="29"/>
     </row>
     <row r="355">
-      <c r="B355" s="27"/>
-      <c r="C355" s="27"/>
+      <c r="B355" s="29"/>
+      <c r="C355" s="29"/>
     </row>
     <row r="356">
-      <c r="B356" s="27"/>
-      <c r="C356" s="27"/>
+      <c r="B356" s="29"/>
+      <c r="C356" s="29"/>
     </row>
     <row r="357">
-      <c r="B357" s="27"/>
-      <c r="C357" s="27"/>
+      <c r="B357" s="29"/>
+      <c r="C357" s="29"/>
     </row>
     <row r="358">
-      <c r="B358" s="27"/>
-      <c r="C358" s="27"/>
+      <c r="B358" s="29"/>
+      <c r="C358" s="29"/>
     </row>
     <row r="359">
-      <c r="B359" s="27"/>
-      <c r="C359" s="27"/>
+      <c r="B359" s="29"/>
+      <c r="C359" s="29"/>
     </row>
     <row r="360">
-      <c r="B360" s="27"/>
-      <c r="C360" s="27"/>
+      <c r="B360" s="29"/>
+      <c r="C360" s="29"/>
     </row>
     <row r="361">
-      <c r="B361" s="27"/>
-      <c r="C361" s="27"/>
+      <c r="B361" s="29"/>
+      <c r="C361" s="29"/>
     </row>
     <row r="362">
-      <c r="B362" s="27"/>
-      <c r="C362" s="27"/>
+      <c r="B362" s="29"/>
+      <c r="C362" s="29"/>
     </row>
     <row r="363">
-      <c r="B363" s="27"/>
-      <c r="C363" s="27"/>
+      <c r="B363" s="29"/>
+      <c r="C363" s="29"/>
     </row>
     <row r="364">
-      <c r="B364" s="27"/>
-      <c r="C364" s="27"/>
+      <c r="B364" s="29"/>
+      <c r="C364" s="29"/>
     </row>
     <row r="365">
-      <c r="B365" s="27"/>
-      <c r="C365" s="27"/>
+      <c r="B365" s="29"/>
+      <c r="C365" s="29"/>
     </row>
     <row r="366">
-      <c r="B366" s="27"/>
-      <c r="C366" s="27"/>
+      <c r="B366" s="29"/>
+      <c r="C366" s="29"/>
     </row>
     <row r="367">
-      <c r="B367" s="27"/>
-      <c r="C367" s="27"/>
+      <c r="B367" s="29"/>
+      <c r="C367" s="29"/>
     </row>
     <row r="368">
-      <c r="B368" s="27"/>
-      <c r="C368" s="27"/>
+      <c r="B368" s="29"/>
+      <c r="C368" s="29"/>
     </row>
     <row r="369">
-      <c r="B369" s="27"/>
-      <c r="C369" s="27"/>
+      <c r="B369" s="29"/>
+      <c r="C369" s="29"/>
     </row>
     <row r="370">
-      <c r="B370" s="27"/>
-      <c r="C370" s="27"/>
+      <c r="B370" s="29"/>
+      <c r="C370" s="29"/>
     </row>
     <row r="371">
-      <c r="B371" s="27"/>
-      <c r="C371" s="27"/>
+      <c r="B371" s="29"/>
+      <c r="C371" s="29"/>
     </row>
     <row r="372">
-      <c r="B372" s="27"/>
-      <c r="C372" s="27"/>
+      <c r="B372" s="29"/>
+      <c r="C372" s="29"/>
     </row>
     <row r="373">
-      <c r="B373" s="27"/>
-      <c r="C373" s="27"/>
+      <c r="B373" s="29"/>
+      <c r="C373" s="29"/>
     </row>
     <row r="374">
-      <c r="B374" s="27"/>
-      <c r="C374" s="27"/>
+      <c r="B374" s="29"/>
+      <c r="C374" s="29"/>
     </row>
     <row r="375">
-      <c r="B375" s="27"/>
-      <c r="C375" s="27"/>
+      <c r="B375" s="29"/>
+      <c r="C375" s="29"/>
     </row>
     <row r="376">
-      <c r="B376" s="27"/>
-      <c r="C376" s="27"/>
+      <c r="B376" s="29"/>
+      <c r="C376" s="29"/>
     </row>
     <row r="377">
-      <c r="B377" s="27"/>
-      <c r="C377" s="27"/>
+      <c r="B377" s="29"/>
+      <c r="C377" s="29"/>
     </row>
     <row r="378">
-      <c r="B378" s="27"/>
-      <c r="C378" s="27"/>
+      <c r="B378" s="29"/>
+      <c r="C378" s="29"/>
     </row>
     <row r="379">
-      <c r="B379" s="27"/>
-      <c r="C379" s="27"/>
+      <c r="B379" s="29"/>
+      <c r="C379" s="29"/>
     </row>
     <row r="380">
-      <c r="B380" s="27"/>
-      <c r="C380" s="27"/>
+      <c r="B380" s="29"/>
+      <c r="C380" s="29"/>
     </row>
     <row r="381">
-      <c r="B381" s="27"/>
-      <c r="C381" s="27"/>
+      <c r="B381" s="29"/>
+      <c r="C381" s="29"/>
     </row>
     <row r="382">
-      <c r="B382" s="27"/>
-      <c r="C382" s="27"/>
+      <c r="B382" s="29"/>
+      <c r="C382" s="29"/>
     </row>
     <row r="383">
-      <c r="B383" s="27"/>
-      <c r="C383" s="27"/>
+      <c r="B383" s="29"/>
+      <c r="C383" s="29"/>
     </row>
     <row r="384">
-      <c r="B384" s="27"/>
-      <c r="C384" s="27"/>
+      <c r="B384" s="29"/>
+      <c r="C384" s="29"/>
     </row>
     <row r="385">
-      <c r="B385" s="27"/>
-      <c r="C385" s="27"/>
+      <c r="B385" s="29"/>
+      <c r="C385" s="29"/>
     </row>
     <row r="386">
-      <c r="B386" s="27"/>
-      <c r="C386" s="27"/>
+      <c r="B386" s="29"/>
+      <c r="C386" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/IdentificacionSesgo.xlsx
+++ b/data/IdentificacionSesgo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="366">
   <si>
     <r>
       <rPr>
@@ -725,10 +725,10 @@
     <t>Motilonas Rap es un grupo de rap conformado por Johana Ortega Cabarico y Denys Aleyda Cáceres Cabarico, quienes le dieron vida en el año 2010 en el municipio de Tibú (Norte de Santander). Su nombre artístico es un homenaje al pueblo originario Barí, conocidos como Motilones Barí, quienes han habitado y resistido históricamente en este territorio. Para las Motilonas, el rap es una herramienta que permite reconstruir la memoria, fortalecer el tejido social, devolver la esperanza y aportar a la transformación territorial a través del arte. «¿Cuándo será la última vez que escribiremos a nuestro país que estamos cansados de la muerte, de la guerra, la miseria y todo lo que nos duele? A gritos y con digna rabia nos volvemos a levantar con rap hasta que nos escuchen, y en medio del paro nacional no seremos la excepción», expresó Denys Cáceres.</t>
   </si>
   <si>
-    <t>1,2,0,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,0</t>
+    <t>1,2,0,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,0,0</t>
   </si>
   <si>
     <t>Yeies</t>
@@ -740,115 +740,115 @@
 educativo en la modalidad de alternancia”.</t>
   </si>
   <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0</t>
+    <t>1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,1,0,0,0</t>
   </si>
   <si>
     <t>Según especialistas consultados, el paro nacional también evidenció un incremento en el nivel de participación política y social de diversos sectores civiles del país, como contrapeso a la falta de respuestas rápidas y concretas por parte de varios mandatarios a las necesidades de sus gobernados y a la agudización de la crisis de credibilidad en las instituciones.</t>
   </si>
   <si>
-    <t>1,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1</t>
+    <t>1,0,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,-1</t>
   </si>
   <si>
     <t>Por ello, hoy defiende el paro y justifica los bloqueos, alegando que para ellos no hay otra manera de que “les paren bolas”. Sus peticiones, a diferencia de lo que se demanda en las calles de las grandes ciudades, parecen básicas: vías en buen estado, acueducto, alcantarillado, una universidad pública para la región -para que sus hijos no apuesten por la coca- o seguridad para no ser presos de los armados. “Lo que vemos son promesas fallidas. En elecciones prometen inversión social y nunca llega. Nos han incumplido. Estamos en total abandono. Me arde la espalda de cargar y cargar las piñas que cultivo y que nadie compra”.</t>
   </si>
   <si>
-    <t>2,2,2,1</t>
+    <t>2,2,2,1,2</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
   </si>
   <si>
     <t>Sin duda el paro nacional dejó una fuerte marca en la inflación en mayo. Esto último causó presiones alcistas sin precedentes en los costos de los alimentos, pues el grupo presentó un histórico avance de 5.4%, explicando así cerca del 90% de la inflación total en el mes, y superando ampliamente lo observado en el más reciente choque sobre los alimentos, es decir el paro camionero del 2016. Como se observó esa vez, este tipo de efectos sobre los precios provenientes del lado de la oferta suelen corregirse rápidamente, tendencia que debería observarse una vez se levanten los bloqueos.</t>
   </si>
   <si>
-    <t>2,2,2,2</t>
-  </si>
-  <si>
-    <t>0,0,0,0</t>
+    <t>2,2,2,2,1</t>
+  </si>
+  <si>
+    <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>En Cali, Medellín, Bucaramanga, Pasto, Popayán y Bogotá se registraron las principales manifestaciones esta semana, luego del anuncio del Comité Nacional del Paro de suspender temporalmente las movilizaciones y empezar nuevas tácticas, para continuar el paro.</t>
   </si>
   <si>
-    <t>2,1,1,0</t>
+    <t>2,1,1,0,2</t>
   </si>
   <si>
     <t>Hasta el 28 de mayo de 2021, cuando se cumplía un mes de movilizaciones en Colombia por el Paro Nacional, la Fundación para la Libertad de Prensa (FLIP) registró 165 violaciones a la libertad de prensa que han dejado 186 víctimas. Dentro de los hechos más graves se destacan: 59 agresiones físicas; 31 amenazas; y 6 detenciones ilegales. En este contexto, las mujeres periodistas han sido víctimas de 30 agresiones, entre las que se encuentran las agresiones físicas (10), el robo o eliminación del material periodístico (5), las detenciones ilegales (3) y las amenazas (4).</t>
   </si>
   <si>
-    <t>3,3,3,3</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,0</t>
+    <t>-1,-1,-1,0,0</t>
   </si>
   <si>
     <t>El sistema de transporte público en Colombia está viviendo uno de sus momentos económicos más complicados. La reducción de pasajeros a costa de la pandemia trajo consigo un hueco difícil de tapar. Según el presidente de Metrocali -entidad encargada del funcionamiento del Masivo Integrado de Occidente (MIO)-, Óscar Ortiz, las empresas perdieron alrededor de $2,2 billones en 2020 a causa del virus. Sin embargo, este año las cosas se complicaron aún más, pues a la pandemia se sumaron los actos vandálicos contra estaciones y buses que fueron atacados durante más de un mes de protesta social en el país. En Cali, Bucaramanga, Pereira, Bogotá, entre otras ciudades, las pérdidas han sido millonarias y la oferta del servicio bajó ante el daño que hubo en los elementos del sistema.</t>
   </si>
   <si>
-    <t>3,3,2,2</t>
+    <t>3,3,2,2,2</t>
   </si>
   <si>
     <t>Es sencillo ser un pensionado que se opone a cualquier reforma y hacer parte del Comité del Paro, cuando se recibe un subsidio millonario a cargo del Estado. Por ejemplo, en una pensión de 10 millones de pesos que paga Colpensiones, 4 millones los ahorró ese trabajador durante su vida laboral mediante sus aportes, los restantes 6 millones los aportamos los demás colombianos, incluso los más pobres al pagar el famoso IVA, IVA que por cierto hoy pagan y se pretendía devolver a 40% de la población.</t>
   </si>
   <si>
-    <t>1,1,1,-1</t>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,-1,1</t>
   </si>
   <si>
     <t>La protesta virtual en Colombia no volverá a ser la misma después del paro nacional. Así quedó demostrado luego de más de 40 días de movilizaciones que se apoyaron en herramientas digitales para visibilizar, amplificar y posicionar el estallido social en la agenda global.</t>
   </si>
   <si>
-    <t>2,2,1,0</t>
+    <t>2,2,1,0,1</t>
   </si>
   <si>
     <t>el paro nacional deja más pérdidas que ganancias para la sociedad en general. Desde luego hubo ganadores, sobre todo aquellos que se alimentan de la polarización o de las víctimas ajenas para validar su discurso. Sin embargo, el balance general es desolador: estamos más pobres, más divididos y más dolidos que antes del 28 de abril del 2021. Salir adelante será más difícil, y de todos dependerá el subsanar estas tres grandes y peores pérdidas que deja un paro ya sin fuelle.</t>
   </si>
   <si>
-    <t>2,2,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,1,1</t>
+    <t>2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,1</t>
   </si>
   <si>
     <t>Con 599 muertes por covid reportadas ayer, es el cuarto día consecutivo que se registra un nuevo récord de fallecimientos en el país. En vista de que el tercer pico está lejos de estar bajo control, la semana pasada más de 140 asociaciones de la comunidad científica y el sector salud le pidieron al Gobierno aplazar la reapertura económica. El Gobierno, mientras tanto, sigue ocupado señalando al paro como único culpable de la crisis.</t>
   </si>
   <si>
-    <t>-1,-1,-1,-1</t>
+    <t>-1,-1,-1,-1,-1</t>
   </si>
   <si>
     <t>Tanto la ONU como la Unión Europea y varios países pidieron el sábado un diálogo serio como solución a la crisis y para evitar que se produzca más violencia y muera más gente, después de que se confirmasen 13 homicidios el viernes en Cali tras una jornada de enfrentamientos con la Policía y la irrupción de civiles armados en las protestas.</t>
   </si>
   <si>
-    <t>0,0,-1,0</t>
+    <t>0,0,-1,0,0</t>
   </si>
   <si>
     <t>A través de su cuenta de Twitter, el director de la División de las Américas de Human Rights Watch, José Miguel Vivanco, afirmó que la organización tiene evidencias de que miembros de la Policía habrían asesinado al menos a 20 manifestantes durante las jornadas del paro nacional en el país. Vivanco dijo: “Hemos documentado cada caso con evidencias de primera mano incluyendo informes médicos y forenses, entrevistas con testigos, familiares y abogados de víctimas y autoridades judiciales, y verificación de videos”.</t>
   </si>
   <si>
-    <t>0,0,0,-1</t>
+    <t>0,0,0,-1,0</t>
   </si>
   <si>
     <t>los jóvenes siempre han sido actores relevantes en los reclamos y las protestas sociales, sin embargo, el paro que generó un estallido social este año tiene una particularidad para ella: “Ahora los adultos, la generación anterior a nosotros como nuestros padres y abuelos, nos están reconociendo, antes no lo hacían”. De eso, precisamente, se trataba el IV Encuentro de Memorias. Danilo Rueda, coordinador de la Comisión Intereclesial de Justicia y Paz, explicó que para garantizar la no repetición del conflicto hay que entender que “cuando hablamos de territorios no son solo la ruralidad, sino también los territorios urbanos”.</t>
   </si>
   <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
     <t>Es decir, “les conviene que haya unos chicos tirando piedras, manteniendo a la policía entretenida y no persiguiéndolos a ellos y a sus rentas criminales. Todo eso se mezcla de una manera complicada. Ahora, no es lo mismo un vándalo al que le paga la olla de narcotráfico que el chico humilde de Kennedy que está protestando con arte y cultura. Si los igualamos, los estigmatizamos y creamos más tensión. Vamos a tener cuidado para usar el canal adecuado”.</t>
   </si>
   <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>0,0</t>
+    <t>3,2,2</t>
   </si>
   <si>
     <t>Este 21 de junio, Colombia superó la dolorosa cifra de 100 mil muertos de covid-19, situación que conmocionó al país y que ocasionó múltiples reacciones, entre ellas, la del presidente de la República, Iván Duque, quien no solo lamentó la situación, sino que también responsabilizó al paro nacional de dicha situación; tras sus declaraciones, Gustavo Petro no tardó en reaccionar.</t>
   </si>
   <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>0,1</t>
+    <t>0,1,1</t>
   </si>
   <si>
     <t>“Desde el 28 de abril a 16 de junio hemos registrado alegaciones de 56 muertes, entre ellas 54 civiles y 2 policías, en el contexto de las protestas, principalmente en Cali; así como 49 alegaciones de víctimas de violencia sexual. Mi Oficina también está documentando abusos contra los derechos humanos por parte de actores no estatales y los efectos de los bloqueos continuos en los derechos humanos”, apuntó Bachelet.</t>
@@ -860,43 +860,43 @@
     <t>Tras más de 50 días de manifestaciones en la capital del Valle del Cauca, varios hechos de violencia, discriminación y clasismo han revelado una profunda división social en Cali. Uno de esos hechos ocurrió en el barrio Ciudad Jardín el pasado 28 de mayo, cuando civiles armados, en compañía de la Policía, dispararon contra manifestantes.</t>
   </si>
   <si>
-    <t>-1,-1</t>
-  </si>
-  <si>
-    <t>El Gobierno de Iván Duque anunció este viernes (18.06.2021) que modificó un decreto presidencial para limitar la definición de protesta pacífica y especificar que los bloqueos de vías -ya sean temporales o permanentes- no constituyen una forma de manifestación y por ello permite el "uso legítimo de la fuerza".</t>
+    <t>El Gobierno de Iván Duque anunció este viernes 18 de Junio que modificó un decreto presidencial para limitar la definición de protesta pacífica y especificar que los bloqueos de vías -ya sean temporales o permanentes- no constituyen una forma de manifestación y por ello permite el "uso legítimo de la fuerza".</t>
   </si>
   <si>
     <t>Todas las fuentes consultadas para este reportaje —incluido Orjuela— dijeron que el paro debió tener alguna influencia en el aumento de contagios y muertes. Pero difirieron en la relevancia que pudo haber tenido.</t>
   </si>
   <si>
-    <t>2,1</t>
-  </si>
-  <si>
     <t>Pero esto no ha servido para calmar la indignación. Y con el paso del tiempo, las protestas han dividido aún más a una sociedad ya polarizada: los partidarios dicen que las marchas son la única manera de conseguir que una clase política atrincherada los escuche, y los opositores dicen que los mensajes de los manifestantes han sido eclipsados por los actos violentos de algunos de ellos.</t>
   </si>
   <si>
     <t>Una primera razón es la gran debilidad de las organizaciones populares en Colombia. No tenemos los partidos indígenas de otros países andinos, ni los sindicatos poderosos de Argentina o de Brasil, ni la coalición de clases medias en el estilo de Chile; tenemos núcleos regionales como el CRIC, sindicatos sectoriales como Fecode o movilizaciones locales contra algunos proyectos mineros. En segundo lugar, las organizaciones nacionales siempre han estado intensamente fragmentadas. El movimiento campesino se dividió y se divide en varias “líneas”, los estudiantes o los pensionados tienen varias “federaciones”, e inclusive hoy en el Comité Nacional del Paro toman asiento tres centrales obreras que llevan años de disputarse el predominio.</t>
   </si>
   <si>
+    <t>1,1,1,1,2</t>
+  </si>
+  <si>
     <t>Programmasch</t>
   </si>
   <si>
     <t>Esa debilidad y esa fragmentación son a su vez reflejo de un problema más hondo: nadie en Colombia representa a nadie. Los sindicatos hablan por un 4 % de los trabajadores en las grandes empresas, las ONG hablan por sus respectivos activistas, los gremios dicen unas cosas mientras Sarmiento y los antioqueños se aseguran de otras cosas, el periodismo desapareció, las redes son ruido puro… e incluso los políticos de oposición hablan a título personal (como dijo De la Calle cuando la Coalición de la Esperanza se reunió con Iván Duque).</t>
   </si>
   <si>
-    <t>1,1,2</t>
+    <t>1,1,2,1,2</t>
   </si>
   <si>
     <t>La Federación de Empresarios del Transporte de Carga (Fedetranscarga) analizó los viajes de carga realizados entre el 28 de abril, cuando inició el paro, al 15 de junio, y los comparó con el mismo periodo de 2020, fecha en que había en el país algunas restricciones por el aislamiento obligatorio, y encontró que se dio una reducción en la carga de 3,1%.</t>
   </si>
   <si>
+    <t>1,1,2,1,1</t>
+  </si>
+  <si>
     <t>Según la Oficina de planeación y estudios económicos de Fedegán, los productores de leche dejaron de comercializar unos 395.900 millones de litros de leche (cerca de $403.000 millones). Por otra parte, los novillos que no fueron sacrificados desde el inicio del paro totalizaron 222.597 y las pérdidas son cercanas a $456.000 millones.</t>
   </si>
   <si>
-    <t>3,2,2</t>
-  </si>
-  <si>
-    <t>0,0,1</t>
+    <t>3,2,2,2</t>
+  </si>
+  <si>
+    <t>0,0,1,0</t>
   </si>
   <si>
     <t>La Asociación del Sector Automotriz y sus Partes (Asopartes) encendió de nuevo las alarmas por cuenta de las afectaciones que ha presentado el sector de fabricación y ensamblaje de vehículos tras varias semanas de paro nacional en el país. Este tipo de situaciones en la cadena logística y de adquisición de 
@@ -904,28 +904,55 @@
 hasta el 500 %, razón por la que en algunos casos los precios finales al consumidor podrían incrementarse cuatro o cinco veces.</t>
   </si>
   <si>
-    <t>1,2,2</t>
+    <t>1,2,2,2</t>
   </si>
   <si>
     <t>En opinión de analistas, si se mide con esa vara, el balance del Congreso es agridulce, pues si bien se hundieron iniciativas tan impopulares como las reformas tributaria y a la salud, y el proyecto que buscaba la extensión del período presidencial, otras relacionadas con la educación, el medio ambiente y el desarrollo del Acuerdo de Paz quedaron en veremos. Además, en materia de control político, aunque el ministro de Defensa, Diego Molano, fue citado para responder por los excesos de la fuerza pública durante el paro, finalmente logró conservar su cargo.</t>
   </si>
   <si>
+    <t>1,2,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1</t>
+  </si>
+  <si>
     <t>Aunque fueron varias las iniciativas que no lograron prosperar en el Congreso, el hundimiento del proyecto de matrícula cero levantó ampolla. La iniciativa buscaba que la matrícula de los universitarios de estratos bajos que estudian en universidades públicas fuera gratuita. “Las mayorías uribistas en el Senado le dan la espalda de nuevo a los jóvenes”, reclamó el senador Antonio Sanguino (Alianza Verde), uno de sus autores. Por su parte, Gustavo Bolívar (Coalición Decentes) manifestó que persistirán en el proyecto en el período que arranca el 20 de julio, pero llamó la atención por su poco respaldo en el Congreso. “Lo seguiremos intentando, pero con estas minorías es imposible”, dijo.</t>
   </si>
   <si>
+    <t>2,2,2,2</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>2,2,1,2</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
     <t>Entre $4,8 billones y $6,1 billones estima Fedesarrollo el costo que hoy ha dejado para el país el paro nacional, luego de un mes de bloqueos y manifestaciones. El director del centro de análisis, Luis Fernando Mejía, dijo que “estimamos que el costo económico del paro nacional en el mes de mayo oscila entre $4,8 y $6,1 billones. Sin embargo, una prolongación de los bloqueos implicaría un costo económico superior al estimado”.</t>
   </si>
   <si>
     <t>Vidrios rotos, rejas y puertas destruidas, paredes maltratadas o invadidas de mensajes, vehículos averiados o incendiados. Esas son algunas de las imágenes del vandalismo que han visto los colombianos a través de la televisión, y que ha dejado hasta ahora el paro nacional en la infraestructura de las ciudades más afectadas.</t>
   </si>
   <si>
+    <t>2,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
     <t>Claro está, hay que tener en cuenta que, en hechos como los ocurridos en Colombia durante el último mes, los hogares no son el objetivo de vandalismo. Sin embargo, terminan metidos en la ola, por vecindad con los puntos focales, que, en este caso, han sido las estaciones y vehículos de los sistemas de transporte; los bienes en espacio público como estatuas que hacen parte de los símbolos de algún hecho histórico en el país; los vehículos, entre otros.</t>
   </si>
   <si>
+    <t>1,0,0,0</t>
+  </si>
+  <si>
     <t>El director de Fedesarrollo anunció que el pronóstico de crecimiento de la economía colombiana en 2021 sería revisado al alza a pesar de la situación de orden público que está experimentando el país. Allí precisó que “el sorprendente dato de crecimiento en el primer trimestre del año, la aceleración del proceso de vacunación en las últimas semanas y la baja base de comparación de 2020 implican que la tasa de crecimiento del PIB de 2021 sería superior al 4,8% que pronosticábamos a inicio de año”. Estas cifras de Fedesarrollo contrastas con las que señaló el Ministro de Hacienda, quien calculó las pérdidas en $10 billones.</t>
   </si>
   <si>
-    <t>0,0,2</t>
+    <t>0,0,2,0</t>
   </si>
   <si>
     <t>El vicepresidente técnico de Fasecolda indicó que “sin lugar a dudas, quienes resultaron afectados y contaban con un seguro, verán minimizado el impacto de los daños provocados por el vandalismo. Aquellos que no tenían un seguro, deberán asumir estos daños de su propio bolsillo”.</t>
@@ -934,22 +961,28 @@
     <t>Una encuesta de Confecámaras reportó que 90,4% de los 12.979 empresarios consultados dijeron que, de los puestos de trabajo que generan, entre uno y cinco están en riesgo por los efectos del paro y los bloqueos. Así mismo, una encuesta de la Cámara de Comercio de Bogotá encontró que, de continuar con la situación de orden público, 21% de las compañías en la capital reduciría el personal contratado.</t>
   </si>
   <si>
+    <t>2,1,2,2</t>
+  </si>
+  <si>
     <t>Los expertos —incluido el ministro Ruiz— concuerdan en que es difícil saber con exactitud cuánta responsabilidad tienen las protestas en la crisis sanitaria, debido a que el estallido coincidió con varias medidas de reapertura de la actividad económica, y la llegada, comprobada por las autoridades, de al menos dos de las cuatro variantes de covid-19 que exacerban la transmisibilidad.</t>
   </si>
   <si>
-    <t>0,1,2</t>
+    <t>0,1,2,2</t>
   </si>
   <si>
     <t>En un barrio rico de Cali, civiles sacaron sus pistolas y fusiles para disparar contra manifestantes, con policías a su lado. Querían cuidar sus bienes de personas que querían afectarlos. Ya fracturada por la desigualdad y el racismo, la capital del Valle del Cauca se encontró en el paro nacional con una realidad soterrada. El 28 de mayo, una turba de barrios marginales arribó al exclusivo sector de Ciudad Jardín e intentó incendiar una estación de policía. Los vecinos respondieron a tiros.</t>
   </si>
   <si>
-    <t>3,3,0</t>
+    <t>3,3,0,3</t>
+  </si>
+  <si>
+    <t>-1,0,0,0</t>
   </si>
   <si>
     <t>Ambas organizaciones están instaladas en la plazoleta frente al importante portal Américas, pero la primera línea se ha mostrado más resistente a un acuerdo. “Nos consideramos independientes. Respetamos las dinámicas del Comité del Paro, pero no las reconocemos como nuestras. No aceptamos el bajarse de la mesa ni que se acaben los bloqueos. La primera línea portal de la Resistencia sigue en pie de lucha y seguimos en un proceso de conformación de un movimiento político y, como tal, no vamos a descansar”, aseguró el Profe. Han sido claros en señalar que las vías de hecho no se van a abandonar por ahora y que defenderán a la población y a los manifestantes. “La primera línea prestará seguridad contra la represión estatal”, agregó. Pero ¿qué piden? Tienen al menos un pliego de 21 peticiones de carácter nacional y distrital.</t>
   </si>
   <si>
-    <t>1,0,2</t>
+    <t>1,0,2,2</t>
   </si>
   <si>
     <t>Aunque la desigualdad ya venía empeorando incluso antes de la pandemia, se agigantó entre 2019 y 2020, cuando cayeron en pobreza 375.990 personas en la urbe de 2,2 millones de habitantes. Sin nada que perder, estos mismos jóvenes escalaron el pulso cerrando calles enteras para instalarse en verdaderos campamentos urbanos que exasperan a una buena parte de la población que padece con esos bloqueos.</t>
@@ -958,6 +991,12 @@
     <t>Y, además, dicen que para iniciar el diálogo solicitan la no judicialización de los miembros de la primera línea por delitos relacionados con terrorismo, vandalismo, daño en bien público y demás delitos relacionados con bienes jurídicos protegidos y el reconocimiento del parque Mundo como una zona de campamento permanente para miembros de las primeras líneas que al momento de ejercer el derecho de la manifestación se quedaron sin hogar. “Exigimos que se nos establezca ese campamento con veeduría 24/7”.</t>
   </si>
   <si>
+    <t>1,1,2,3</t>
+  </si>
+  <si>
+    <t>0,-1,0,0</t>
+  </si>
+  <si>
     <t>Luego de esta intervención se determinó que es de carácter prioritario que la alcaldía local adopte las medidas necesarias para preservar el orden público. Así fue que el 11 de junio de 2021, la alcaldía de Kennedy conoció de una petición ciudadana relacionada con la situación de seguridad y deterioro de ese espacio. Allí no solo hay vandalismo sino consumo de droga y se han reportado varios delitos cometidos en las inmediaciones del lugar.</t>
   </si>
   <si>
@@ -967,6 +1006,9 @@
     <t>De acuerdo con analistas, a causa de la anarquía que se vivió durante el estallido social, la seguridad y el orden volvieron a convertirse en temas claves para la agenda política de los actuales gobiernos -sin distingo de sus filiaciones políticas- y para el panorama electoral del 2022.</t>
   </si>
   <si>
+    <t>1,1,2,1</t>
+  </si>
+  <si>
     <t>El parque Mundo al que se refiere es un espacio público ubicado en inmediaciones del portal que ya ha sido ocupado con campamentos. Concejales han denunciado la ocupación de este espacio y el Distrito está al tanto de su existencia. Hace unas semanas, de hecho, se ofrecieron allí servicios distritales en el marco de una feria comunitaria. Ante la posibilidad de que el Distrito no conceda este espacio, ‘el Profe’ aseguró que están abiertos “a escuchar otras opciones”.</t>
   </si>
   <si>
@@ -976,21 +1018,21 @@
     <t>Y el despliegue de fuerza, ante la mirada de algunos policías cómplices, hizo que los manifestantes sintieran que su ‘enemigo’ se encontraba más cerca de lo pensado. Cuando intentaron responder el 28 de mayo, fueron recibidos a bala. La policía anunció acciones contra los agentes “permisivos”.</t>
   </si>
   <si>
-    <t>2,2,3</t>
-  </si>
-  <si>
-    <t>0,0,-1</t>
+    <t>2,2,3,2</t>
+  </si>
+  <si>
+    <t>0,0,-1,0</t>
   </si>
   <si>
     <t>A su turno, el analista político Julián Peña recalca que todos los gobernantes deben propender constitucionalmente por el orden público y la seguridad de la ciudadanía, incluso los que han tenido una postura de apoyo o diálogo con los manifestantes. “Varios alcaldes se dedicaron fue a hacer politiquería, maltratando a la Fuerza Pública, porque era popular. Hoy en día se sienten maniatados entre sus propuestas y sus obligaciones constitucionales”, dice.</t>
   </si>
   <si>
-    <t>1,0,1</t>
-  </si>
-  <si>
     <t>El paro nacional ha dejado un saldo de 21 víctimas mortales confirmadas que guardan relación con las manifestaciones. Esta es una cifra terrible a la que debe sumarse la de más de 2.000 heridos, hechos que sumaron una presión adicional a un sistema hospitalario ya de por sí copado por el pico de la pandemia. En un país como el nuestro, donde el valor de la vida siempre ha sido relativo, volver a las épocas donde la ideología de alguien era una lápida a cuestas es muy triste. El paro agudizó la polarización hasta puntos nunca antes vistos</t>
   </si>
   <si>
+    <t>3,3,3,3</t>
+  </si>
+  <si>
     <t>Una de las consecuencias políticas que deja el paro es que, efectivamente, validó la protesta social como un mecanismo para lograr cambios en el país, de acuerdo con analistas</t>
   </si>
   <si>
@@ -1000,7 +1042,7 @@
     <t>el paro nacional logró arrojar luz sobre la fractura social que vivimos. Las personas se dividieron en dos bandos que hacían gala de una intolerancia enfermiza en ocasiones, como cuando se pedía el boicot a empresas por opiniones personales de sus CEO o se justificaba el fallecimiento de un bebé dentro de una ambulancia paralizada por los bloqueos.</t>
   </si>
   <si>
-    <t>3,2,3</t>
+    <t>3,2,3,3</t>
   </si>
   <si>
     <t>Sin embargo, las circunstancias de orden público han sido protagonistas, sobre todo en el sureste del país y en otras regiones en las que se han registrado distintos actos de violencia y bloqueos. Frente a ello, la CCOA hizo hincapié en que “Con los bloqueos perdemos todos, se perjudica a los campesinos, comerciantes, empleados, empresarios, estudiantes y jóvenes, pero quienes más pierden finalmente son los mismos actores sociales y el Comité Nacional del Paro. Estas enturbian sus justas pretensiones“.</t>
@@ -1009,7 +1051,10 @@
     <t>Tengo la impresión de que los colombianos están aún más polarizados que a inicios del año y que la concordia social, tan necesaria en momentos donde necesitamos una reactivación económica con el esfuerzo de todos, puede desaparecer sin remedio. Muchos leen esta situación como un claro indicio de estallido social, aunque el escaso aforo en las manifestaciones desmienta esa percepción. Más que un estallido, sufrimos una fractura social.</t>
   </si>
   <si>
-    <t>0,1,1</t>
+    <t>0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,1,0,0</t>
   </si>
   <si>
     <t>La manifestación se concentró a las 10 de la mañana en el Puente de la 4 Sur, en el sur de Medellín. De allí arrancó, también por el sur con destino a la estación Itagüí del Metro. Sobre las 4:30 de la tarde, la situación se salió de control cuando, de acuerdo con denuncias y videos en redes sociales, los manifestantes comenzaron a generar daños en algunas estructuras.</t>
@@ -1039,6 +1084,9 @@
     <t>La Minga Nacional, Social, Popular y Comunitaria de Popayán (capital del Cauca, suroeste de Colombia) denunció este lunes, a través de un comunicado, el rechazo al diálogo por parte de la Fiscalía y la criminalización de la protesta.</t>
   </si>
   <si>
+    <t>0,0,0,-1</t>
+  </si>
+  <si>
     <t>La tarde de este jueves, 17 de junio, Cali vivió una nueva jornada de protestas en donde se registraron problemas de orden público. Un bus del sistema de transporte MIO, que cubría la ruta P27, fue quemado por encapuchados en la calle 70 con carrera 1, en la vía que comunica a la ciudad de Cali con el municipio de Palmira. El vehículo de transporte público fue atravesado en la vía.</t>
   </si>
   <si>
@@ -1048,7 +1096,7 @@
     <t>A través de mensajes recibidos por redes sociales y llamadas telefónicas, Gustavo Orozco, uno de los promotores de la marcha del silencio que pidió en Cali por el cese de la violencia al margen del paro nacional, recibió de nuevo amenazas de muerte.</t>
   </si>
   <si>
-    <t>2,3,2</t>
+    <t>2,3,2,2</t>
   </si>
   <si>
     <t>Miembros del Comité Nacional del Paro —un grupo conformado por sindicatos y organizaciones estudiantiles— señaló en conferencia de prensa que suspenderán las marchas que se habían estado realizando cada semana a fin de evitar la muerte de más manifestantes a manos de la policía y también para reducir los contagios de coronavirus en el país, que registra una cifra récord de decesos relacionados con la enfermedad.</t>
@@ -1057,12 +1105,18 @@
     <t>Las protestas han dejado pérdidas por 3.000 millones de dólares, según el ministerio de Finanzas, debido a que los bloqueos carreteros han impedido que las fábricas reciban materia prima y evitado la exportación de productos como el café y la caña de azúcar.</t>
   </si>
   <si>
+    <t>1,1,1,2</t>
+  </si>
+  <si>
     <t>A pesar de que el comité del paro ha encabezado muchas de las protestas, no representa a grupos juveniles o indígenas que también han organizado marchas y montado barricadas en ciudades como Cali y la capital, Bogotá. Estos grupos negocian actualmente por separado con las autoridades municipales.</t>
   </si>
   <si>
     <t>El viceministro de Salud y Protección Social, Luis Alexander Moscoso, le dijo a Caracol Radio que Caldas está afrontando el cuarto pico de la pandemia por COVID-19 debido a las aglomeraciones que se registraron en las marchas y protestas, en las cuales no se guardó ningún protocolo de bioseguridad.</t>
   </si>
   <si>
+    <t>1,1,2,0</t>
+  </si>
+  <si>
     <t>Un panorama que la propia fundación señaló ha transcurrido en medio de estigmatizaciones y agresiones por parte de miembros de la Fuerza Pública y bajo un silencio total del gobierno y las autoridades. Luego de que los disturbios y manifestaciones se redujeran en el último tiempo, la Defensoría del Pueblo anunció que adelantará una jornada de recepción de quejas y denuncias abierta a los periodistas y reporteros gráficos que fueron víctimas de agresiones y restricciones a su oficio en el marco del paro iniciado el pasado 28 de abril.</t>
   </si>
   <si>
@@ -1075,18 +1129,9 @@
     <t xml:space="preserve">Fuertes disturbios se registraron este miércoles en el norte de Popayán en desarrollo de una nueva jornada de manifestaciones del paro nacional. Se reportan seis personas lesionadas. </t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>en algunas zonas de la capital continúan presentándose plantones, así como hechos de violencia y enfrentamientos entre manifestantes y la Fuerza Pública. Ese fue el caso de la noche del martes y la madrugada del miércoles, cuando Cristian David Castillo fue herido de gravedad en su cabeza, mientras estaba en la avenida Ciudad de Cali, a la altura de la avenida Suba, en medio de los disturbios que se presentaron en el lugar. A pesar de los intentos por salvarle la vida, murió cuando era trasladado en una ambulancia a un centro médico, producto de un paro cardiorrespiratorio generado por un golpe con objeto contundente, según dijo la Secretaría de Gobierno.</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>En las últimas horas, un video de una clase virtual se volvió viral. El hecho ocurrió en el Colegio la Merced, de Cali, Valle del Cauca, y muestra el momento en el que el padre de un estudiante le reclama al profesor por, según él, "adoctrinamiento sobre el paro nacional". el maestro les hizo un llamado a sus estudiantes para reflexionar. "Los invito a que, junto a sus familias, no se queden en la inmediatez de las situaciones, sino que hagamos el esfuerzo de proyectarnos en la historia y en el futuro, y podamos analizar y reflexionar", dijo el hombre. Y puso de ejemplo los peajes del país que han sido quemados en las últimas semanas: "Miren que lo de los peajes, hace años, en diferentes regiones del país, vienen de las personas quejándose. Nada justifica la violencia, pero hay factores sociales que explican por qué la gente se vuelve violenta". En la pantalla compartida por el profesor, había un dibujo con la frase 'a parar para avanzar'. Segundos después, uno de los padres de un estudiante habló. "No me parece que sea un encuentro de estudiantes. La verdad, llevan 45 días sin clases para que usted venga a darles una clase de adoctrinamiento", dijo el hombre. Le advirtió que estaba grabando la clase y dijo que le parecía una "falta de respeto con los muchachos". El padre de familia denuncia que el profesor de arte, del Colegio La Merced de Cali, durante las clases, está adoctrinando a los niños sobre el paro nacional.</t>
   </si>
   <si>
@@ -1096,19 +1141,16 @@
     <t>Dos meses después del inicio del paro nacional, las protestas y bloqueos han bajado en su intensidad. Con las mesas de diálogo instaladas en las principales ciudades del país, los acuerdos entre los gobiernos y los manifestantes han empezado a llegar a buenos puertos. Como forma de conmemoración a estos 62 días hoy hay programadas una serie de marchas en algunas ciudades como Medellín y Cali.</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>El dolor en Colombia comienza a salir y eso les asusta a las élites tradicionales; ven en peligro sus privilegios construidos sobre la opresión de la mayoría. Las castas sienten que la ciudadanía se estremece y se indigna al ver sus extravagantes privilegios, sus grandes haciendas, sus cuentas multimillonarias, sus avionetas llenas de cocaína. Expresar el dolor es una forma de alivianar y reconocernos en los otros, es un impulso para juntarnos y abrir nuevos caminos.</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>En la noche de este lunes 28 de junio, cuando se cumplieron dos meses del paro nacional —cuyos líderes anunciaron una suspensión de movilizaciones a mediados de junio—, se presentaron disturbios en Bogotá y otros puntos del país. Aunque en varias ciudades hubo manifestaciones pacíficas, en otras la jornada se vio empañada por actos de violencia y vandalismo que se extendieron hasta la noche.</t>
   </si>
   <si>
     <t>Cuando se cumplieron dos meses desde el inicio del Paro Nacional en Colombia, en Bogotá se vivieron hechos de violencia y vandalismo que dejaron daños en el sistema de transporte público de la ciudad, personas lesionadas y capturados.</t>
+  </si>
+  <si>
+    <t>0,0,1</t>
   </si>
   <si>
     <t>Por esta razón, el alcalde de Cali, Jorge Iván Ospina, manifestó que el paro nacional estimuló una actividad criminal en algunas zonas de la ciudad, la cual necesita ser resuelta con presencia de integrantes de la Fiscalía General de la Nación y la Policía.</t>
@@ -1123,9 +1165,15 @@
 estructura productiva y empresarial del país”.</t>
   </si>
   <si>
+    <t>1,0,1</t>
+  </si>
+  <si>
     <t>Este lunes Colombia cumplió dos meses de movilizaciones por el Paro Nacional. Las manifestaciones de la semana se vieron marcadas por un nuevo recrudecimiento de la violencia. Tras la protesta del 29 de junio contra la brutalidad policial en Bogotá, tres oficiales han sido suspendidos por agredir físicamente a dos periodistas y a un joven civil. Por otro lado, en Bogotá fracasó el intento por instalar la mesa de diálogo con los representantes de la llamada Primera Línea.</t>
   </si>
   <si>
+    <t>2,3,3</t>
+  </si>
+  <si>
     <t>El último informe de Monitoreo de Riesgos y Prevención de Afectaciones a los Derechos Humanos en Colombia de la JEP resalta el "surgimiento de prácticas de autodefensa y paramilitarismo para atemorizar a las personas que participan en la protesta social". La entidad informó que tienen evidencias del surgimiento de "grupos de civiles armados" en al menos 27 ciudades que realizaron 56 acciones violentas entre el 28 de abril y el 30 de mayo pasados.</t>
   </si>
   <si>
@@ -1135,17 +1183,174 @@
     <t>La razón es que Gómez admitió que los jóvenes que se autodenominan como de la ‘primera línea’ “son grupos muy dispersos y no tienen líderes definidos. Aunque se autodenominen ‘primera línea’, bajo esa denominación hay muchísimos grupos, unos mucho más beligerantes, hay unos violentos. Hay otros que son personas muy estructuradas que buscan el diálogo”, dijo el funcionario en Caracol Radio.</t>
   </si>
   <si>
+    <t>1,0,2</t>
+  </si>
+  <si>
     <t>Las movilizaciones sociales en contra del Gobierno de Iván Duque Márquez completaron dos meses de continuidad, desde que se inauguró el paro nacional el pasado 28 de abril en Colombia. Pese a que las protestas decrecieron en concurrencia e intensidad y aún no tienen un desenlace, marcaron un hito en cuanto a las luchas sociales en el país.</t>
   </si>
   <si>
+    <t>1,1,2</t>
+  </si>
+  <si>
+    <t>0,0,-1</t>
+  </si>
+  <si>
     <t>El Instituto de Estudios para el Desarrollo y la Paz (Indepaz) denunció el asesinato de tres jóvenes en el departamento colombiano de Cauca, una de las regiones con gran población indígena en Colombia, dos de ellos identificados como integrantes de la Coordinadora de Procesos Populares y Comunitarios (CPPC) y miembros activos del paro nacional contra el gobierno de derecha de  Iván Duque.</t>
+  </si>
+  <si>
+    <t>por medio de la cicular 17 de 2021, el Ministerio de Educación ordena a los profesores y directivos de colegios oficiales reponer las clases perdidas durante el paro nacional. Se solicita la reposición del tiempo a los estudiantes por la participación total o parcial de los docentes y directivos en el ceses de actividades durante el paro nacional.</t>
+  </si>
+  <si>
+    <t>Por medio de un video se denuncia el que sería el entrenamiento de la llamada 'Primera Línea' a menores de edad en el Parque de los Deseos, en Medellín. Por medio de las cámaras de seguridad del sector se conoce lo que sería el entrenamiento de por lo menos 20 niños con palos y escudos improvisados.</t>
+  </si>
+  <si>
+    <t>El ministro de justicia colombiano, Wilson Ruiz Orejuela, ha defendido este martes la actuación policial durante las protestas que han tenido lugar en el país desde el pasado
+mes de abril contra el gobierno del presidente, Iván Duque, y ha descartado cualquier paralelismo con Chile, especialmente ante la posibilidad de que se produzca una reforma constitucional.</t>
+  </si>
+  <si>
+    <t>La concejal de Bogotá Heidy Sánchez, recordada por replicar información falsa sobre el presunto uso de ambulancias para transportar gases lacrimógenos con destino al Escuadrón Móvil Antidisturbios - Esmad en el Portal de las Américas, en el marco de las manifestaciones de la capital, resultó investigada por el delito de instigación. Ahora la misma concejal salió “regañada” al radicar una tutela que buscaba prohibir el uso del dispositivo Venom por parte del Esmad en Bogotá.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presidente Iván Duque aseguró que no se puede tener conversaciones con personas que "oculten su identidad" y destacó que, por el contrario, los espacios de diálogo existen para para exponer sus ideas con "todas las garantías democráticas". </t>
+  </si>
+  <si>
+    <t>Los congresistas de la oposición que fueron denunciados por supuestamente apoyar a los jóvenes manifestantes del paro nacional pidieron protección internacional al Comité de Derechos Humanos de los Parlamentarios, de la Unión Interparlamentaria, porque creen que no tienen garantías de neutralidad de los organismos que los investigan como la Procuraduría.</t>
+  </si>
+  <si>
+    <t>3,2,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,0,-1 </t>
+  </si>
+  <si>
+    <t>Una reforma tributaria de Duque generó el pasado abril una serie de protestas en Colombia, que aunque fue retirada continuaron durante semanas por otras demandas sociales, con unos 74 fallecidos según organizaciones de derechos humanos, al menos 20 de ellos por disparos de la Policía, mientras que la Fiscalía del país señala que fueron 20 los muertos en estas movilizaciones.</t>
+  </si>
+  <si>
+    <t>El mandatario Iván Duque apuntó que si bien se debe garantizar derechos ciudadanos como la protesta pacífica, un Estado no debe tolerar "el vandalismo, el terrorismo urbano de baja intensidad, que amenazan el orden constitucional".</t>
+  </si>
+  <si>
+    <t>La Policía entregó el balance de los cinco días de Paro Nacional contra la fallida reforma tributaria del Gobierno Duque. Mientras la institución habla de 504 uniformados lesionados, y asumió decenas de investigaciones internas, Temblores ONG registró 1.181 denuncias por violencia policial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de la tributaria se logró, pero las protestas no pararon. Con cada día que ha pasado hasta este 28 de mayo, se han sentido más fuertes y también se han 'llevado' por delante la reforma a la salud, a dos ministros (renunciaron Alberto Carrasquilla a Hacienda y Claudia Blum a la Cancillería) y a la Copa América, de la que Colombia iba a ser sede. </t>
+  </si>
+  <si>
+    <t>¿Cómo podría entenderse que los jóvenes sin oportunidades de estudio pudieran salir a oponerse a una reforma tributaria, cuando la misma incluía matrícula cero en las instituciones de educación superior públicas para los estudiantes de los estratos 1, 2 y 3? ¿Qué motivó a los menores de 28 años que buscan su primer trabajo, a salir a gritar a las calles, desconociendo la validez de la institucionalidad y del Estado, cuando lo que se pretendía era que todos los que pagamos impuestos, subsidiáramos sus prestaciones sociales para que fuera más económico contratarlos y así disminuir su desempleo? La respuesta es una sola, sólo se le ocurre a quienes nada de lo que está pasando con esta pandemia les afecta en sus condiciones de vida, a quienes tienen garantizado su trabajo y a quienes no les importa la sostenibilidad de sus empresas. Sí, son esos populistas quienes dicen defender y representar los intereses de los más necesitados, pero a quienes el Estado, el Gobierno y las empresas, les garantizan seguir con su vida alejada de la realidad que hoy vive el país.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Son ellos, los que viven de las rentas del Estado y las empresas, los que manipularon a los jóvenes sin estudio y perjudicaron con su discurso político y desinformado a quienes están buscando conseguir su primer empleo, a quienes se encuentran en condiciones de pobreza, a quienes mantuvieron sus empleos por el subsidio a la nómina que salvó a las empresas para las que trabajan y, a los cuales, es importante aclarar, les hubieran mejorado sus condiciones de vida, si se hubiese aprobado una reforma tributaria que ni siquiera permitieron discutir. No se dejen manipular, abran los ojos, ellos no los representan. Son ellos quienes con mezquindad e intereses políticos están manipulando la información, adueñándose de sus angustias y reclamos, con el fin obtener prebendas y poniendo en grave riesgo a toda una sociedad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La criminalización del derecho a la protesta, que cuando la única herramienta es cortar una ruta o hacer una manifestación artística empieza la persecución a través de redes sociales, a dispararles, hacerles perder la visión, golpearlos, torturarlos, generarles miedo. No son hechos aislados porque es un política de Estado para que eso ocurra. Hay un aval. El Esmad y la Policía actúan y violan los derechos humanos sabiendo que los van aplaudir y condecorar. También el cerco mediático de los grandes medios de comunicación que victimizan al agresor. Hacen quedar como que los manifestantes son unos vándalos y los que disparan son los buenos y la “gente de bien”. Para los medios, los violentos son los que se están defendiendo con un escudo de chapa, y los buenos son los que están disparando con gases vencidos, a los ojos, los que detienen arbitrariamente y torturan. </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>La familia de Santiago Ochoa ya reconoció los restos, pero se necesita la confirmación de Medicina Legal para el proceso judicial por desaparición que debe adelantar la Fiscalía. “En el caso de que mi sobrino pertenecía a la primera línea o que tuviera que ver sobre el paro o que el Esmad lo secuestró es totalmente falso. De ninguna información hemos dado autorización o permiso para que suban dicha información falsa”, aseguró la familiar de Santiago Ochoa. El presidente Iván Duque rechazó los hechos y pidió avanzar en la investigación para dar con los culpables.</t>
+  </si>
+  <si>
+    <t>La cuenta de cobro que les pasó a las pequeñas empresas los 51 días de paro en Colombia: Estudio de Acopi revela que la protesta les pasó factura por ausentismo laboral, cierre de puntos de venta, retrasos en los pagos y, suspensión en la producción, entre otros. Mientras que aún sigue latente la amenaza de un nuevo estallido social, cuyo detonante sería que el Congreso de la República no apruebe los proyectos y peticiones que están en capilla, las pequeñas, micro y medianas empresas (mipymes) que son la mayor parte del tejido empresarial del país, empiezan a medir los efectos de los 51 días de paro nacional que se registraron en el primer semestre del año.</t>
+  </si>
+  <si>
+    <t>No se permitirán bloqueos en próximas jornadas de manifestaciones: MinDefensa. El ministro Diego Molano, aseguró que hay información de inteligencia sobre que las disidencias de las Farc y el ELN buscan financiar actos violentos. Un nuevo mensaje le envió el gobierno a quienes pretenden tomarse las vías de hecho en medio de manifestaciones. Dijo el ejecutivo que no se permitirán actos de vandalismo ni bloqueos como ocurrido en las últimas jornadas del paro nacional.</t>
+  </si>
+  <si>
+    <t>¿Niños entrenados en las filas de la ‘primera línea’? Crece la polémica. La polémica sigue viva luego de que aparecieran videos de menores siendo entrenados para hacer parte de la primera línea del denominado paro nacional. En entrevista con Vicky en SEMANA, Yohana Jiménez, promotora de la cadena perpetua para violadores en Colombia, y Margarita Restrepo, representante a la Cámara por el Centro Democrático, debatieron sobre los videos que se han conocido en redes sociales que dan cuenta de niños que estarían siendo entrenados para hacer parte de la denominada primera línea, acompañados por adultos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ningún organismo puede exigirle a Colombia aceptar bloqueos: Álvaro Uribe. El expresidente de Colombia Álvaro Uribe Vélez rechazó en su cuenta de Twitter que alguna entidad u organización pudiera exigirle a Colombia aceptar los bloqueos a manera de protestas argumentado que se desconoce el daño que esto genera en la sociedad. La Comisión Interamericana de Derechos Humanos, CIDH, entregará este miércoles un balance de las protestas sociales en Colombia, un mes después de la visita de sus delegados al país, en el marco del paro nacional. </t>
+  </si>
+  <si>
+    <t>Del Comité del Paro a una campaña presidencial, Jennifer Pedraza salta a la arena política. La líder estudiantil será la jefe de debate del precandidato presidencial Jorge Enrique Robledo. Jennifer Pedraza, reconocida activista que ha conocido el país por su participación en las distintas movilizaciones que se han hecho en los últimos meses, anunció en sus redes sociales que será la jefe de debate del precandidato presidencial Jorge Enrique Robledo.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>“Es doloroso que usemos a los niños con fines políticos y tal vez de guerra”: directora del ICBF. Las imágenes de niños muy pequeños, aparentemente recibiendo entrenamiento de miembros de la primera línea en Medellín, han causado indignación. El ministro de Defensa, la alcaldía, la Personería y la Defensoría del Pueblo también se pronunciaron. Las primeras líneas del país han despertado un debate sobre la protestas pacífica y cómo esta llega a tornarse violenta, tras más de dos meses de disturbios en todo el país. Desde hace semanas se sabe que entre los integrantes hay menores de edad, pero en las últimas horas, la polémica creció por las imágenes de presuntos miembros de esos grupos, entrenando a niños muy pequeños en el Parque de los Deseos de la capital de Antioquia.</t>
+  </si>
+  <si>
+    <t>Rechazamos el entrenamiento de niños por parte de la primera línea: MinDefensa. El ministro Diego Molano indicó que los menores de edad deben estar en la casa o en el colegio, pero no siendo adoctrinados por adultos. Rechazo han generado algunos videos en donde se ve a niños y menores de edad, siendo entrenados por integrantes de la primera línea en algunas ciudades como Cali y Medellín. Ante la situación, el ministro de Defensa, Diego Molano se sumó a las voces que condenaron dichos entrenamientos e indicó que los menores de edad deben estar en la casa con los padres, en el colegio estudiando, pero no siendo adoctrinados por adultos o por esta clase de grupos.</t>
+  </si>
+  <si>
+    <t>Desaparecidos durante Paro Nacional en Colombia: las cifras no cuadran porque el Estado no las busca. La desaparición es un crimen de lesa humanidad, típico de una dictadura, no de una democracia. Colombia hace encender las alarmas, no solo por la violencia policial, sino ante la incongruencia de las cifras. ¿Por qué estas diferencias tan grandes en las cifras de desaparecidos en el marco de las protestas? "Creo que el problema entre cifras oficiales y las recogidas por otros entes puede radicar, entre otros, en la demora de la Defensoría del Pueblo en tomar cartas en el asunto, puesto que los mecanismos de veeduría y control han tardado en empezar a verificar los diversos casos de violencia”, dice a DW el antropólogo Sebastián Lanz, codirector de Temblores, una ONG que a través del litigio jurídico ante las altas cortes busca "establecer un diálogo entre el Estado, los vulnerados y las comunidades incomunicadas”.</t>
+  </si>
+  <si>
+    <t>Allí, por ley, los detenidos deben contar con la presencia del Ministerio Público para verificar el respeto de los derechos humanos. "Pero lo que hemos visto durante el Paro Nacional es que la Policía ha conducido a las personas a otro tipo de instalaciones, e incluso, como en Pereira, a centros clandestinos de detención”, explica Lanz. El otro tipo de detenciones que pueden estar llevando a reportes de desaparecidos son "las capturas de manifestantes o personas que se encuentren cerca de los lugares de protesta, que son directamente acusados de delitos como terrorismo sin que existan evidencias de ello”. Y precisamente porque, según Temblores, ni la Defensoría del Pueblo ni la Personería ni la Procuraduría están actuando, esa ONG anuncia el lanzamiento de "un plan de emergencia en búsqueda de los desaparecidos”.</t>
+  </si>
+  <si>
+    <t>“La Primera Línea es un grupo de jóvenes dispuestos a enfrentarse con escudos, para repeler los ataques policiales contra los manifestantes”, explica Jonathan[1], uno de estos Gavroches latinos, quien hace parte de los 60 a 80 jóvenes presentes en Puerto Rellena, al norte de la ciudad, en la vía que conduce al aeropuerto Alfonso Bonilla Aragón y a la Panamericana, sitio que ha sido rebautizado como Puerto Resistencia y se ha convertido en un lugar emblemático en Cali. Sus escudos: placas de metal, protecciones artesanales hechas con latas abiertas y aplastadas. Sus armas contra la fuerza publica, que los enfrenta con munición letal y tanques: piedras. La situación esta muy lejos de ser como la Guerra de los botones.</t>
+  </si>
+  <si>
+    <t>De manera análoga, el lunes en la mañana, en Yumbo, al norte de Cali, el ESMAD habría enviado un tanque para terminar la protesta. Utilizan armas de guerra contra civiles desarmados en las calles mientras que, paralelamente, se presentan situaciones diversas; "Dos motos de la policía se llevaron a Henry[i], uno de nuestros cascos azules", advierte Jonathan, que, al día de hoy, no tiene noticias suyas. “Queremos que los medios vengan aquí y vean qué está pasando. Esta es nuestra mejor arma: la información", agrega Peri, también de Paso Resistencia. De hecho, denuncian que la policía está sobornando con dinero a la población a cambio de información sobre la identidad de los jóvenes que constituyen la Primera Línea.</t>
+  </si>
+  <si>
+    <t>¿Sin empatía con las víctimas? El asesinato del joven Santiago Murillo en Ibagué (centro del país) el 1° de mayo, probablemente a manos de un agente de la fuerza antimotines ESMAD, como lo confirmó este mismo 19 de mayo la fiscalía, es un caso que conmueve, y aterra al país apunta Gaviria, quien está convencido de que si "Iván Duque hubiera reconocido ese letal error, le hubiera pedido disculpas a la familia del joven y hubiera rechazado contundentemente el uso desmedido de la fuerza, no hubieran muerto tantos jóvenes”. Por último, el rector de la Universidad de Los Andes considera que más allá de los problemas sociales y económicos que tiene el país, ahora, en medio de la protesta, lo fundamental es "el rechazo a la violencia en todo sentido, y especialmente el rechazo - expreso y convincente - del Gobierno de Colombia a la violencia estatal”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las más denigrantes medidas de sujeción y engaño, arbitrariedad y violencia, capitaneadas por el Estado, usualmente suelen ser confrontadas con fiestas democráticas, que llevan al máximo punto la creatividad y la conciencia. El arte ciudadano dialoga con la política barrial; los estudiantes alzan una sola voz con la clase trabajadora en acto y potencia; las mujeres protagonizan las luchas por el reconocimiento y la redistribución, así como las negritudes y la fuerza indígena-originario-campesina, que clama una verdadera reforma agraria; los ecologistas añaden la ensoñación posible de reinventar nuestras relaciones con la naturaleza, de modo que la fractura metabólica sea superada. Esta y otra constelación de subjetividades y colectividades se reúnen cuando de luchar por un sueño de reivindicaciones y emancipaciones se trata, articulando teoría y praxis, así como las dos fuerzas constitutivas de la voluntad, racionalidad y emoción. El paro es una de las tantas formas de hacer frente a la arbitrariedad. </t>
+  </si>
+  <si>
+    <t>El iniciado el 28 de abril se ha caracterizado por ser rico y fecundo en complejidad, al irradiarse de otras praxis de insumisión, como la desobediencia civil y la revolución en su fase de víspera. También por ser una expresión de resistencia multitudinaria que no se limitó a la exigencia de que el Gobierno retirara el proyecto de reforma tributaria. Como es bien sabido, sus resonancias van mucho más allá. Bajo la punta del iceberg, hay una verdadera denuncia contra todo el orden establecido; esto es, contra la debacle del Estado colombiano, que es hacedor de un lastre de pandemias sociales: masacres, corrupción, violencia de género, inequidad, feminicidios, hambre, pobreza, desempleo, racismo, xenofobia, extractivismo, abuso de la Fuerza Pública, impunidad, leyes contramayoritarias, bandidos de cuello blanco… En este orden de ideas, no estamos ante un paro con espíritu de corto, sino de largo aliento. Si deja de estar presente en acto, lo estará en potencia, como una fuerza latente.</t>
+  </si>
+  <si>
+    <t>Desde su fundación, medios como RCN fueron apadrinados por poderosos empresarios y elites políticas para que defiendan lo indefendible, los intereses del statu quo. En contraste, las redes sociales muestran las cosas mismas. Un ejemplo de esto es el paro nacional en curso. Han sido las redes —que se han convertido en una suerte de bistró o cafés-ágora— las que han recogido su riqueza teórico-práctica y político-social. Entre otros hechos, el parlamento ha enfatizado los siguientes: el esplendor de la fiesta democrática, que llegó al cénit en ciudades como Cali, que pasó de ser la sucursal del cielo a ser la capital de la resistencia; la profundidad sentipensante de emociones políticas como la rabia, prima-hermana de la solidaridad y el amor, que muta en indignación, y la indignación, en resistencia multitudinaria y dignificante; el verdadero vandalismo de cuello blanco (Hidroituango, Reficar, Electricaribe, Odebrecht, Chirajara, carrusel de la contratación, Túnel de la Línea, Saludcoop...), que ha dejado al país mucho peor que cualquier estación de Transmilenio; la deficiente y demagoga campaña de vacunación; el colapso y la podredumbre de las instituciones; la insensatez de confundir la opinión de personas de la farándula e influencers con el argumento de expertos analistas políticos. Este es solo el inicio.</t>
+  </si>
+  <si>
+    <t>La frase “Los héroes en Colombia sí existen” se ha tomado las redes. Dichos héroes son los comunes, los de a pie, los que, al juntarse, tienen la potencia de dar luz a un poder político prejurídico e ilimitado, capaz de poner en cintura a los delegatarios, modificar o abolir las instituciones injustas y sentar las bases de una democracia real, en clave social y ecológica. El pueblo es resiliente y valiente. Ha quedado demostrado una vez más que parar, protestar y rebelarse no es un acto estéril; por el contrario, las grandes conquistas siempre han estado precedidas de grandes revoluciones. Con conciencia, porfía y persistencia, el pueblo llano llevó contra las cuerdas al Gobierno, logró tumbar el proyecto de reforma y presionar eficazmente la renuncia de Carrasquilla del Ministerio de Hacienda y Crédito Público. Es una gesta importante, que se integra con otras y deberá completarse con las que siguen. A corto plazo, seguir en paro, presionar la salida de Duque y tumbar los nuevos proyectos de reforma a la salud, en materia pensional y laboral; a mediano plazo, luchar contra las pandemias sociales que ha capitaneado el Estado; a largo plazo, desmontar el Estado inconstitucional, en aras de alzar un nuevo proyecto que sí ampare la vida, la libertad, la igualdad y la felicidad.</t>
+  </si>
+  <si>
+    <t>Exportaciones de café cayeron 11 % en junio debido a los bloqueos del paro nacional. Las exportaciones de café de Colombia recuperaron en junio mucho del terreno perdido por los bloqueos y cayeron apenas 11 %, a 986.000 sacos de 60 kg de café verde, frente a un 1,11 millones de sacos exportados en el mismo mes de 2020. Si bien aún no se han podido poner al día las exportaciones de café, sí vale la pena destacar el importante trabajo logístico realizado para alcanzar el nivel actual de envíos, luego de que el principal puerto de Colombia, Buenaventura, por donde sale más del 60 % del café del país, durara más de 40 días bloqueado, explicó el gerente general de la Federación Nacional de Cafeteros, Roberto Vélez Vallejo.</t>
+  </si>
+  <si>
+    <t>‘Primera Línea’ entregó la Universidad del Quindío en “deplorable estado de vandalización”, denuncia su rector. Cerca de 20 jóvenes que dicen ser miembros de la Primera Línea en esa región se habían tomado la universidad por más de 20 días. El consejero Presidencial de Seguridad Nacional, Rafael Guarín, arremetió en contra de dicho grupo, al advertir que no la integran, según él, jóvenes espontáneos que salen de barrios populares o pacíficas mamás. En su momento, el funcionario indicó que los de la primera línea no se pueden catalogar como “héroes”, a quienes, de acuerdo con el consejero presidencial, algunos políticos exaltan. Este martes, se conoció un nuevo hecho de vandalismo que se le atribuye a la primera línea, en esta ocasión en el departamento del Quindío, con lo que las críticas a este grupo de manifestantes siguen creciendo. El nuevo hecho en el que se ve envuelta la primera línea es un presunto hecho de robo y vandalización dentro de las instalaciones de la Universidad del Quindío, la cual se había tomado este grupo desde hace cerca de 25 días.</t>
+  </si>
+  <si>
+    <t>Petro sí tiene que ver con el paro: Néstor Humberto Martínez. El exfiscal cree que el candidato de la Colombia Humana sí está detrás de las manifestaciones. En la entrevista, la directora de SEMANA, Vicky Dávila, le preguntó a Martínez si para él Petro tiene que ver con el paro, a lo que contestó: “Definitivamente, sí tiene que ver”. Agregó que es un hecho que el senador ha convocado grandes movilizaciones y que las personas más cercanas a él son quienes financian a quienes están en las calles. "Recordará el país que Petro convocó la marcha más grande de la historia de Colombia. Su gente es la dueña y financiadora de la Primera Línea, es decir, de la confrontación con el Esmad. O sea, forman parte no solamente de las marchas pacíficas, sino de los actos de violencia frente a la autoridad”, comentó. Martínez se refiere a la Vaki que promovió Gustavo Bolívar para entregarles elementos a los marchantes de este grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Gustavo Petro instigó el paro y no rechazó la violencia”: Enrique Peñalosa. El exalcalde de Bogotá habló sobre la ventaja que perdió Gustavo Petro sobre los demás candidatos para las elecciones de 2022, en la encuesta del Centro Nacional de Consultoría para SEMANA. Por esa razón, los dos fueron consultados sobre el desplome que tuvo Gustavo Petro en esta encuesta. Aunque se mantiene en el primer lugar de intención de voto, bajó cuatro puntos con relación a los resultados anteriores y logró un 21 %. Enrique Peñalosa, fue el más crítico con el exalcalde de Bogotá y señaló que esa pérdida porcentual es una consecuencia natural del paro nacional. “Es cierto que Gustavo Petro instigó el tema del paro y realmente no fue suficientemente claro y oportuno rechazando la violencia y los bloqueos que hubo. La ciudadanía sabe eso”, dijo Peñalosa. Además, indicó que Petro está teniendo un desgaste natural por las constantes peleas en redes sociales y el radicalismo en sus mensajes. </t>
+  </si>
+  <si>
+    <t>María del Rosario Guerra: con estos 40 días de paro no ganó absolutamente nadie; retrocedimos casi 10 años. El Comité Nacional de Paro anunció este martes la suspensión temporal de las movilizaciones que se llevan a cabo en varias regiones del país. Después de más de un mes de protestas en el país, el Comité Nacional de Paro anunció que harán una suspensión temporal de las movilizaciones. “Hemos decidido hacer una interrupción temporal de las movilizaciones recurrentes que veníamos haciendo los miércoles. Eso no significa que la movilización social se pare en Colombia”, dijo Francisco Maltés, presidente de la Central Unitaria de Trabajadores (CUT) e integrante del comité. María del Rosario Guerra, senadora del Centro Democrático, dijo que tristemente lo que dejó el paro en el país son personas fallecidas entre civiles e integrantes de la fuerza pública, así como un empobrecimiento de la población. La congresista del uribismo también recalcó que con el paro “no ganó absolutamente nadie” y que por el contrario Colombia retrocedió al menos diez años.</t>
+  </si>
+  <si>
+    <t>El desgarrador relato de Ángel Campos, patrullero a quien intentaron quemar vivo durante el paro. El uniformado resultó quemado por una bomba tipo molotov en medio de los fuertes disturbios del miércoles en Bucaramanga. Otros dos patrulleros resultaron heridos en los actos vandálicos. Rechazamos los actos vandálicos y criminales registrados esta noche contra la vida e integridad de nuestros policías en Bucaramanga. Tres compañeros resultaron heridos con bombas incendiarias y objetos contundentes”, dijo la Policía en Twitter, tras lo acontecido en la capital de Santander. “Era una reunión de amigos, de camaradas”: Líder social Diana Parafán critica encuentro de CIDH con víctimas. El uniformado perteneciente al Esmad dijo estar bastante deprimido y afectado psicológicamente por lo acontecido contra su vida este miércoles, pues no llegó a pensar que una situación de esas le fuera a pasar a él. “Esperaba que mi familia me esperara en mi casa, que hoy que estoy cumpliendo un año más de vida pudiera estar compartiendo con ellos”, dijo el uniformado, quien se recupera en un clínica.</t>
+  </si>
+  <si>
+    <t>“¿La primera línea es una nueva guerrilla insurgente urbana o paramilitarismo?”: Paloma Valencia. La senadora aseguró que la acción judicial de la alcaldesa Claudia López, de denunciar penalmente a esa movilización, “fue tardía”. La llamada primera línea de las manifestaciones hizo una grave amenaza este viernes contra la ciudadanía en Bogotá, algo que por supuesto generó rechazo en la alcaldesa Claudia López, quien anunció una denuncia penal contra ese grupo que quiso apelar a la violencia pues aseguraron tener la intención de “atacar” buses de TransMilenio y las personas que van en ellos. Para la congresista del Centro Democrático Paloma Vlencia es “evidente” que “hay que empezar a poner freno a la destrucción de este país porque no puede ser que con el ánimo de la protesta aquí nos están imponiendo no solo los bloqueos sino además el daño a los bienes públicos que tanto le ha costado a Bogotá, entonces yo celebro la denuncia penal”. No obstante, la senadora insistió en que “esto tiene que ir más allá porque aquí ha habido senadores como Gustavo Bolívar (...) quienes han financiado el vandalismo que ahora se torna en terrorismo (...) porque estamos enfrentando terrorismo puro y duro”.</t>
+  </si>
+  <si>
+    <t>Atentado con carro bomba en Cúcuta: ¿hay que replantear la seguridad en unidades militares? Por su parte, el congresista Ciro Ramírez dijo que el fondo del asunto es que “hay un claro atentado contra todos los colombianos, tenemos nuevamente grupos criminales fortalecidos, rearmados, ocuparon espacios que las antiguas Farc dejaron, fortalecidos porque hoy Colombia está lleno de cocaína, y eso permite que economías ilegales se fortalezcan“. El senador del Centro Democrático aprovechó para comparar el paro nacional, que lleva más de un mes, con un atentado terrorista: “Lo del paro y los bloqueos fue un atentado terrorista porque los colombianos vieron cómo secuestraron la tercera ciudad del país, incendiaron 27 ciudades, atacaron misiones médicas y justo el día que anuncian la suspensión de protestas vemos actuaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se salvó de morir: el desgarrador relato de un policía a quien le propinaron 27 puñaladas en medio de disturbios. El uniformado duró al menos cuatro días luchando por su vida en una Unidad de Cuidados Intensivos en la Clínica de la Policía en Cali. Desde que empezaron las marchas en Colombia, los fallecidos y heridos se han convertido en una realidad diaria, tras los fuertes enfrentamientos entre civiles e integrantes de la fuerza pública en varias regiones del país. Una situación que preocupa a los ciudadanos, teniendo en cuenta que, además de la violencia en los últimos días, el desabastecimiento de combustible, medicamentos y alimentos, empieza a preocupar a los hogares colombianos. En medio de los hechos de violencia que se han presentado en medio del paro, un policía identificado como Ángel Gabriel Padilla, narró cómo logró sobrevivir a pesar del brutal ataque que sufrió el pasado 29 de abril en el municipio de Yumbo, Valle del Cauca. El policía recibió al menos 27 puñaladas y además fue atacado con patadas y objetos contundentes. Patrullero Padilla, víctima de terroristas urbanos que llaman "protesta" a sus crímenes. Le dieron 27 puñaladas. Aterrador escuchar como moribundo, corre a refugiarse en una vivienda y allá lo buscan y lo sacan a la calle para que muera. Cuatro días en UCI y lesiones graves. </t>
+  </si>
+  <si>
+    <t>Salvemos a Colombia: La verdadera amenaza es el terrorismo urbano financiado con dineros del narcotráfico. Voy a decirlo con claridad, sin adornos ni retórica: los violentos y los oportunistas tienen en jaque a Colombia. El país, poco a poco, ha sido arrastrado hacia un peligroso caos, que amenaza la democracia y pone a la nación al borde del abismo. Siento admiración y respeto por los jóvenes, especialmente por los más humildes, quienes, con mucho valor, decidieron reclamar sus derechos y exigir soluciones de fondo a los gobernantes. Sin embargo, una corriente violenta se ha aprovechado de ese movimiento social pacífico para tratar de imponerse por las armas y a las malas. No se equivoquen: las imágenes aterradoras que hemos visto en estos días no son fruto de la espontaneidad, sino que forman parte de un plan milimétricamente diseñado para arrodillar al país, someter las libertades y acceder al poder. Es inaudito que no veamos la triste realidad de algunos de nuestros vecinos, que ya recorrieron este traumático camino en el pasado. Como sociedad estamos yendo rumbo al matadero con los ojos vendados.</t>
+  </si>
+  <si>
+    <t>Los desmanes de la jornada de protesta terminaron afectando la libertad de prensa en el país. SEMANA y RCN vivieron actos de vandalismo. La directora de SEMANA, la periodista Vicky Dávila, relató que un grupo de vándalos llegó a la instalaciones y atentó contra el edificio donde opera el grupo editorial, pero también otras empresas. “Este ataque no es contra RCN ni SEMANA, es contra la prensa. Es fruto del odio de políticos y colegas. Ojalá esto no termine en una fatalidad contra un periodista de cualquiera de los dos medios. Políticos que tienen aspiraciones presidenciales que promueven el odio. Rechazamos rotundamente estos ataques”, dijo. RCN también se pronunció. “Desde Noticias RCN y NTN24 rechazamos el ataque sufrido en contra de las instalaciones del Canal RCN promovido y ejecutado por un grupo de violentos que ocurrió hoy a las 3 de la tarde y que dejó daños materiales y puso en riesgo la integridad de periodistas y trabajadores”, escribió el canal. Por su parte, su director, José Manuel Acevedo calificó el hecho como “un ataque en contra de la libertad de prensa y expresión”.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1177,9 +1382,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF141414"/>
       <name val="Arial"/>
@@ -1191,12 +1393,12 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Open_sansregular"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Open_sansregular"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1237,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1286,34 +1488,28 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1324,6 +1520,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -2565,7 +2770,7 @@
         <v>172</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>164</v>
@@ -2573,13 +2778,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>164</v>
@@ -2587,13 +2792,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>164</v>
@@ -2601,10 +2806,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>180</v>
@@ -2621,7 +2826,7 @@
         <v>182</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>164</v>
@@ -2632,10 +2837,10 @@
         <v>183</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>164</v>
@@ -2643,13 +2848,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>164</v>
@@ -2657,13 +2862,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>164</v>
@@ -2671,13 +2876,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>164</v>
@@ -2685,13 +2890,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>164</v>
@@ -2699,13 +2904,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>164</v>
@@ -2713,13 +2918,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>164</v>
@@ -2727,13 +2932,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>164</v>
@@ -2741,10 +2946,10 @@
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>202</v>
@@ -2758,10 +2963,10 @@
         <v>203</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>164</v>
@@ -2772,7 +2977,7 @@
         <v>204</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>202</v>
@@ -2786,10 +2991,10 @@
         <v>205</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>164</v>
@@ -2797,13 +3002,13 @@
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>164</v>
@@ -2811,13 +3016,13 @@
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>164</v>
@@ -2825,13 +3030,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>164</v>
@@ -2839,44 +3044,44 @@
     </row>
     <row r="91">
       <c r="A91" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="C93" s="14" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94">
@@ -2890,7 +3095,7 @@
         <v>218</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95">
@@ -2904,7 +3109,7 @@
         <v>218</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
@@ -2912,738 +3117,738 @@
         <v>221</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>152</v>
+        <v>222</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>128</v>
+      <c r="A97" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>212</v>
+      <c r="A98" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" s="16" t="s">
+      <c r="A99" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>218</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>126</v>
+        <v>230</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>131</v>
+        <v>233</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>123</v>
+        <v>235</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B103" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>123</v>
-      </c>
       <c r="D103" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>123</v>
+        <v>238</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>123</v>
+        <v>240</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>142</v>
+        <v>242</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>152</v>
+        <v>245</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>123</v>
+        <v>247</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>144</v>
+        <v>248</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>126</v>
+        <v>251</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B111" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>123</v>
+      <c r="C111" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C112" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>218</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>123</v>
+        <v>255</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>126</v>
+        <v>256</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>245</v>
+        <v>257</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>247</v>
+        <v>260</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>123</v>
+        <v>261</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>123</v>
+        <v>263</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>126</v>
+      <c r="A119" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>247</v>
+        <v>265</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>126</v>
+        <v>267</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>74</v>
+        <v>268</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>123</v>
+        <v>271</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>152</v>
+        <v>272</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" s="14" t="s">
         <v>218</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>142</v>
+        <v>274</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>123</v>
+        <v>275</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B128" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>152</v>
+      <c r="C128" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="B129" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>123</v>
+      <c r="C129" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>142</v>
+        <v>278</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>123</v>
+        <v>279</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>123</v>
+        <v>281</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>123</v>
+        <v>282</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>123</v>
+        <v>283</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B135" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>74</v>
+      <c r="C135" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>247</v>
+        <v>286</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>123</v>
+        <v>288</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>126</v>
+        <v>289</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>128</v>
+        <v>291</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>123</v>
+        <v>292</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B141" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="25" t="s">
-        <v>279</v>
+      <c r="A143" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="24" t="s">
-        <v>281</v>
+      <c r="A144" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="26" t="s">
-        <v>282</v>
+      <c r="A145" s="24" t="s">
+        <v>297</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="26" t="s">
-        <v>283</v>
+      <c r="A146" s="24" t="s">
+        <v>298</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="26" t="s">
-        <v>285</v>
+      <c r="A147" s="24" t="s">
+        <v>299</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="27" t="s">
-        <v>287</v>
+      <c r="A148" s="25" t="s">
+        <v>300</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>164</v>
@@ -3651,13 +3856,13 @@
     </row>
     <row r="149">
       <c r="A149" s="11" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>164</v>
@@ -3665,13 +3870,13 @@
     </row>
     <row r="150">
       <c r="A150" s="11" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>164</v>
@@ -3679,27 +3884,27 @@
     </row>
     <row r="151">
       <c r="A151" s="11" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="28" t="s">
-        <v>291</v>
+      <c r="A152" s="26" t="s">
+        <v>305</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>164</v>
@@ -3707,13 +3912,13 @@
     </row>
     <row r="153">
       <c r="A153" s="11" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>164</v>
@@ -3721,13 +3926,13 @@
     </row>
     <row r="154">
       <c r="A154" s="11" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>164</v>
@@ -3735,971 +3940,1381 @@
     </row>
     <row r="155">
       <c r="A155" s="11" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="27" t="s">
-        <v>295</v>
+      <c r="A156" s="25" t="s">
+        <v>311</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="27" t="s">
-        <v>296</v>
+      <c r="A157" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="27" t="s">
-        <v>297</v>
+      <c r="A158" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="159">
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
+      <c r="A159" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="160">
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
+      <c r="A160" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="161">
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
+      <c r="A161" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="162">
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
+      <c r="A162" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="163">
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
+      <c r="A163" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="164">
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
+      <c r="A164" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="165">
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
+      <c r="A165" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="166">
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
+      <c r="A166" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="167">
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
+      <c r="A167" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="168">
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
+      <c r="A168" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="169">
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
+      <c r="A169" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="170">
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
+      <c r="A170" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="171">
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
+      <c r="A171" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="172">
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
+      <c r="A172" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="173">
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
+      <c r="A173" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="174">
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
+      <c r="A174" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="175">
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
+      <c r="A175" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="176">
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
+      <c r="A176" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="177">
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
+      <c r="A177" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="178">
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
+      <c r="A178" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="179">
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
+      <c r="A179" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="180">
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
+      <c r="A180" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="181">
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
+      <c r="A181" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="182">
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
+      <c r="A182" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="183">
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
+      <c r="A183" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="184">
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
+      <c r="A184" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="185">
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
+      <c r="A185" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="186">
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
+      <c r="A186" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="187">
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
+      <c r="A187" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="188">
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
+      <c r="A188" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="189">
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
+      <c r="A189" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="190">
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
+      <c r="A190" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="191">
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
+      <c r="A191" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="192">
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
+      <c r="A192" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="193">
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
+      <c r="A193" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="194">
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
+      <c r="A194" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="195">
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
+      <c r="A195" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="196">
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
+      <c r="A196" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="197">
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
+      <c r="A197" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="198">
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
+      <c r="A198" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="199">
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
+      <c r="A199" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="200">
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
     </row>
     <row r="201">
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
     </row>
     <row r="202">
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
+      <c r="B202" s="30"/>
+      <c r="C202" s="30"/>
     </row>
     <row r="203">
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
     </row>
     <row r="204">
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
     </row>
     <row r="205">
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
     </row>
     <row r="206">
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
     </row>
     <row r="207">
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
     </row>
     <row r="208">
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
     </row>
     <row r="209">
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
     </row>
     <row r="210">
-      <c r="B210" s="29"/>
-      <c r="C210" s="29"/>
+      <c r="B210" s="30"/>
+      <c r="C210" s="30"/>
     </row>
     <row r="211">
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
     </row>
     <row r="212">
-      <c r="B212" s="29"/>
-      <c r="C212" s="29"/>
+      <c r="B212" s="30"/>
+      <c r="C212" s="30"/>
     </row>
     <row r="213">
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="30"/>
     </row>
     <row r="214">
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
+      <c r="B214" s="30"/>
+      <c r="C214" s="30"/>
     </row>
     <row r="215">
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
     </row>
     <row r="216">
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
     </row>
     <row r="217">
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
+      <c r="B217" s="30"/>
+      <c r="C217" s="30"/>
     </row>
     <row r="218">
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
     </row>
     <row r="219">
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
+      <c r="B219" s="30"/>
+      <c r="C219" s="30"/>
     </row>
     <row r="220">
-      <c r="B220" s="29"/>
-      <c r="C220" s="29"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
     </row>
     <row r="221">
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
     </row>
     <row r="222">
-      <c r="B222" s="29"/>
-      <c r="C222" s="29"/>
+      <c r="B222" s="30"/>
+      <c r="C222" s="30"/>
     </row>
     <row r="223">
-      <c r="B223" s="29"/>
-      <c r="C223" s="29"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="30"/>
     </row>
     <row r="224">
-      <c r="B224" s="29"/>
-      <c r="C224" s="29"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="30"/>
     </row>
     <row r="225">
-      <c r="B225" s="29"/>
-      <c r="C225" s="29"/>
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
     </row>
     <row r="226">
-      <c r="B226" s="29"/>
-      <c r="C226" s="29"/>
+      <c r="B226" s="30"/>
+      <c r="C226" s="30"/>
     </row>
     <row r="227">
-      <c r="B227" s="29"/>
-      <c r="C227" s="29"/>
+      <c r="B227" s="30"/>
+      <c r="C227" s="30"/>
     </row>
     <row r="228">
-      <c r="B228" s="29"/>
-      <c r="C228" s="29"/>
+      <c r="B228" s="30"/>
+      <c r="C228" s="30"/>
     </row>
     <row r="229">
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
     </row>
     <row r="230">
-      <c r="B230" s="29"/>
-      <c r="C230" s="29"/>
+      <c r="B230" s="30"/>
+      <c r="C230" s="30"/>
     </row>
     <row r="231">
-      <c r="B231" s="29"/>
-      <c r="C231" s="29"/>
+      <c r="B231" s="30"/>
+      <c r="C231" s="30"/>
     </row>
     <row r="232">
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
     </row>
     <row r="233">
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
+      <c r="B233" s="30"/>
+      <c r="C233" s="30"/>
     </row>
     <row r="234">
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
+      <c r="B234" s="30"/>
+      <c r="C234" s="30"/>
     </row>
     <row r="235">
-      <c r="B235" s="29"/>
-      <c r="C235" s="29"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="30"/>
     </row>
     <row r="236">
-      <c r="B236" s="29"/>
-      <c r="C236" s="29"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
     </row>
     <row r="237">
-      <c r="B237" s="29"/>
-      <c r="C237" s="29"/>
+      <c r="B237" s="30"/>
+      <c r="C237" s="30"/>
     </row>
     <row r="238">
-      <c r="B238" s="29"/>
-      <c r="C238" s="29"/>
+      <c r="B238" s="30"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239">
-      <c r="B239" s="29"/>
-      <c r="C239" s="29"/>
+      <c r="B239" s="30"/>
+      <c r="C239" s="30"/>
     </row>
     <row r="240">
-      <c r="B240" s="29"/>
-      <c r="C240" s="29"/>
+      <c r="B240" s="30"/>
+      <c r="C240" s="30"/>
     </row>
     <row r="241">
-      <c r="B241" s="29"/>
-      <c r="C241" s="29"/>
+      <c r="B241" s="30"/>
+      <c r="C241" s="30"/>
     </row>
     <row r="242">
-      <c r="B242" s="29"/>
-      <c r="C242" s="29"/>
+      <c r="B242" s="30"/>
+      <c r="C242" s="30"/>
     </row>
     <row r="243">
-      <c r="B243" s="29"/>
-      <c r="C243" s="29"/>
+      <c r="B243" s="30"/>
+      <c r="C243" s="30"/>
     </row>
     <row r="244">
-      <c r="B244" s="29"/>
-      <c r="C244" s="29"/>
+      <c r="B244" s="30"/>
+      <c r="C244" s="30"/>
     </row>
     <row r="245">
-      <c r="B245" s="29"/>
-      <c r="C245" s="29"/>
+      <c r="B245" s="30"/>
+      <c r="C245" s="30"/>
     </row>
     <row r="246">
-      <c r="B246" s="29"/>
-      <c r="C246" s="29"/>
+      <c r="B246" s="30"/>
+      <c r="C246" s="30"/>
     </row>
     <row r="247">
-      <c r="B247" s="29"/>
-      <c r="C247" s="29"/>
+      <c r="B247" s="30"/>
+      <c r="C247" s="30"/>
     </row>
     <row r="248">
-      <c r="B248" s="29"/>
-      <c r="C248" s="29"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="30"/>
     </row>
     <row r="249">
-      <c r="B249" s="29"/>
-      <c r="C249" s="29"/>
+      <c r="B249" s="30"/>
+      <c r="C249" s="30"/>
     </row>
     <row r="250">
-      <c r="B250" s="29"/>
-      <c r="C250" s="29"/>
+      <c r="B250" s="30"/>
+      <c r="C250" s="30"/>
     </row>
     <row r="251">
-      <c r="B251" s="29"/>
-      <c r="C251" s="29"/>
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
     </row>
     <row r="252">
-      <c r="B252" s="29"/>
-      <c r="C252" s="29"/>
+      <c r="B252" s="30"/>
+      <c r="C252" s="30"/>
     </row>
     <row r="253">
-      <c r="B253" s="29"/>
-      <c r="C253" s="29"/>
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
     </row>
     <row r="254">
-      <c r="B254" s="29"/>
-      <c r="C254" s="29"/>
+      <c r="B254" s="30"/>
+      <c r="C254" s="30"/>
     </row>
     <row r="255">
-      <c r="B255" s="29"/>
-      <c r="C255" s="29"/>
+      <c r="B255" s="30"/>
+      <c r="C255" s="30"/>
     </row>
     <row r="256">
-      <c r="B256" s="29"/>
-      <c r="C256" s="29"/>
+      <c r="B256" s="30"/>
+      <c r="C256" s="30"/>
     </row>
     <row r="257">
-      <c r="B257" s="29"/>
-      <c r="C257" s="29"/>
+      <c r="B257" s="30"/>
+      <c r="C257" s="30"/>
     </row>
     <row r="258">
-      <c r="B258" s="29"/>
-      <c r="C258" s="29"/>
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
     </row>
     <row r="259">
-      <c r="B259" s="29"/>
-      <c r="C259" s="29"/>
+      <c r="B259" s="30"/>
+      <c r="C259" s="30"/>
     </row>
     <row r="260">
-      <c r="B260" s="29"/>
-      <c r="C260" s="29"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
     </row>
     <row r="261">
-      <c r="B261" s="29"/>
-      <c r="C261" s="29"/>
+      <c r="B261" s="30"/>
+      <c r="C261" s="30"/>
     </row>
     <row r="262">
-      <c r="B262" s="29"/>
-      <c r="C262" s="29"/>
+      <c r="B262" s="30"/>
+      <c r="C262" s="30"/>
     </row>
     <row r="263">
-      <c r="B263" s="29"/>
-      <c r="C263" s="29"/>
+      <c r="B263" s="30"/>
+      <c r="C263" s="30"/>
     </row>
     <row r="264">
-      <c r="B264" s="29"/>
-      <c r="C264" s="29"/>
+      <c r="B264" s="30"/>
+      <c r="C264" s="30"/>
     </row>
     <row r="265">
-      <c r="B265" s="29"/>
-      <c r="C265" s="29"/>
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
     </row>
     <row r="266">
-      <c r="B266" s="29"/>
-      <c r="C266" s="29"/>
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
     </row>
     <row r="267">
-      <c r="B267" s="29"/>
-      <c r="C267" s="29"/>
+      <c r="B267" s="30"/>
+      <c r="C267" s="30"/>
     </row>
     <row r="268">
-      <c r="B268" s="29"/>
-      <c r="C268" s="29"/>
+      <c r="B268" s="30"/>
+      <c r="C268" s="30"/>
     </row>
     <row r="269">
-      <c r="B269" s="29"/>
-      <c r="C269" s="29"/>
+      <c r="B269" s="30"/>
+      <c r="C269" s="30"/>
     </row>
     <row r="270">
-      <c r="B270" s="29"/>
-      <c r="C270" s="29"/>
+      <c r="B270" s="30"/>
+      <c r="C270" s="30"/>
     </row>
     <row r="271">
-      <c r="B271" s="29"/>
-      <c r="C271" s="29"/>
+      <c r="B271" s="30"/>
+      <c r="C271" s="30"/>
     </row>
     <row r="272">
-      <c r="B272" s="29"/>
-      <c r="C272" s="29"/>
+      <c r="B272" s="30"/>
+      <c r="C272" s="30"/>
     </row>
     <row r="273">
-      <c r="B273" s="29"/>
-      <c r="C273" s="29"/>
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
     </row>
     <row r="274">
-      <c r="B274" s="29"/>
-      <c r="C274" s="29"/>
+      <c r="B274" s="30"/>
+      <c r="C274" s="30"/>
     </row>
     <row r="275">
-      <c r="B275" s="29"/>
-      <c r="C275" s="29"/>
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
     </row>
     <row r="276">
-      <c r="B276" s="29"/>
-      <c r="C276" s="29"/>
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
     </row>
     <row r="277">
-      <c r="B277" s="29"/>
-      <c r="C277" s="29"/>
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
     </row>
     <row r="278">
-      <c r="B278" s="29"/>
-      <c r="C278" s="29"/>
+      <c r="B278" s="30"/>
+      <c r="C278" s="30"/>
     </row>
     <row r="279">
-      <c r="B279" s="29"/>
-      <c r="C279" s="29"/>
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
     </row>
     <row r="280">
-      <c r="B280" s="29"/>
-      <c r="C280" s="29"/>
+      <c r="B280" s="30"/>
+      <c r="C280" s="30"/>
     </row>
     <row r="281">
-      <c r="B281" s="29"/>
-      <c r="C281" s="29"/>
+      <c r="B281" s="30"/>
+      <c r="C281" s="30"/>
     </row>
     <row r="282">
-      <c r="B282" s="29"/>
-      <c r="C282" s="29"/>
+      <c r="B282" s="30"/>
+      <c r="C282" s="30"/>
     </row>
     <row r="283">
-      <c r="B283" s="29"/>
-      <c r="C283" s="29"/>
+      <c r="B283" s="30"/>
+      <c r="C283" s="30"/>
     </row>
     <row r="284">
-      <c r="B284" s="29"/>
-      <c r="C284" s="29"/>
+      <c r="B284" s="30"/>
+      <c r="C284" s="30"/>
     </row>
     <row r="285">
-      <c r="B285" s="29"/>
-      <c r="C285" s="29"/>
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
     </row>
     <row r="286">
-      <c r="B286" s="29"/>
-      <c r="C286" s="29"/>
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
     </row>
     <row r="287">
-      <c r="B287" s="29"/>
-      <c r="C287" s="29"/>
+      <c r="B287" s="30"/>
+      <c r="C287" s="30"/>
     </row>
     <row r="288">
-      <c r="B288" s="29"/>
-      <c r="C288" s="29"/>
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
     </row>
     <row r="289">
-      <c r="B289" s="29"/>
-      <c r="C289" s="29"/>
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
     </row>
     <row r="290">
-      <c r="B290" s="29"/>
-      <c r="C290" s="29"/>
+      <c r="B290" s="30"/>
+      <c r="C290" s="30"/>
     </row>
     <row r="291">
-      <c r="B291" s="29"/>
-      <c r="C291" s="29"/>
+      <c r="B291" s="30"/>
+      <c r="C291" s="30"/>
     </row>
     <row r="292">
-      <c r="B292" s="29"/>
-      <c r="C292" s="29"/>
+      <c r="B292" s="30"/>
+      <c r="C292" s="30"/>
     </row>
     <row r="293">
-      <c r="B293" s="29"/>
-      <c r="C293" s="29"/>
+      <c r="B293" s="30"/>
+      <c r="C293" s="30"/>
     </row>
     <row r="294">
-      <c r="B294" s="29"/>
-      <c r="C294" s="29"/>
+      <c r="B294" s="30"/>
+      <c r="C294" s="30"/>
     </row>
     <row r="295">
-      <c r="B295" s="29"/>
-      <c r="C295" s="29"/>
+      <c r="B295" s="30"/>
+      <c r="C295" s="30"/>
     </row>
     <row r="296">
-      <c r="B296" s="29"/>
-      <c r="C296" s="29"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="30"/>
     </row>
     <row r="297">
-      <c r="B297" s="29"/>
-      <c r="C297" s="29"/>
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
     </row>
     <row r="298">
-      <c r="B298" s="29"/>
-      <c r="C298" s="29"/>
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
     </row>
     <row r="299">
-      <c r="B299" s="29"/>
-      <c r="C299" s="29"/>
+      <c r="B299" s="30"/>
+      <c r="C299" s="30"/>
     </row>
     <row r="300">
-      <c r="B300" s="29"/>
-      <c r="C300" s="29"/>
+      <c r="B300" s="30"/>
+      <c r="C300" s="30"/>
     </row>
     <row r="301">
-      <c r="B301" s="29"/>
-      <c r="C301" s="29"/>
+      <c r="B301" s="30"/>
+      <c r="C301" s="30"/>
     </row>
     <row r="302">
-      <c r="B302" s="29"/>
-      <c r="C302" s="29"/>
+      <c r="B302" s="30"/>
+      <c r="C302" s="30"/>
     </row>
     <row r="303">
-      <c r="B303" s="29"/>
-      <c r="C303" s="29"/>
+      <c r="B303" s="30"/>
+      <c r="C303" s="30"/>
     </row>
     <row r="304">
-      <c r="B304" s="29"/>
-      <c r="C304" s="29"/>
+      <c r="B304" s="30"/>
+      <c r="C304" s="30"/>
     </row>
     <row r="305">
-      <c r="B305" s="29"/>
-      <c r="C305" s="29"/>
+      <c r="B305" s="30"/>
+      <c r="C305" s="30"/>
     </row>
     <row r="306">
-      <c r="B306" s="29"/>
-      <c r="C306" s="29"/>
+      <c r="B306" s="30"/>
+      <c r="C306" s="30"/>
     </row>
     <row r="307">
-      <c r="B307" s="29"/>
-      <c r="C307" s="29"/>
+      <c r="B307" s="30"/>
+      <c r="C307" s="30"/>
     </row>
     <row r="308">
-      <c r="B308" s="29"/>
-      <c r="C308" s="29"/>
+      <c r="B308" s="30"/>
+      <c r="C308" s="30"/>
     </row>
     <row r="309">
-      <c r="B309" s="29"/>
-      <c r="C309" s="29"/>
+      <c r="B309" s="30"/>
+      <c r="C309" s="30"/>
     </row>
     <row r="310">
-      <c r="B310" s="29"/>
-      <c r="C310" s="29"/>
+      <c r="B310" s="30"/>
+      <c r="C310" s="30"/>
     </row>
     <row r="311">
-      <c r="B311" s="29"/>
-      <c r="C311" s="29"/>
+      <c r="B311" s="30"/>
+      <c r="C311" s="30"/>
     </row>
     <row r="312">
-      <c r="B312" s="29"/>
-      <c r="C312" s="29"/>
+      <c r="B312" s="30"/>
+      <c r="C312" s="30"/>
     </row>
     <row r="313">
-      <c r="B313" s="29"/>
-      <c r="C313" s="29"/>
+      <c r="B313" s="30"/>
+      <c r="C313" s="30"/>
     </row>
     <row r="314">
-      <c r="B314" s="29"/>
-      <c r="C314" s="29"/>
+      <c r="B314" s="30"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="315">
-      <c r="B315" s="29"/>
-      <c r="C315" s="29"/>
+      <c r="B315" s="30"/>
+      <c r="C315" s="30"/>
     </row>
     <row r="316">
-      <c r="B316" s="29"/>
-      <c r="C316" s="29"/>
+      <c r="B316" s="30"/>
+      <c r="C316" s="30"/>
     </row>
     <row r="317">
-      <c r="B317" s="29"/>
-      <c r="C317" s="29"/>
+      <c r="B317" s="30"/>
+      <c r="C317" s="30"/>
     </row>
     <row r="318">
-      <c r="B318" s="29"/>
-      <c r="C318" s="29"/>
+      <c r="B318" s="30"/>
+      <c r="C318" s="30"/>
     </row>
     <row r="319">
-      <c r="B319" s="29"/>
-      <c r="C319" s="29"/>
+      <c r="B319" s="30"/>
+      <c r="C319" s="30"/>
     </row>
     <row r="320">
-      <c r="B320" s="29"/>
-      <c r="C320" s="29"/>
+      <c r="B320" s="30"/>
+      <c r="C320" s="30"/>
     </row>
     <row r="321">
-      <c r="B321" s="29"/>
-      <c r="C321" s="29"/>
+      <c r="B321" s="30"/>
+      <c r="C321" s="30"/>
     </row>
     <row r="322">
-      <c r="B322" s="29"/>
-      <c r="C322" s="29"/>
+      <c r="B322" s="30"/>
+      <c r="C322" s="30"/>
     </row>
     <row r="323">
-      <c r="B323" s="29"/>
-      <c r="C323" s="29"/>
+      <c r="B323" s="30"/>
+      <c r="C323" s="30"/>
     </row>
     <row r="324">
-      <c r="B324" s="29"/>
-      <c r="C324" s="29"/>
+      <c r="B324" s="30"/>
+      <c r="C324" s="30"/>
     </row>
     <row r="325">
-      <c r="B325" s="29"/>
-      <c r="C325" s="29"/>
+      <c r="B325" s="30"/>
+      <c r="C325" s="30"/>
     </row>
     <row r="326">
-      <c r="B326" s="29"/>
-      <c r="C326" s="29"/>
+      <c r="B326" s="30"/>
+      <c r="C326" s="30"/>
     </row>
     <row r="327">
-      <c r="B327" s="29"/>
-      <c r="C327" s="29"/>
+      <c r="B327" s="30"/>
+      <c r="C327" s="30"/>
     </row>
     <row r="328">
-      <c r="B328" s="29"/>
-      <c r="C328" s="29"/>
+      <c r="B328" s="30"/>
+      <c r="C328" s="30"/>
     </row>
     <row r="329">
-      <c r="B329" s="29"/>
-      <c r="C329" s="29"/>
+      <c r="B329" s="30"/>
+      <c r="C329" s="30"/>
     </row>
     <row r="330">
-      <c r="B330" s="29"/>
-      <c r="C330" s="29"/>
+      <c r="B330" s="30"/>
+      <c r="C330" s="30"/>
     </row>
     <row r="331">
-      <c r="B331" s="29"/>
-      <c r="C331" s="29"/>
+      <c r="B331" s="30"/>
+      <c r="C331" s="30"/>
     </row>
     <row r="332">
-      <c r="B332" s="29"/>
-      <c r="C332" s="29"/>
+      <c r="B332" s="30"/>
+      <c r="C332" s="30"/>
     </row>
     <row r="333">
-      <c r="B333" s="29"/>
-      <c r="C333" s="29"/>
+      <c r="B333" s="30"/>
+      <c r="C333" s="30"/>
     </row>
     <row r="334">
-      <c r="B334" s="29"/>
-      <c r="C334" s="29"/>
+      <c r="B334" s="30"/>
+      <c r="C334" s="30"/>
     </row>
     <row r="335">
-      <c r="B335" s="29"/>
-      <c r="C335" s="29"/>
+      <c r="B335" s="30"/>
+      <c r="C335" s="30"/>
     </row>
     <row r="336">
-      <c r="B336" s="29"/>
-      <c r="C336" s="29"/>
+      <c r="B336" s="30"/>
+      <c r="C336" s="30"/>
     </row>
     <row r="337">
-      <c r="B337" s="29"/>
-      <c r="C337" s="29"/>
+      <c r="B337" s="30"/>
+      <c r="C337" s="30"/>
     </row>
     <row r="338">
-      <c r="B338" s="29"/>
-      <c r="C338" s="29"/>
+      <c r="B338" s="30"/>
+      <c r="C338" s="30"/>
     </row>
     <row r="339">
-      <c r="B339" s="29"/>
-      <c r="C339" s="29"/>
+      <c r="B339" s="30"/>
+      <c r="C339" s="30"/>
     </row>
     <row r="340">
-      <c r="B340" s="29"/>
-      <c r="C340" s="29"/>
+      <c r="B340" s="30"/>
+      <c r="C340" s="30"/>
     </row>
     <row r="341">
-      <c r="B341" s="29"/>
-      <c r="C341" s="29"/>
+      <c r="B341" s="30"/>
+      <c r="C341" s="30"/>
     </row>
     <row r="342">
-      <c r="B342" s="29"/>
-      <c r="C342" s="29"/>
+      <c r="B342" s="30"/>
+      <c r="C342" s="30"/>
     </row>
     <row r="343">
-      <c r="B343" s="29"/>
-      <c r="C343" s="29"/>
+      <c r="B343" s="30"/>
+      <c r="C343" s="30"/>
     </row>
     <row r="344">
-      <c r="B344" s="29"/>
-      <c r="C344" s="29"/>
+      <c r="B344" s="30"/>
+      <c r="C344" s="30"/>
     </row>
     <row r="345">
-      <c r="B345" s="29"/>
-      <c r="C345" s="29"/>
+      <c r="B345" s="30"/>
+      <c r="C345" s="30"/>
     </row>
     <row r="346">
-      <c r="B346" s="29"/>
-      <c r="C346" s="29"/>
+      <c r="B346" s="30"/>
+      <c r="C346" s="30"/>
     </row>
     <row r="347">
-      <c r="B347" s="29"/>
-      <c r="C347" s="29"/>
+      <c r="B347" s="30"/>
+      <c r="C347" s="30"/>
     </row>
     <row r="348">
-      <c r="B348" s="29"/>
-      <c r="C348" s="29"/>
+      <c r="B348" s="30"/>
+      <c r="C348" s="30"/>
     </row>
     <row r="349">
-      <c r="B349" s="29"/>
-      <c r="C349" s="29"/>
+      <c r="B349" s="30"/>
+      <c r="C349" s="30"/>
     </row>
     <row r="350">
-      <c r="B350" s="29"/>
-      <c r="C350" s="29"/>
+      <c r="B350" s="30"/>
+      <c r="C350" s="30"/>
     </row>
     <row r="351">
-      <c r="B351" s="29"/>
-      <c r="C351" s="29"/>
+      <c r="B351" s="30"/>
+      <c r="C351" s="30"/>
     </row>
     <row r="352">
-      <c r="B352" s="29"/>
-      <c r="C352" s="29"/>
+      <c r="B352" s="30"/>
+      <c r="C352" s="30"/>
     </row>
     <row r="353">
-      <c r="B353" s="29"/>
-      <c r="C353" s="29"/>
+      <c r="B353" s="30"/>
+      <c r="C353" s="30"/>
     </row>
     <row r="354">
-      <c r="B354" s="29"/>
-      <c r="C354" s="29"/>
+      <c r="B354" s="30"/>
+      <c r="C354" s="30"/>
     </row>
     <row r="355">
-      <c r="B355" s="29"/>
-      <c r="C355" s="29"/>
+      <c r="B355" s="30"/>
+      <c r="C355" s="30"/>
     </row>
     <row r="356">
-      <c r="B356" s="29"/>
-      <c r="C356" s="29"/>
+      <c r="B356" s="30"/>
+      <c r="C356" s="30"/>
     </row>
     <row r="357">
-      <c r="B357" s="29"/>
-      <c r="C357" s="29"/>
+      <c r="B357" s="30"/>
+      <c r="C357" s="30"/>
     </row>
     <row r="358">
-      <c r="B358" s="29"/>
-      <c r="C358" s="29"/>
+      <c r="B358" s="30"/>
+      <c r="C358" s="30"/>
     </row>
     <row r="359">
-      <c r="B359" s="29"/>
-      <c r="C359" s="29"/>
+      <c r="B359" s="30"/>
+      <c r="C359" s="30"/>
     </row>
     <row r="360">
-      <c r="B360" s="29"/>
-      <c r="C360" s="29"/>
+      <c r="B360" s="30"/>
+      <c r="C360" s="30"/>
     </row>
     <row r="361">
-      <c r="B361" s="29"/>
-      <c r="C361" s="29"/>
+      <c r="B361" s="30"/>
+      <c r="C361" s="30"/>
     </row>
     <row r="362">
-      <c r="B362" s="29"/>
-      <c r="C362" s="29"/>
+      <c r="B362" s="30"/>
+      <c r="C362" s="30"/>
     </row>
     <row r="363">
-      <c r="B363" s="29"/>
-      <c r="C363" s="29"/>
+      <c r="B363" s="30"/>
+      <c r="C363" s="30"/>
     </row>
     <row r="364">
-      <c r="B364" s="29"/>
-      <c r="C364" s="29"/>
+      <c r="B364" s="30"/>
+      <c r="C364" s="30"/>
     </row>
     <row r="365">
-      <c r="B365" s="29"/>
-      <c r="C365" s="29"/>
+      <c r="B365" s="30"/>
+      <c r="C365" s="30"/>
     </row>
     <row r="366">
-      <c r="B366" s="29"/>
-      <c r="C366" s="29"/>
+      <c r="B366" s="30"/>
+      <c r="C366" s="30"/>
     </row>
     <row r="367">
-      <c r="B367" s="29"/>
-      <c r="C367" s="29"/>
+      <c r="B367" s="30"/>
+      <c r="C367" s="30"/>
     </row>
     <row r="368">
-      <c r="B368" s="29"/>
-      <c r="C368" s="29"/>
+      <c r="B368" s="30"/>
+      <c r="C368" s="30"/>
     </row>
     <row r="369">
-      <c r="B369" s="29"/>
-      <c r="C369" s="29"/>
+      <c r="B369" s="30"/>
+      <c r="C369" s="30"/>
     </row>
     <row r="370">
-      <c r="B370" s="29"/>
-      <c r="C370" s="29"/>
+      <c r="B370" s="30"/>
+      <c r="C370" s="30"/>
     </row>
     <row r="371">
-      <c r="B371" s="29"/>
-      <c r="C371" s="29"/>
+      <c r="B371" s="30"/>
+      <c r="C371" s="30"/>
     </row>
     <row r="372">
-      <c r="B372" s="29"/>
-      <c r="C372" s="29"/>
+      <c r="B372" s="30"/>
+      <c r="C372" s="30"/>
     </row>
     <row r="373">
-      <c r="B373" s="29"/>
-      <c r="C373" s="29"/>
+      <c r="B373" s="30"/>
+      <c r="C373" s="30"/>
     </row>
     <row r="374">
-      <c r="B374" s="29"/>
-      <c r="C374" s="29"/>
+      <c r="B374" s="30"/>
+      <c r="C374" s="30"/>
     </row>
     <row r="375">
-      <c r="B375" s="29"/>
-      <c r="C375" s="29"/>
+      <c r="B375" s="30"/>
+      <c r="C375" s="30"/>
     </row>
     <row r="376">
-      <c r="B376" s="29"/>
-      <c r="C376" s="29"/>
+      <c r="B376" s="30"/>
+      <c r="C376" s="30"/>
     </row>
     <row r="377">
-      <c r="B377" s="29"/>
-      <c r="C377" s="29"/>
+      <c r="B377" s="30"/>
+      <c r="C377" s="30"/>
     </row>
     <row r="378">
-      <c r="B378" s="29"/>
-      <c r="C378" s="29"/>
+      <c r="B378" s="30"/>
+      <c r="C378" s="30"/>
     </row>
     <row r="379">
-      <c r="B379" s="29"/>
-      <c r="C379" s="29"/>
+      <c r="B379" s="30"/>
+      <c r="C379" s="30"/>
     </row>
     <row r="380">
-      <c r="B380" s="29"/>
-      <c r="C380" s="29"/>
+      <c r="B380" s="30"/>
+      <c r="C380" s="30"/>
     </row>
     <row r="381">
-      <c r="B381" s="29"/>
-      <c r="C381" s="29"/>
+      <c r="B381" s="30"/>
+      <c r="C381" s="30"/>
     </row>
     <row r="382">
-      <c r="B382" s="29"/>
-      <c r="C382" s="29"/>
+      <c r="B382" s="30"/>
+      <c r="C382" s="30"/>
     </row>
     <row r="383">
-      <c r="B383" s="29"/>
-      <c r="C383" s="29"/>
+      <c r="B383" s="30"/>
+      <c r="C383" s="30"/>
     </row>
     <row r="384">
-      <c r="B384" s="29"/>
-      <c r="C384" s="29"/>
+      <c r="B384" s="30"/>
+      <c r="C384" s="30"/>
     </row>
     <row r="385">
-      <c r="B385" s="29"/>
-      <c r="C385" s="29"/>
+      <c r="B385" s="30"/>
+      <c r="C385" s="30"/>
     </row>
     <row r="386">
-      <c r="B386" s="29"/>
-      <c r="C386" s="29"/>
+      <c r="B386" s="30"/>
+      <c r="C386" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/IdentificacionSesgo.xlsx
+++ b/data/IdentificacionSesgo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="386">
   <si>
     <r>
       <rPr>
@@ -1345,12 +1345,72 @@
   <si>
     <t>Los desmanes de la jornada de protesta terminaron afectando la libertad de prensa en el país. SEMANA y RCN vivieron actos de vandalismo. La directora de SEMANA, la periodista Vicky Dávila, relató que un grupo de vándalos llegó a la instalaciones y atentó contra el edificio donde opera el grupo editorial, pero también otras empresas. “Este ataque no es contra RCN ni SEMANA, es contra la prensa. Es fruto del odio de políticos y colegas. Ojalá esto no termine en una fatalidad contra un periodista de cualquiera de los dos medios. Políticos que tienen aspiraciones presidenciales que promueven el odio. Rechazamos rotundamente estos ataques”, dijo. RCN también se pronunció. “Desde Noticias RCN y NTN24 rechazamos el ataque sufrido en contra de las instalaciones del Canal RCN promovido y ejecutado por un grupo de violentos que ocurrió hoy a las 3 de la tarde y que dejó daños materiales y puso en riesgo la integridad de periodistas y trabajadores”, escribió el canal. Por su parte, su director, José Manuel Acevedo calificó el hecho como “un ataque en contra de la libertad de prensa y expresión”.</t>
   </si>
+  <si>
+    <t>Ese fue el caso de un joven bogotano, que tras participar del paro del pasado 02 de junio, donde al parecer asistió con mentiras, fue descubierto por su padre, quien no dudo en meterle tremendo regaño público, frente a los protestantes y policías que estaban en el lugar. Según el video, el joven pudo haber tenido un altercado con los uniformados, (que lo tenían rodeado) por lo que su progenitor se vio obligado a sacarlo del apuro y fue allí donde se desencadenó toda la situación del video, que hoy inunda las plataformas. Una vez llegó el padre, dejó ver su indignación por las mentiras en medio de gritos de su hijo, a quien en medio de gritos le preguntaba:“¿A qué vino, huevó*?, ¿A protestar a qué?… Dígame una sola razón, ¿a qué vino a protestar?”. “Con mentiras, con tantas mentiras… No sabe un cul* del país y viene a protestar acá, no sabe nada, no sabe ni mier**”, continúa diciendo el padre, mientras el joven avergonzado y en silencio, agacha la cabeza esperando que todo termine.</t>
+  </si>
+  <si>
+    <t>Pese a que muchas historias han sido tristes, también hay alegres y conmovedoras. En el caso del ‘Capitán Colombia’ se ha generado mucha expectativa, pues aunque se desconoce la identidad, se sabe que participa dentro de la ‘Primera línea’ en las protestas.  Pero en medio de este revuelo también ha sido usado en memes, ha recibido piropos y se roba la mirada de más de una. Muchos lo tildan como el héroe de las protestas, pues se encarga de que estas se lleven a cabo de manera pacífica y cuando se presentan desórdenes, es el primero en salir a defender a la gente que está a su alrededor.  Las manifestaciones que se han dado en Colombia desde el pasado 28 de abril han sido un escenario de múltiples historias y personajes, entre ellos, el famoso ‘Capitán Colombia’.</t>
+  </si>
+  <si>
+    <t>Como en las mejores batallas de rap, apareció un joven integrante de la Policía Nacional de Colombia para amenizar una tarde, donde centenares de personas se reunían para cumplir una jornada más del Paro Nacional en la ciudad de Medellín. El video fue publicado en la cuenta oficial de la Policía de Medellín donde se puede ver un centenar de personas haciendo un círculo en un parque del barrio Santa Lucía de la capital antioqueña, donde se puede ver al agente cantando hip-hop acompañado de los jóvenes que disfrutaron sus rimas y las aplaudieron.</t>
+  </si>
+  <si>
+    <t>Durante las últimas horas se hizo viral un video en el que se le ve a un hombre pegándole correazos a su hijo por estar dentro de una manifestación en el sector de Yomasa, en el suroriente de la capital. En el video se ve cómo, aparentemente, el joven es capturado por los agentes de Policía del Esmad; segundos después llega su padre a “rescatarlo”, pero la respuesta del papá fue sorpresiva. En vez de ‘darle una mano’, decidió literalmente pegarlo correazos a su hijo por su accionar en las calles y no tuvo en cuenta las miradas de todos los que se encontraban en el lugar.</t>
+  </si>
+  <si>
+    <t>En Bogotá la mayoría de las marchas se han llevado a cabo en las vías principales, afectado la operación de Transmilenio y por ende a los usuarios que han tenido que bajarse del sistema de transporte y caminar a sus casas. Es por eso que ahora los bogotanos afectados podrán pedir una devolución de ese pasaje que no pudieron utilizar, pero que si validaron en las taquillas de las estaciones. ¿Cómo pedir el reintegro de mi pase en Transmilenio? Esta solitud se hace para las personas que pagaron su pasaje, pero que no pudieron completar su movilización por el sistema o si no abordaron alguno de los buses durante las marchas que se han realizado desde el pasado 28 de abril en la ciudad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante las manifestaciones en Colombia por cuenta del paro nacional, el ‘Capitán Colombia’ se hizo viral en redes sociales y muchos lo comparan con el popular héroe de Marvel, el ‘Capitán América’. El hombre hace parte de la Primera Línea, un colectivo que a punta de caretas, cascos y escudos improvisados hacen frente al Escuadrón Móvil Antidisturbios (ESMAD), cuando estos intervienen con gases lacrimógenos para dispersar protestas. Son muchas las fotos y personajes que protagonizan este grupo, entre ellos madres de familia, estudiantes y el particular ‘Capitán Colombia’, un hombre que se está robando todas las miradas de las mujeres. Por ahora, se desconoce su verdadera identidad, pero su cuerpo musculoso y su escudo de protección han sido suficientes para que el hombre se haya vuelto viral en redes sociales. Sus fans crean historias, lanzan piropos y crean historias en honor a uno de los que hacen parte de la Primera Línea en Colombia. </t>
+  </si>
+  <si>
+    <t>Este fin de semana se vivió una tensa situación en el país por las manifestaciones y protestas que se vivieron por el paro nacional. En un marco complejo, se vivió una insólita situación en una de las ciudades donde se presentaba protestas. Duranta las manifestaciones en Buenaventura, se conoció un video donde un hombre con flores y globo en forma de corazón se acercaba a una mujer para expresarle su amor. La situación ante la mirada de una multitud de personas que deseaban un final feliz y así lo hacían saber en un coro que decía lo siguiente: “Que diga que sí, que diga que sí”. Aunque en el video no se escucha lo que le dice el hombre a la mujer, lo que si se puede es observar cuando ella le reprocha y le tira tanto las flores como el globo de corazón al piso.</t>
+  </si>
+  <si>
+    <t>Cucho' Hernández dijo presente en las protestas realizadas en España. El futbolista colombiano alzó su voz en España. Juan Camilo ´Cucho’ Hernández ha manifestado en sus redes sociales el amor que tiene por su Colombia, en momentos en los que han sido varias las figuras públicas pronunciándose por el contexto social de los últimos días. “Colombia tierra querida”, fue el primer mensaje del futbolista del Getafe en sus redes sociales.</t>
+  </si>
+  <si>
+    <t>Duque dice que informe de CIDH no defiende los derechos de los colombianos por igual. El mandatario habló así durante la celebración de los 70 años del Comando General de las Fuerzas Militares, donde defendió las actuaciones de la fuerza pública en la jornada protestas en el marco del paro nacional. “Da tristeza muchas veces cuando vemos las pretensiones de algunos de difamar, demonizar y satanizar el papel histórico que han cumplido las FF. MM. y de Policía”, sostuvo. Según el presidente, en el informe de CIDH habría sido “importante que en las reflexiones también de los derechos humanos se hiciera más hincapié y más precisión en las violaciones flagrantes derivadas de actos de violencia, vandalismo y terrorismo urbano de baja intensidad. Y también qué bueno fuera que la reflexión de esos derechos humanos se pudiera mostrar con claridad que los bloqueos han sido una demostración de la vileza que pueden tener algunos para cercenar y limitar los derechos de los demás”. Amismo, reiteró que la Policía Nacional no será separada del Ministerio de Defensa porque es un debate que ya se ha dado y explicado en el país. “Pretender sencillamente que sea una separación a partir de impresiones preliminares la que guíe los derroteros de la institución es algo que no tiene asidero. Los debates en democracia, bienvenidos”, recalcó.</t>
+  </si>
+  <si>
+    <t>Paro nacional le costó 15 billones de pesos a la economía de Bogotá, asegura Fenalco. Por ser el centro financiero y empresarial más importante del país, las pérdidas afectan también al 36% de las ventas de las compañías en Colombia. Con 8 millones de habitantes, la economía de Bogotá le aporta el 26% al crecimiento de la nación. La ciudad es la plataforma empresarial más grande de Colombia y cuna también de la mayoría de los emprendimientos de alto impacto. Es por esa magnitud de Bogotá que los bloqueos y los actos vandálicos ponen en riesgo toda esta cadena de producción y afectan al 17% de toda la población colombiana. “Si el gasto en Bogotá se frena, y es el 36% del gasto nacional, significa que es el 36% de las ventas de las empresas en el país. Por lo tanto, las movilizaciones de Bogotá tienen impacto en las ventas nacionales de diferentes marcas y empresas”, señala Camilo Herrera, presidente de Raddar. Muchos locales cerraron entre uno y 15 días durante esos actos vandálicos.</t>
+  </si>
+  <si>
+    <t>Policías heridos durante los disturbios en Bogotá. Según el general Gómez, hubo "doce hombres lesionados de nuestra Policía Nacional, algunas estaciones, los portales fueron igualmente atacados". Once uniformados resultaron lesionados, una estación de policía vandalizada y varias casas y locales comerciales afectados en Madrid, en Cundinamarca. Durante cinco horas, la estación del Sosiego, donde había 21 agentes, fue atacada violentamente. Los vándalos lanzaron piedras e, incluso, artefactos explosivos. Fue “una turba de aproximadamente de entre 200 y 250 personas que vienen directamente a atacar las instalaciones de la Policía, directamente afectar a nuestros policías, lanzándoles piedras, bombas molotov y demás elementos con el fin de dañarles su integridad y dañar las instalaciones de la Policía”, sostuvo el coronel César Castro, comandante de la institución en Cundinamarca. Tres patrullas fueron vandalizadas, once motocicletas particulares y que estaban en la estación por procedimientos o requerimientos judiciales fueron incineradas y once uniformados los trasladaron hasta el Hospital General de la Policía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La CIDH también documentó la preocupación de los colombianos sobre las interrupciones del servicio de Internet en el contexto de las protestas. Según señalaron, esto habría generado un escenario de obstaculización de las denuncias sobre el actuar de la fuerza pública. Los reportes recibidos enseñan tanto el posible uso de tecnología dirigida a inhibir o restringir la señal de Internet, como el bloqueo de las direcciones de dos páginas en Internet que contenían información sobre las protestas. Otra de las preocupaciones de la Comisión en materia de tecnología son las reiteradas denuncias que recibió sobre el perfilamiento de usuarios de redes sociales, participantes o no de las protestas. Reseñó que “la caracterización genérica a través de términos como terrorismo, vandalismo o criminales estigmatiza a las personas manifestantes, activa un ambiente hostil al ejercicio de la protesta y a la libertad de expresión en Internet. La Relatoría Especial para la Libertad de Expresión ha señalado que las sanciones penales por la difusión de información presuntamente falsa podrían retrotraer a la región a una lógica de criminalizar expresiones sobre asuntos de interés público y establecer una herramienta con un fuerte efecto inhibitorio. </t>
+  </si>
+  <si>
+    <t>Mindefensa advierte que ya tienen borrador del proyecto antivandalismo. El ministro Diego Molano explicó cuáles son los puntos centrales de este proyecto anunciado por el presidente Iván Duque. El proyecto antivandalismo, que propuso el presidente de la República, Iván Duque, fue una respuesta a los hechos de violencia, terrorismo y hostigamientos, no sólo a la fuerza pública, sino a la comunidad y durante las jornadas de protesta del Paro Nacional. El presidente lo anticipó y ahora el ministro de Defensa, Diego Molano, advirtió que tienen listo un borrador de ese proyecto. Molano aseguró que el proyecto tiene tres pilares fundamentales, que incluye, en primer lugar: endurecer las penas para quienes incurran en conductas ilegales relacionadas con la movilización o que afecten la protesta pacífica. El proyecto, según el ministro Molano, se acompaña de la creación de nuevo tipos penales, es decir, nuevos delitos sobre conductas que a su criterio no están penalizadas. Por último, son los mecanismos para garantizar que la infiltración de los violentos no afecte el normal desarrollo de la protesta pacífica.</t>
+  </si>
+  <si>
+    <t>El ministro, Diego Molano, salió en defensa del papel de la fuerza pública. Durante su intervención, el funcionario reiteró que durante los actos violentos ha habido intereses de organizaciones al margen la ley, como las disidencias de las Farc y el ELN. Explicó que en Cali, Medellín, Popayán y Bogotá se han dado ataques sistemáticos a las entidades del Estado, como la Defensoría del Pueblo, la Fiscalía, la Procuraduría y la Policía, acciones que son plenamente organizadas, no por los manifestantes pacíficos sino por organizaciones criminales, en hechos que reiteró son terroristas. “¿Quién está detrás de la violencia, del ataque a las entidades? Los vamos a identificar a los responsables, los encontraremos y judicializaremos. No son supuestos ni hipótesis, lo de las disidencias y el ELN está comprobado como el caso de alias Jacobo, quien estaba incentivando el odio en las redes sociales”, señalo el funcionario. De igual manera Molano insistió en que las protestas pacíficas serán respetadas en el país, pero serán combatidos los actos violentos que comentan vándalos.</t>
+  </si>
+  <si>
+    <t>Los policías del Esmad son héroes: la acérrima defensa del ministro Molano durante la moción de censura. El funcionario respondió a los ataques que le hizo la oposición, que lo confrontó bajo el argumento de que se ha manejado mal el orden publico durante el paro nacional. Sobre este punto, destacó el papel del Escuadrón Móvil Antidisturbios, en donde dijo que quienes integraban estas unidades eran héroes. “Quiero hablar del Esmad, quien afecta las manifestaciones son los violentos y no el Esmad (…) yo quisiera invitarlos (Congresistas) a que hablaran con un policía del Esmad, los policías del Esmad son unos héroes, 105 países del mundo tienen policía como el Esmad, y la de Colombia es una de las reconocidas, están regulados, tiene entrenamientos formados en derechos humanos, y aún así los tildan como si estuvieran en contra de la sociedad cuando buscan garantizar la manifestación pacífica”, dijo Molano. De igual manera rechazo el prejuzgamiento que ha recibido la fuerza pública durante su actuación en el paro nacional “Por supuesto se nos ha prejuzgado señalado de todo tipo de delitos, mientras que muchas veces la mentira va rápido, se mueve en las redes, a los funcionarios nos corresponde decir la verdad, aquí no se puede tildar al gobierno de estigmatizar la protesta, se ha garantizado, miles de colombianos han salido a marchar, más de 8.000 actividades en más de 700 municipios de Colombia, esa responsabilidad y la asume la fuerza pública con toda garantía”.</t>
+  </si>
+  <si>
+    <t>En el marco de las jornadas de manifestaciones y desmanes que se han adelantado en el país por más de 18 días, desde diferentes sectores del Gobierno Nacional y fuerza pública han manifestado que las marcas han estado siendo infiltradas por organizaciones criminales, con el propósito de desestabilizar al país... se ha expuesto el plan que estaría ejecutando las disidencias de las Farc y milicias urbanas del ELN para lograr el control de la ciudad de Cali.  El medio de comunicación indicó que existen una serie de grabaciones junto a información de inteligencia, que evidencias cómo se desarrolló un presunto ‘plan criminal’ en el marco de las manifestaciones en Cali. Este plan habría partido de la implementación de unos estímulos para promover el vandalismo en varias zonas de la ciudad, lo cual se reflejó en saqueos, destrucción de propiedad pública y privada, junto a enfrentamientos de encapuchados y agentes del Esmad.</t>
+  </si>
+  <si>
+    <t>Molano, en diálogo con RCN Radio, aseguró que es necesario tener claridad en el papel y la función de "nuestra fuerza pública, policías y soldados" durante las protestas: "Su papel es garantizar el derecho y la tranquilidad de quienes no marchan, garantizar el derecho a la protesta pacífica de quienes marchan y lo hacen pacíficamente, pero por supuesto actuar de forma contundente contra todos aquellos que afectan la tranquilidad la vida y que están cometiendo actos de vandalismo". Según Molano, tras el trabajo de los grupos de inteligencia de la Policía Nacional, se encontró que "hay una relación directa porque hay una fuerza que organiza ataques sistemáticos planeados, premeditados y que son financiados por disidencias de las Farc y el ELN, con unos movimientos como el M-19, el movimiento Bolivariano, los Capuchos, los Escudos Azules y el 8 de junio de la célula de ese grupo armado". Así mismo, el ministro señaló que son estos grupos los que "están cometiendo y promoviendo este tipo de actos de terrorismo de baja intensidad a nivel urbano y que han afectado las ciudades sistemáticamente".</t>
+  </si>
+  <si>
+    <t>Los colombianos vimos los bloqueos que la CIDH no vio; la brutalidad de encapuchados que impedían la movilización de personas, mercancías, alimentos y ambulancias; y pagaremos todos el costo billonario de la quiebra de empresas, pérdida de empleos y crisis económica. Por eso insulta a la inteligencia que tal nivel de “terrorismo económico y social” -aunque el terrorismo no esté en su diccionario- se disfrace como “cortes de ruta” y se recomiende al Gobierno “abstenerse de prohibirlos a priori”, con lo cual la CIDH legitima los bloqueos y desprecia los derechos de las mayorías. Los “cortes de ruta” de la CIDH son como las “retenciones” de las Farc, invento de la JEP para disfrazar el secuestro y aplicarle su impune justicia restaurativa. Sin duda, dos instituciones que comulgan en el sesgo ideológico de la izquierda y, por tanto, ven por un solo ojo.</t>
+  </si>
+  <si>
+    <t>La CIDH vio excesos de fuerza de las autoridades, pero no el vandalismo sistemático que asoló las ciudades; hizo acusaciones de violencia étnica, pero no vio la de los indígenas que bloquearon y destruyeron, prevalidos de su “autonomía”; cuestionó la asistencia militar y la justicia penal militar, acusó falsamente al Gobierno de estigmatizar la protesta y a los jóvenes, y hasta resultó siendo ¡la Fuerza Pública! la que atacó misiones médicas y bloqueó ambulancias. ¡No hay derecho!. Y claro, tuvo tiempo para una “manito” a su protegido Petro, reiterando su esperpento jurídico de atar de manos a la Procuraduría y extenderles patente de corso, como “indisciplinables”, a los funcionarios de elección popular. Ni qué decir de las recomendaciones, que parecen copiadas del paro. La “neutralización” del Esmad y el traslado de la Policía al Mininterior son arrogantes e indebidas intromisiones. La CIDH tampoco quiso ver los intereses transnacionales que buscan implantar el comunismo en Colombia, y con su actitud “tuerta”, el mundo recibió la imagen de una dictadura a lo Maduro y Ortega, que buscaban los que quieren erigirse luego en salvadores socialistas, algo que, tras la pandemia y el paro, el país no resistiría.</t>
+  </si>
+  <si>
+    <t>Paro nacional 2021, un hito en la protesta social de Colombia. “El Paro Cívico Nacional de 1977 fue la gran jornada de la segunda mitad del siglo XX, la primera fue sin duda el Bogotazo (1948). Este paro fue muy grande, pero duró dos días en Bogotá y un día en la mayor parte del territorio. Hubo 19 muertos en la capital y dos o tres en el resto del país, comparado con el paro actual fue bastante pacífico”, dijo a la Agencia Anadolu Mauricio Archila Neira, profesor de la Universidad Nacional de Colombia e investigador del Centro de Investigación y Educación Popular (Cinep). De acuerdo con Archila Neira, la aparición de la violencia paramilitar en la década de 1980 inhibió a los movimientos sociales.  “La teoría de los paramilitares era la del pez en agua. El agua era la población civil y para acabar a la guerrilla había que destruir entonces a las organizaciones sociales”, indicó el profesor. “Los movimientos sociales se debilitan mucho porque asesinan a sus dirigentes, destruyen las organizaciones, erradican a sangre y fuego la protesta. Hay zonas que se pacificaron a sangre y fuego por parte de los paramilitares, a veces incluso por efectivos del Ejército, la Policía, la Armada y el DAS (Departamento Administrativo de Seguridad)”, detalló. La protesta social en el país empezó a reactivarse a partir de 2006, según la base de datos de luchas sociales en Colombia de Cinep.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1400,6 +1460,7 @@
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -1439,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1529,6 +1590,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -4200,7 +4270,7 @@
       <c r="C173" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4214,7 +4284,7 @@
       <c r="C174" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4228,7 +4298,7 @@
       <c r="C175" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4242,7 +4312,7 @@
       <c r="C176" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4256,7 +4326,7 @@
       <c r="C177" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4270,7 +4340,7 @@
       <c r="C178" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4284,7 +4354,7 @@
       <c r="C179" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4298,7 +4368,7 @@
       <c r="C180" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4312,7 +4382,7 @@
       <c r="C181" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4326,7 +4396,7 @@
       <c r="C182" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4340,7 +4410,7 @@
       <c r="C183" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4354,7 +4424,7 @@
       <c r="C184" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4368,7 +4438,7 @@
       <c r="C185" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4382,7 +4452,7 @@
       <c r="C186" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4396,7 +4466,7 @@
       <c r="C187" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4410,7 +4480,7 @@
       <c r="C188" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4424,7 +4494,7 @@
       <c r="C189" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4438,7 +4508,7 @@
       <c r="C190" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4452,7 +4522,7 @@
       <c r="C191" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4466,7 +4536,7 @@
       <c r="C192" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4480,7 +4550,7 @@
       <c r="C193" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4494,7 +4564,7 @@
       <c r="C194" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4508,7 +4578,7 @@
       <c r="C195" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4522,7 +4592,7 @@
       <c r="C196" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4536,7 +4606,7 @@
       <c r="C197" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4550,7 +4620,7 @@
       <c r="C198" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4564,757 +4634,957 @@
       <c r="C199" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="30" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="200">
-      <c r="B200" s="30"/>
-      <c r="C200" s="30"/>
+      <c r="A200" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B200" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="201">
-      <c r="B201" s="30"/>
-      <c r="C201" s="30"/>
+      <c r="A201" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="202">
-      <c r="B202" s="30"/>
-      <c r="C202" s="30"/>
+      <c r="A202" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="203">
-      <c r="B203" s="30"/>
-      <c r="C203" s="30"/>
+      <c r="A203" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="204">
-      <c r="B204" s="30"/>
-      <c r="C204" s="30"/>
+      <c r="A204" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="205">
-      <c r="B205" s="30"/>
-      <c r="C205" s="30"/>
+      <c r="A205" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B205" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="206">
-      <c r="B206" s="30"/>
-      <c r="C206" s="30"/>
+      <c r="A206" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="207">
-      <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
+      <c r="A207" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B207" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="208">
-      <c r="B208" s="30"/>
-      <c r="C208" s="30"/>
+      <c r="A208" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="209">
-      <c r="B209" s="30"/>
-      <c r="C209" s="30"/>
+      <c r="A209" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B209" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C209" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="210">
-      <c r="B210" s="30"/>
-      <c r="C210" s="30"/>
+      <c r="A210" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="211">
-      <c r="B211" s="30"/>
-      <c r="C211" s="30"/>
+      <c r="A211" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B211" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="212">
-      <c r="B212" s="30"/>
-      <c r="C212" s="30"/>
+      <c r="A212" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B212" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="213">
-      <c r="B213" s="30"/>
-      <c r="C213" s="30"/>
+      <c r="A213" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B213" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="214">
-      <c r="B214" s="30"/>
-      <c r="C214" s="30"/>
+      <c r="A214" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B214" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="215">
-      <c r="B215" s="30"/>
-      <c r="C215" s="30"/>
+      <c r="A215" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B215" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="216">
-      <c r="B216" s="30"/>
-      <c r="C216" s="30"/>
+      <c r="A216" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B216" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C216" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="217">
-      <c r="B217" s="30"/>
-      <c r="C217" s="30"/>
+      <c r="A217" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B217" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="218">
-      <c r="B218" s="30"/>
-      <c r="C218" s="30"/>
+      <c r="A218" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B218" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="219">
-      <c r="B219" s="30"/>
-      <c r="C219" s="30"/>
+      <c r="A219" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B219" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="220">
-      <c r="B220" s="30"/>
-      <c r="C220" s="30"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="33"/>
     </row>
     <row r="221">
-      <c r="B221" s="30"/>
-      <c r="C221" s="30"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="33"/>
     </row>
     <row r="222">
-      <c r="B222" s="30"/>
-      <c r="C222" s="30"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="33"/>
     </row>
     <row r="223">
-      <c r="B223" s="30"/>
-      <c r="C223" s="30"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="33"/>
     </row>
     <row r="224">
-      <c r="B224" s="30"/>
-      <c r="C224" s="30"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="33"/>
     </row>
     <row r="225">
-      <c r="B225" s="30"/>
-      <c r="C225" s="30"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="33"/>
     </row>
     <row r="226">
-      <c r="B226" s="30"/>
-      <c r="C226" s="30"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="33"/>
     </row>
     <row r="227">
-      <c r="B227" s="30"/>
-      <c r="C227" s="30"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="33"/>
     </row>
     <row r="228">
-      <c r="B228" s="30"/>
-      <c r="C228" s="30"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="33"/>
     </row>
     <row r="229">
-      <c r="B229" s="30"/>
-      <c r="C229" s="30"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="33"/>
     </row>
     <row r="230">
-      <c r="B230" s="30"/>
-      <c r="C230" s="30"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="33"/>
     </row>
     <row r="231">
-      <c r="B231" s="30"/>
-      <c r="C231" s="30"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
     </row>
     <row r="232">
-      <c r="B232" s="30"/>
-      <c r="C232" s="30"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="33"/>
     </row>
     <row r="233">
-      <c r="B233" s="30"/>
-      <c r="C233" s="30"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="33"/>
     </row>
     <row r="234">
-      <c r="B234" s="30"/>
-      <c r="C234" s="30"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="33"/>
     </row>
     <row r="235">
-      <c r="B235" s="30"/>
-      <c r="C235" s="30"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="33"/>
     </row>
     <row r="236">
-      <c r="B236" s="30"/>
-      <c r="C236" s="30"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="33"/>
     </row>
     <row r="237">
-      <c r="B237" s="30"/>
-      <c r="C237" s="30"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="33"/>
     </row>
     <row r="238">
-      <c r="B238" s="30"/>
-      <c r="C238" s="30"/>
+      <c r="B238" s="33"/>
+      <c r="C238" s="33"/>
     </row>
     <row r="239">
-      <c r="B239" s="30"/>
-      <c r="C239" s="30"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="33"/>
     </row>
     <row r="240">
-      <c r="B240" s="30"/>
-      <c r="C240" s="30"/>
+      <c r="B240" s="33"/>
+      <c r="C240" s="33"/>
     </row>
     <row r="241">
-      <c r="B241" s="30"/>
-      <c r="C241" s="30"/>
+      <c r="B241" s="33"/>
+      <c r="C241" s="33"/>
     </row>
     <row r="242">
-      <c r="B242" s="30"/>
-      <c r="C242" s="30"/>
+      <c r="B242" s="33"/>
+      <c r="C242" s="33"/>
     </row>
     <row r="243">
-      <c r="B243" s="30"/>
-      <c r="C243" s="30"/>
+      <c r="B243" s="33"/>
+      <c r="C243" s="33"/>
     </row>
     <row r="244">
-      <c r="B244" s="30"/>
-      <c r="C244" s="30"/>
+      <c r="B244" s="33"/>
+      <c r="C244" s="33"/>
     </row>
     <row r="245">
-      <c r="B245" s="30"/>
-      <c r="C245" s="30"/>
+      <c r="B245" s="33"/>
+      <c r="C245" s="33"/>
     </row>
     <row r="246">
-      <c r="B246" s="30"/>
-      <c r="C246" s="30"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="33"/>
     </row>
     <row r="247">
-      <c r="B247" s="30"/>
-      <c r="C247" s="30"/>
+      <c r="B247" s="33"/>
+      <c r="C247" s="33"/>
     </row>
     <row r="248">
-      <c r="B248" s="30"/>
-      <c r="C248" s="30"/>
+      <c r="B248" s="33"/>
+      <c r="C248" s="33"/>
     </row>
     <row r="249">
-      <c r="B249" s="30"/>
-      <c r="C249" s="30"/>
+      <c r="B249" s="33"/>
+      <c r="C249" s="33"/>
     </row>
     <row r="250">
-      <c r="B250" s="30"/>
-      <c r="C250" s="30"/>
+      <c r="B250" s="33"/>
+      <c r="C250" s="33"/>
     </row>
     <row r="251">
-      <c r="B251" s="30"/>
-      <c r="C251" s="30"/>
+      <c r="B251" s="33"/>
+      <c r="C251" s="33"/>
     </row>
     <row r="252">
-      <c r="B252" s="30"/>
-      <c r="C252" s="30"/>
+      <c r="B252" s="33"/>
+      <c r="C252" s="33"/>
     </row>
     <row r="253">
-      <c r="B253" s="30"/>
-      <c r="C253" s="30"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="33"/>
     </row>
     <row r="254">
-      <c r="B254" s="30"/>
-      <c r="C254" s="30"/>
+      <c r="B254" s="33"/>
+      <c r="C254" s="33"/>
     </row>
     <row r="255">
-      <c r="B255" s="30"/>
-      <c r="C255" s="30"/>
+      <c r="B255" s="33"/>
+      <c r="C255" s="33"/>
     </row>
     <row r="256">
-      <c r="B256" s="30"/>
-      <c r="C256" s="30"/>
+      <c r="B256" s="33"/>
+      <c r="C256" s="33"/>
     </row>
     <row r="257">
-      <c r="B257" s="30"/>
-      <c r="C257" s="30"/>
+      <c r="B257" s="33"/>
+      <c r="C257" s="33"/>
     </row>
     <row r="258">
-      <c r="B258" s="30"/>
-      <c r="C258" s="30"/>
+      <c r="B258" s="33"/>
+      <c r="C258" s="33"/>
     </row>
     <row r="259">
-      <c r="B259" s="30"/>
-      <c r="C259" s="30"/>
+      <c r="B259" s="33"/>
+      <c r="C259" s="33"/>
     </row>
     <row r="260">
-      <c r="B260" s="30"/>
-      <c r="C260" s="30"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="33"/>
     </row>
     <row r="261">
-      <c r="B261" s="30"/>
-      <c r="C261" s="30"/>
+      <c r="B261" s="33"/>
+      <c r="C261" s="33"/>
     </row>
     <row r="262">
-      <c r="B262" s="30"/>
-      <c r="C262" s="30"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="33"/>
     </row>
     <row r="263">
-      <c r="B263" s="30"/>
-      <c r="C263" s="30"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
     </row>
     <row r="264">
-      <c r="B264" s="30"/>
-      <c r="C264" s="30"/>
+      <c r="B264" s="33"/>
+      <c r="C264" s="33"/>
     </row>
     <row r="265">
-      <c r="B265" s="30"/>
-      <c r="C265" s="30"/>
+      <c r="B265" s="33"/>
+      <c r="C265" s="33"/>
     </row>
     <row r="266">
-      <c r="B266" s="30"/>
-      <c r="C266" s="30"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
     </row>
     <row r="267">
-      <c r="B267" s="30"/>
-      <c r="C267" s="30"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="33"/>
     </row>
     <row r="268">
-      <c r="B268" s="30"/>
-      <c r="C268" s="30"/>
+      <c r="B268" s="33"/>
+      <c r="C268" s="33"/>
     </row>
     <row r="269">
-      <c r="B269" s="30"/>
-      <c r="C269" s="30"/>
+      <c r="B269" s="33"/>
+      <c r="C269" s="33"/>
     </row>
     <row r="270">
-      <c r="B270" s="30"/>
-      <c r="C270" s="30"/>
+      <c r="B270" s="33"/>
+      <c r="C270" s="33"/>
     </row>
     <row r="271">
-      <c r="B271" s="30"/>
-      <c r="C271" s="30"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
     </row>
     <row r="272">
-      <c r="B272" s="30"/>
-      <c r="C272" s="30"/>
+      <c r="B272" s="33"/>
+      <c r="C272" s="33"/>
     </row>
     <row r="273">
-      <c r="B273" s="30"/>
-      <c r="C273" s="30"/>
+      <c r="B273" s="33"/>
+      <c r="C273" s="33"/>
     </row>
     <row r="274">
-      <c r="B274" s="30"/>
-      <c r="C274" s="30"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="33"/>
     </row>
     <row r="275">
-      <c r="B275" s="30"/>
-      <c r="C275" s="30"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="33"/>
     </row>
     <row r="276">
-      <c r="B276" s="30"/>
-      <c r="C276" s="30"/>
+      <c r="B276" s="33"/>
+      <c r="C276" s="33"/>
     </row>
     <row r="277">
-      <c r="B277" s="30"/>
-      <c r="C277" s="30"/>
+      <c r="B277" s="33"/>
+      <c r="C277" s="33"/>
     </row>
     <row r="278">
-      <c r="B278" s="30"/>
-      <c r="C278" s="30"/>
+      <c r="B278" s="33"/>
+      <c r="C278" s="33"/>
     </row>
     <row r="279">
-      <c r="B279" s="30"/>
-      <c r="C279" s="30"/>
+      <c r="B279" s="33"/>
+      <c r="C279" s="33"/>
     </row>
     <row r="280">
-      <c r="B280" s="30"/>
-      <c r="C280" s="30"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="33"/>
     </row>
     <row r="281">
-      <c r="B281" s="30"/>
-      <c r="C281" s="30"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
     </row>
     <row r="282">
-      <c r="B282" s="30"/>
-      <c r="C282" s="30"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
     </row>
     <row r="283">
-      <c r="B283" s="30"/>
-      <c r="C283" s="30"/>
+      <c r="B283" s="33"/>
+      <c r="C283" s="33"/>
     </row>
     <row r="284">
-      <c r="B284" s="30"/>
-      <c r="C284" s="30"/>
+      <c r="B284" s="33"/>
+      <c r="C284" s="33"/>
     </row>
     <row r="285">
-      <c r="B285" s="30"/>
-      <c r="C285" s="30"/>
+      <c r="B285" s="33"/>
+      <c r="C285" s="33"/>
     </row>
     <row r="286">
-      <c r="B286" s="30"/>
-      <c r="C286" s="30"/>
+      <c r="B286" s="33"/>
+      <c r="C286" s="33"/>
     </row>
     <row r="287">
-      <c r="B287" s="30"/>
-      <c r="C287" s="30"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="33"/>
     </row>
     <row r="288">
-      <c r="B288" s="30"/>
-      <c r="C288" s="30"/>
+      <c r="B288" s="33"/>
+      <c r="C288" s="33"/>
     </row>
     <row r="289">
-      <c r="B289" s="30"/>
-      <c r="C289" s="30"/>
+      <c r="B289" s="33"/>
+      <c r="C289" s="33"/>
     </row>
     <row r="290">
-      <c r="B290" s="30"/>
-      <c r="C290" s="30"/>
+      <c r="B290" s="33"/>
+      <c r="C290" s="33"/>
     </row>
     <row r="291">
-      <c r="B291" s="30"/>
-      <c r="C291" s="30"/>
+      <c r="B291" s="33"/>
+      <c r="C291" s="33"/>
     </row>
     <row r="292">
-      <c r="B292" s="30"/>
-      <c r="C292" s="30"/>
+      <c r="B292" s="33"/>
+      <c r="C292" s="33"/>
     </row>
     <row r="293">
-      <c r="B293" s="30"/>
-      <c r="C293" s="30"/>
+      <c r="B293" s="33"/>
+      <c r="C293" s="33"/>
     </row>
     <row r="294">
-      <c r="B294" s="30"/>
-      <c r="C294" s="30"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="33"/>
     </row>
     <row r="295">
-      <c r="B295" s="30"/>
-      <c r="C295" s="30"/>
+      <c r="B295" s="33"/>
+      <c r="C295" s="33"/>
     </row>
     <row r="296">
-      <c r="B296" s="30"/>
-      <c r="C296" s="30"/>
+      <c r="B296" s="33"/>
+      <c r="C296" s="33"/>
     </row>
     <row r="297">
-      <c r="B297" s="30"/>
-      <c r="C297" s="30"/>
+      <c r="B297" s="33"/>
+      <c r="C297" s="33"/>
     </row>
     <row r="298">
-      <c r="B298" s="30"/>
-      <c r="C298" s="30"/>
+      <c r="B298" s="33"/>
+      <c r="C298" s="33"/>
     </row>
     <row r="299">
-      <c r="B299" s="30"/>
-      <c r="C299" s="30"/>
+      <c r="B299" s="33"/>
+      <c r="C299" s="33"/>
     </row>
     <row r="300">
-      <c r="B300" s="30"/>
-      <c r="C300" s="30"/>
+      <c r="B300" s="33"/>
+      <c r="C300" s="33"/>
     </row>
     <row r="301">
-      <c r="B301" s="30"/>
-      <c r="C301" s="30"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="33"/>
     </row>
     <row r="302">
-      <c r="B302" s="30"/>
-      <c r="C302" s="30"/>
+      <c r="B302" s="33"/>
+      <c r="C302" s="33"/>
     </row>
     <row r="303">
-      <c r="B303" s="30"/>
-      <c r="C303" s="30"/>
+      <c r="B303" s="33"/>
+      <c r="C303" s="33"/>
     </row>
     <row r="304">
-      <c r="B304" s="30"/>
-      <c r="C304" s="30"/>
+      <c r="B304" s="33"/>
+      <c r="C304" s="33"/>
     </row>
     <row r="305">
-      <c r="B305" s="30"/>
-      <c r="C305" s="30"/>
+      <c r="B305" s="33"/>
+      <c r="C305" s="33"/>
     </row>
     <row r="306">
-      <c r="B306" s="30"/>
-      <c r="C306" s="30"/>
+      <c r="B306" s="33"/>
+      <c r="C306" s="33"/>
     </row>
     <row r="307">
-      <c r="B307" s="30"/>
-      <c r="C307" s="30"/>
+      <c r="B307" s="33"/>
+      <c r="C307" s="33"/>
     </row>
     <row r="308">
-      <c r="B308" s="30"/>
-      <c r="C308" s="30"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="33"/>
     </row>
     <row r="309">
-      <c r="B309" s="30"/>
-      <c r="C309" s="30"/>
+      <c r="B309" s="33"/>
+      <c r="C309" s="33"/>
     </row>
     <row r="310">
-      <c r="B310" s="30"/>
-      <c r="C310" s="30"/>
+      <c r="B310" s="33"/>
+      <c r="C310" s="33"/>
     </row>
     <row r="311">
-      <c r="B311" s="30"/>
-      <c r="C311" s="30"/>
+      <c r="B311" s="33"/>
+      <c r="C311" s="33"/>
     </row>
     <row r="312">
-      <c r="B312" s="30"/>
-      <c r="C312" s="30"/>
+      <c r="B312" s="33"/>
+      <c r="C312" s="33"/>
     </row>
     <row r="313">
-      <c r="B313" s="30"/>
-      <c r="C313" s="30"/>
+      <c r="B313" s="33"/>
+      <c r="C313" s="33"/>
     </row>
     <row r="314">
-      <c r="B314" s="30"/>
-      <c r="C314" s="30"/>
+      <c r="B314" s="33"/>
+      <c r="C314" s="33"/>
     </row>
     <row r="315">
-      <c r="B315" s="30"/>
-      <c r="C315" s="30"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="33"/>
     </row>
     <row r="316">
-      <c r="B316" s="30"/>
-      <c r="C316" s="30"/>
+      <c r="B316" s="33"/>
+      <c r="C316" s="33"/>
     </row>
     <row r="317">
-      <c r="B317" s="30"/>
-      <c r="C317" s="30"/>
+      <c r="B317" s="33"/>
+      <c r="C317" s="33"/>
     </row>
     <row r="318">
-      <c r="B318" s="30"/>
-      <c r="C318" s="30"/>
+      <c r="B318" s="33"/>
+      <c r="C318" s="33"/>
     </row>
     <row r="319">
-      <c r="B319" s="30"/>
-      <c r="C319" s="30"/>
+      <c r="B319" s="33"/>
+      <c r="C319" s="33"/>
     </row>
     <row r="320">
-      <c r="B320" s="30"/>
-      <c r="C320" s="30"/>
+      <c r="B320" s="33"/>
+      <c r="C320" s="33"/>
     </row>
     <row r="321">
-      <c r="B321" s="30"/>
-      <c r="C321" s="30"/>
+      <c r="B321" s="33"/>
+      <c r="C321" s="33"/>
     </row>
     <row r="322">
-      <c r="B322" s="30"/>
-      <c r="C322" s="30"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="33"/>
     </row>
     <row r="323">
-      <c r="B323" s="30"/>
-      <c r="C323" s="30"/>
+      <c r="B323" s="33"/>
+      <c r="C323" s="33"/>
     </row>
     <row r="324">
-      <c r="B324" s="30"/>
-      <c r="C324" s="30"/>
+      <c r="B324" s="33"/>
+      <c r="C324" s="33"/>
     </row>
     <row r="325">
-      <c r="B325" s="30"/>
-      <c r="C325" s="30"/>
+      <c r="B325" s="33"/>
+      <c r="C325" s="33"/>
     </row>
     <row r="326">
-      <c r="B326" s="30"/>
-      <c r="C326" s="30"/>
+      <c r="B326" s="33"/>
+      <c r="C326" s="33"/>
     </row>
     <row r="327">
-      <c r="B327" s="30"/>
-      <c r="C327" s="30"/>
+      <c r="B327" s="33"/>
+      <c r="C327" s="33"/>
     </row>
     <row r="328">
-      <c r="B328" s="30"/>
-      <c r="C328" s="30"/>
+      <c r="B328" s="33"/>
+      <c r="C328" s="33"/>
     </row>
     <row r="329">
-      <c r="B329" s="30"/>
-      <c r="C329" s="30"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="33"/>
     </row>
     <row r="330">
-      <c r="B330" s="30"/>
-      <c r="C330" s="30"/>
+      <c r="B330" s="33"/>
+      <c r="C330" s="33"/>
     </row>
     <row r="331">
-      <c r="B331" s="30"/>
-      <c r="C331" s="30"/>
+      <c r="B331" s="33"/>
+      <c r="C331" s="33"/>
     </row>
     <row r="332">
-      <c r="B332" s="30"/>
-      <c r="C332" s="30"/>
+      <c r="B332" s="33"/>
+      <c r="C332" s="33"/>
     </row>
     <row r="333">
-      <c r="B333" s="30"/>
-      <c r="C333" s="30"/>
+      <c r="B333" s="33"/>
+      <c r="C333" s="33"/>
     </row>
     <row r="334">
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="33"/>
     </row>
     <row r="335">
-      <c r="B335" s="30"/>
-      <c r="C335" s="30"/>
+      <c r="B335" s="33"/>
+      <c r="C335" s="33"/>
     </row>
     <row r="336">
-      <c r="B336" s="30"/>
-      <c r="C336" s="30"/>
+      <c r="B336" s="33"/>
+      <c r="C336" s="33"/>
     </row>
     <row r="337">
-      <c r="B337" s="30"/>
-      <c r="C337" s="30"/>
+      <c r="B337" s="33"/>
+      <c r="C337" s="33"/>
     </row>
     <row r="338">
-      <c r="B338" s="30"/>
-      <c r="C338" s="30"/>
+      <c r="B338" s="33"/>
+      <c r="C338" s="33"/>
     </row>
     <row r="339">
-      <c r="B339" s="30"/>
-      <c r="C339" s="30"/>
+      <c r="B339" s="33"/>
+      <c r="C339" s="33"/>
     </row>
     <row r="340">
-      <c r="B340" s="30"/>
-      <c r="C340" s="30"/>
+      <c r="B340" s="33"/>
+      <c r="C340" s="33"/>
     </row>
     <row r="341">
-      <c r="B341" s="30"/>
-      <c r="C341" s="30"/>
+      <c r="B341" s="33"/>
+      <c r="C341" s="33"/>
     </row>
     <row r="342">
-      <c r="B342" s="30"/>
-      <c r="C342" s="30"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="33"/>
     </row>
     <row r="343">
-      <c r="B343" s="30"/>
-      <c r="C343" s="30"/>
+      <c r="B343" s="33"/>
+      <c r="C343" s="33"/>
     </row>
     <row r="344">
-      <c r="B344" s="30"/>
-      <c r="C344" s="30"/>
+      <c r="B344" s="33"/>
+      <c r="C344" s="33"/>
     </row>
     <row r="345">
-      <c r="B345" s="30"/>
-      <c r="C345" s="30"/>
+      <c r="B345" s="33"/>
+      <c r="C345" s="33"/>
     </row>
     <row r="346">
-      <c r="B346" s="30"/>
-      <c r="C346" s="30"/>
+      <c r="B346" s="33"/>
+      <c r="C346" s="33"/>
     </row>
     <row r="347">
-      <c r="B347" s="30"/>
-      <c r="C347" s="30"/>
+      <c r="B347" s="33"/>
+      <c r="C347" s="33"/>
     </row>
     <row r="348">
-      <c r="B348" s="30"/>
-      <c r="C348" s="30"/>
+      <c r="B348" s="33"/>
+      <c r="C348" s="33"/>
     </row>
     <row r="349">
-      <c r="B349" s="30"/>
-      <c r="C349" s="30"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="33"/>
     </row>
     <row r="350">
-      <c r="B350" s="30"/>
-      <c r="C350" s="30"/>
+      <c r="B350" s="33"/>
+      <c r="C350" s="33"/>
     </row>
     <row r="351">
-      <c r="B351" s="30"/>
-      <c r="C351" s="30"/>
+      <c r="B351" s="33"/>
+      <c r="C351" s="33"/>
     </row>
     <row r="352">
-      <c r="B352" s="30"/>
-      <c r="C352" s="30"/>
+      <c r="B352" s="33"/>
+      <c r="C352" s="33"/>
     </row>
     <row r="353">
-      <c r="B353" s="30"/>
-      <c r="C353" s="30"/>
+      <c r="B353" s="33"/>
+      <c r="C353" s="33"/>
     </row>
     <row r="354">
-      <c r="B354" s="30"/>
-      <c r="C354" s="30"/>
+      <c r="B354" s="33"/>
+      <c r="C354" s="33"/>
     </row>
     <row r="355">
-      <c r="B355" s="30"/>
-      <c r="C355" s="30"/>
+      <c r="B355" s="33"/>
+      <c r="C355" s="33"/>
     </row>
     <row r="356">
-      <c r="B356" s="30"/>
-      <c r="C356" s="30"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="33"/>
     </row>
     <row r="357">
-      <c r="B357" s="30"/>
-      <c r="C357" s="30"/>
+      <c r="B357" s="33"/>
+      <c r="C357" s="33"/>
     </row>
     <row r="358">
-      <c r="B358" s="30"/>
-      <c r="C358" s="30"/>
+      <c r="B358" s="33"/>
+      <c r="C358" s="33"/>
     </row>
     <row r="359">
-      <c r="B359" s="30"/>
-      <c r="C359" s="30"/>
+      <c r="B359" s="33"/>
+      <c r="C359" s="33"/>
     </row>
     <row r="360">
-      <c r="B360" s="30"/>
-      <c r="C360" s="30"/>
+      <c r="B360" s="33"/>
+      <c r="C360" s="33"/>
     </row>
     <row r="361">
-      <c r="B361" s="30"/>
-      <c r="C361" s="30"/>
+      <c r="B361" s="33"/>
+      <c r="C361" s="33"/>
     </row>
     <row r="362">
-      <c r="B362" s="30"/>
-      <c r="C362" s="30"/>
+      <c r="B362" s="33"/>
+      <c r="C362" s="33"/>
     </row>
     <row r="363">
-      <c r="B363" s="30"/>
-      <c r="C363" s="30"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="33"/>
     </row>
     <row r="364">
-      <c r="B364" s="30"/>
-      <c r="C364" s="30"/>
+      <c r="B364" s="33"/>
+      <c r="C364" s="33"/>
     </row>
     <row r="365">
-      <c r="B365" s="30"/>
-      <c r="C365" s="30"/>
+      <c r="B365" s="33"/>
+      <c r="C365" s="33"/>
     </row>
     <row r="366">
-      <c r="B366" s="30"/>
-      <c r="C366" s="30"/>
+      <c r="B366" s="33"/>
+      <c r="C366" s="33"/>
     </row>
     <row r="367">
-      <c r="B367" s="30"/>
-      <c r="C367" s="30"/>
+      <c r="B367" s="33"/>
+      <c r="C367" s="33"/>
     </row>
     <row r="368">
-      <c r="B368" s="30"/>
-      <c r="C368" s="30"/>
+      <c r="B368" s="33"/>
+      <c r="C368" s="33"/>
     </row>
     <row r="369">
-      <c r="B369" s="30"/>
-      <c r="C369" s="30"/>
+      <c r="B369" s="33"/>
+      <c r="C369" s="33"/>
     </row>
     <row r="370">
-      <c r="B370" s="30"/>
-      <c r="C370" s="30"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="33"/>
     </row>
     <row r="371">
-      <c r="B371" s="30"/>
-      <c r="C371" s="30"/>
+      <c r="B371" s="33"/>
+      <c r="C371" s="33"/>
     </row>
     <row r="372">
-      <c r="B372" s="30"/>
-      <c r="C372" s="30"/>
+      <c r="B372" s="33"/>
+      <c r="C372" s="33"/>
     </row>
     <row r="373">
-      <c r="B373" s="30"/>
-      <c r="C373" s="30"/>
+      <c r="B373" s="33"/>
+      <c r="C373" s="33"/>
     </row>
     <row r="374">
-      <c r="B374" s="30"/>
-      <c r="C374" s="30"/>
+      <c r="B374" s="33"/>
+      <c r="C374" s="33"/>
     </row>
     <row r="375">
-      <c r="B375" s="30"/>
-      <c r="C375" s="30"/>
+      <c r="B375" s="33"/>
+      <c r="C375" s="33"/>
     </row>
     <row r="376">
-      <c r="B376" s="30"/>
-      <c r="C376" s="30"/>
+      <c r="B376" s="33"/>
+      <c r="C376" s="33"/>
     </row>
     <row r="377">
-      <c r="B377" s="30"/>
-      <c r="C377" s="30"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="33"/>
     </row>
     <row r="378">
-      <c r="B378" s="30"/>
-      <c r="C378" s="30"/>
+      <c r="B378" s="33"/>
+      <c r="C378" s="33"/>
     </row>
     <row r="379">
-      <c r="B379" s="30"/>
-      <c r="C379" s="30"/>
+      <c r="B379" s="33"/>
+      <c r="C379" s="33"/>
     </row>
     <row r="380">
-      <c r="B380" s="30"/>
-      <c r="C380" s="30"/>
+      <c r="B380" s="33"/>
+      <c r="C380" s="33"/>
     </row>
     <row r="381">
-      <c r="B381" s="30"/>
-      <c r="C381" s="30"/>
+      <c r="B381" s="33"/>
+      <c r="C381" s="33"/>
     </row>
     <row r="382">
-      <c r="B382" s="30"/>
-      <c r="C382" s="30"/>
+      <c r="B382" s="33"/>
+      <c r="C382" s="33"/>
     </row>
     <row r="383">
-      <c r="B383" s="30"/>
-      <c r="C383" s="30"/>
+      <c r="B383" s="33"/>
+      <c r="C383" s="33"/>
     </row>
     <row r="384">
-      <c r="B384" s="30"/>
-      <c r="C384" s="30"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="33"/>
     </row>
     <row r="385">
-      <c r="B385" s="30"/>
-      <c r="C385" s="30"/>
+      <c r="B385" s="33"/>
+      <c r="C385" s="33"/>
     </row>
     <row r="386">
-      <c r="B386" s="30"/>
-      <c r="C386" s="30"/>
+      <c r="B386" s="33"/>
+      <c r="C386" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/IdentificacionSesgo.xlsx
+++ b/data/IdentificacionSesgo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="385">
   <si>
     <r>
       <rPr>
@@ -925,34 +925,31 @@
     <t>-1,-1,-1,-1</t>
   </si>
   <si>
-    <t>2,2,1,2</t>
+    <t>Entre $4,8 billones y $6,1 billones estima Fedesarrollo el costo que hoy ha dejado para el país el paro nacional, luego de un mes de bloqueos y manifestaciones. El director del centro de análisis, Luis Fernando Mejía, dijo que “estimamos que el costo económico del paro nacional en el mes de mayo oscila entre $4,8 y $6,1 billones. Sin embargo, una prolongación de los bloqueos implicaría un costo económico superior al estimado”.</t>
+  </si>
+  <si>
+    <t>Vidrios rotos, rejas y puertas destruidas, paredes maltratadas o invadidas de mensajes, vehículos averiados o incendiados. Esas son algunas de las imágenes del vandalismo que han visto los colombianos a través de la televisión, y que ha dejado hasta ahora el paro nacional en la infraestructura de las ciudades más afectadas.</t>
+  </si>
+  <si>
+    <t>2,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>Claro está, hay que tener en cuenta que, en hechos como los ocurridos en Colombia durante el último mes, los hogares no son el objetivo de vandalismo. Sin embargo, terminan metidos en la ola, por vecindad con los puntos focales, que, en este caso, han sido las estaciones y vehículos de los sistemas de transporte; los bienes en espacio público como estatuas que hacen parte de los símbolos de algún hecho histórico en el país; los vehículos, entre otros.</t>
+  </si>
+  <si>
+    <t>1,0,0,0</t>
+  </si>
+  <si>
+    <t>El director de Fedesarrollo anunció que el pronóstico de crecimiento de la economía colombiana en 2021 sería revisado al alza a pesar de la situación de orden público que está experimentando el país. Allí precisó que “el sorprendente dato de crecimiento en el primer trimestre del año, la aceleración del proceso de vacunación en las últimas semanas y la baja base de comparación de 2020 implican que la tasa de crecimiento del PIB de 2021 sería superior al 4,8% que pronosticábamos a inicio de año”. Estas cifras de Fedesarrollo contrastas con las que señaló el Ministro de Hacienda, quien calculó las pérdidas en $10 billones.</t>
+  </si>
+  <si>
+    <t>0,0,2,0</t>
   </si>
   <si>
     <t>0,0,0,0</t>
-  </si>
-  <si>
-    <t>Entre $4,8 billones y $6,1 billones estima Fedesarrollo el costo que hoy ha dejado para el país el paro nacional, luego de un mes de bloqueos y manifestaciones. El director del centro de análisis, Luis Fernando Mejía, dijo que “estimamos que el costo económico del paro nacional en el mes de mayo oscila entre $4,8 y $6,1 billones. Sin embargo, una prolongación de los bloqueos implicaría un costo económico superior al estimado”.</t>
-  </si>
-  <si>
-    <t>Vidrios rotos, rejas y puertas destruidas, paredes maltratadas o invadidas de mensajes, vehículos averiados o incendiados. Esas son algunas de las imágenes del vandalismo que han visto los colombianos a través de la televisión, y que ha dejado hasta ahora el paro nacional en la infraestructura de las ciudades más afectadas.</t>
-  </si>
-  <si>
-    <t>2,1,1,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>Claro está, hay que tener en cuenta que, en hechos como los ocurridos en Colombia durante el último mes, los hogares no son el objetivo de vandalismo. Sin embargo, terminan metidos en la ola, por vecindad con los puntos focales, que, en este caso, han sido las estaciones y vehículos de los sistemas de transporte; los bienes en espacio público como estatuas que hacen parte de los símbolos de algún hecho histórico en el país; los vehículos, entre otros.</t>
-  </si>
-  <si>
-    <t>1,0,0,0</t>
-  </si>
-  <si>
-    <t>El director de Fedesarrollo anunció que el pronóstico de crecimiento de la economía colombiana en 2021 sería revisado al alza a pesar de la situación de orden público que está experimentando el país. Allí precisó que “el sorprendente dato de crecimiento en el primer trimestre del año, la aceleración del proceso de vacunación en las últimas semanas y la baja base de comparación de 2020 implican que la tasa de crecimiento del PIB de 2021 sería superior al 4,8% que pronosticábamos a inicio de año”. Estas cifras de Fedesarrollo contrastas con las que señaló el Ministro de Hacienda, quien calculó las pérdidas en $10 billones.</t>
-  </si>
-  <si>
-    <t>0,0,2,0</t>
   </si>
   <si>
     <t>El vicepresidente técnico de Fasecolda indicó que “sin lugar a dudas, quienes resultaron afectados y contaban con un seguro, verán minimizado el impacto de los daños provocados por el vandalismo. Aquellos que no tenían un seguro, deberán asumir estos daños de su propio bolsillo”.</t>
@@ -1462,7 +1459,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,12 +1480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -1500,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1552,16 +1543,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1585,7 +1567,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -3211,28 +3193,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" s="18" t="s">
+      <c r="A98" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D98" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="16" t="s">
+      <c r="B99" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>225</v>
-      </c>
       <c r="C99" s="14" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>211</v>
@@ -3240,10 +3222,10 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B100" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>232</v>
@@ -3257,10 +3239,10 @@
         <v>233</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>211</v>
@@ -3268,13 +3250,13 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>211</v>
@@ -3285,10 +3267,10 @@
         <v>237</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>211</v>
@@ -3296,13 +3278,13 @@
     </row>
     <row r="104">
       <c r="A104" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>211</v>
@@ -3310,13 +3292,13 @@
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>211</v>
@@ -3324,13 +3306,13 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>211</v>
@@ -3338,13 +3320,13 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>211</v>
@@ -3355,10 +3337,10 @@
         <v>247</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>211</v>
@@ -3366,13 +3348,13 @@
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>211</v>
@@ -3383,10 +3365,10 @@
         <v>251</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>211</v>
@@ -3397,10 +3379,10 @@
         <v>252</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>211</v>
@@ -3408,13 +3390,13 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>211</v>
@@ -3425,10 +3407,10 @@
         <v>255</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>211</v>
@@ -3439,10 +3421,10 @@
         <v>256</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>211</v>
@@ -3450,13 +3432,13 @@
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>211</v>
@@ -3467,10 +3449,10 @@
         <v>260</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>211</v>
@@ -3478,41 +3460,41 @@
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="17" t="s">
         <v>263</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="13" t="s">
         <v>264</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>211</v>
@@ -3520,13 +3502,13 @@
     </row>
     <row r="120">
       <c r="A120" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>211</v>
@@ -3537,10 +3519,10 @@
         <v>267</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>211</v>
@@ -3548,13 +3530,13 @@
     </row>
     <row r="122">
       <c r="A122" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>211</v>
@@ -3565,10 +3547,10 @@
         <v>271</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>211</v>
@@ -3579,10 +3561,10 @@
         <v>272</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>211</v>
@@ -3593,10 +3575,10 @@
         <v>273</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>211</v>
@@ -3607,10 +3589,10 @@
         <v>274</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>211</v>
@@ -3621,10 +3603,10 @@
         <v>275</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>211</v>
@@ -3635,10 +3617,10 @@
         <v>276</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>211</v>
@@ -3649,10 +3631,10 @@
         <v>277</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>211</v>
@@ -3666,7 +3648,7 @@
         <v>84</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>211</v>
@@ -3674,13 +3656,13 @@
     </row>
     <row r="131">
       <c r="A131" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>211</v>
@@ -3691,10 +3673,10 @@
         <v>281</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>211</v>
@@ -3705,10 +3687,10 @@
         <v>282</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>211</v>
@@ -3716,13 +3698,13 @@
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>211</v>
@@ -3733,10 +3715,10 @@
         <v>285</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>211</v>
@@ -3744,13 +3726,13 @@
     </row>
     <row r="136">
       <c r="A136" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>211</v>
@@ -3761,10 +3743,10 @@
         <v>288</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>211</v>
@@ -3772,13 +3754,13 @@
     </row>
     <row r="138">
       <c r="A138" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>211</v>
@@ -3788,11 +3770,11 @@
       <c r="A139" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>226</v>
+      <c r="B139" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>211</v>
@@ -3802,36 +3784,36 @@
       <c r="A140" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B140" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D140" s="15" t="s">
+      <c r="B140" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="19" t="s">
         <v>293</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="20" t="s">
         <v>294</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>123</v>
@@ -3841,39 +3823,39 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="19" t="s">
         <v>295</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="22" t="s">
+      <c r="A144" s="21" t="s">
         <v>296</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="24" t="s">
+      <c r="A145" s="21" t="s">
         <v>297</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>123</v>
@@ -3883,42 +3865,42 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="21" t="s">
         <v>298</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="24" t="s">
+      <c r="A147" s="22" t="s">
         <v>299</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="11" t="s">
         <v>300</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>164</v>
@@ -3926,13 +3908,13 @@
     </row>
     <row r="149">
       <c r="A149" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>164</v>
@@ -3946,35 +3928,35 @@
         <v>136</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="23" t="s">
         <v>304</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="26" t="s">
-        <v>305</v>
+      <c r="A152" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>164</v>
@@ -3982,10 +3964,10 @@
     </row>
     <row r="153">
       <c r="A153" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>123</v>
@@ -4009,11 +3991,11 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="22" t="s">
         <v>310</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>123</v>
@@ -4023,67 +4005,67 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="25" t="s">
-        <v>311</v>
+      <c r="A156" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="25" t="s">
-        <v>313</v>
+      <c r="A157" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="21" t="s">
         <v>316</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="21" t="s">
         <v>317</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="24" t="s">
+      <c r="A160" s="21" t="s">
         <v>318</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>126</v>
@@ -4097,24 +4079,24 @@
         <v>319</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="27" t="s">
+      <c r="A162" s="11" t="s">
         <v>320</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>164</v>
@@ -4125,65 +4107,65 @@
         <v>321</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="11" t="s">
-        <v>322</v>
+      <c r="A164" s="25" t="s">
+        <v>324</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="28" t="s">
+      <c r="A165" s="25" t="s">
         <v>325</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="21" t="s">
         <v>326</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="21" t="s">
         <v>327</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C167" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D167" s="9" t="s">
@@ -4191,31 +4173,31 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>123</v>
+        <v>329</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>164</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="C169" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="D169" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="170">
@@ -4223,27 +4205,27 @@
         <v>333</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C170" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D170" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="C171" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172">
@@ -4251,13 +4233,13 @@
         <v>337</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C172" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D172" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="173">
@@ -4265,13 +4247,13 @@
         <v>338</v>
       </c>
       <c r="B173" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D173" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="174">
@@ -4279,13 +4261,13 @@
         <v>339</v>
       </c>
       <c r="B174" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D174" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D174" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="175">
@@ -4296,10 +4278,10 @@
         <v>330</v>
       </c>
       <c r="C175" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D175" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D175" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="176">
@@ -4307,27 +4289,27 @@
         <v>341</v>
       </c>
       <c r="B176" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D176" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D177" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D177" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="178">
@@ -4335,13 +4317,13 @@
         <v>344</v>
       </c>
       <c r="B178" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C178" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="D178" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D178" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="179">
@@ -4349,13 +4331,13 @@
         <v>345</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C179" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D179" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D179" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="180">
@@ -4363,13 +4345,13 @@
         <v>346</v>
       </c>
       <c r="B180" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D180" s="30" t="s">
-        <v>332</v>
+      <c r="D180" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="181">
@@ -4377,13 +4359,13 @@
         <v>347</v>
       </c>
       <c r="B181" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C181" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D181" s="30" t="s">
-        <v>332</v>
+      <c r="D181" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="182">
@@ -4391,13 +4373,13 @@
         <v>348</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D182" s="30" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="183">
@@ -4405,13 +4387,13 @@
         <v>349</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D183" s="30" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="184">
@@ -4419,13 +4401,13 @@
         <v>350</v>
       </c>
       <c r="B184" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D184" s="30" t="s">
-        <v>332</v>
+      <c r="D184" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="185">
@@ -4433,13 +4415,13 @@
         <v>351</v>
       </c>
       <c r="B185" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D185" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D185" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="186">
@@ -4447,13 +4429,13 @@
         <v>352</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D186" s="30" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="187">
@@ -4461,13 +4443,13 @@
         <v>353</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D187" s="30" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="188">
@@ -4478,10 +4460,10 @@
         <v>330</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D188" s="30" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="189">
@@ -4489,13 +4471,13 @@
         <v>355</v>
       </c>
       <c r="B189" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D189" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D189" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="190">
@@ -4503,13 +4485,13 @@
         <v>356</v>
       </c>
       <c r="B190" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C190" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="D190" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="191">
@@ -4517,13 +4499,13 @@
         <v>357</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C191" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D191" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D191" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="192">
@@ -4531,13 +4513,13 @@
         <v>358</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C192" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D192" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D192" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="193">
@@ -4545,13 +4527,13 @@
         <v>359</v>
       </c>
       <c r="B193" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D193" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D193" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="194">
@@ -4559,13 +4541,13 @@
         <v>360</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C194" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D194" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D194" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="195">
@@ -4573,13 +4555,13 @@
         <v>361</v>
       </c>
       <c r="B195" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C195" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="D195" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D195" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="196">
@@ -4587,13 +4569,13 @@
         <v>362</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C196" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D196" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D196" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="197">
@@ -4601,13 +4583,13 @@
         <v>363</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C197" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D197" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D197" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="198">
@@ -4615,976 +4597,962 @@
         <v>364</v>
       </c>
       <c r="B198" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C198" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="D198" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D198" s="30" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="199">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C201" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="D201" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D199" s="30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="B200" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C200" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="B201" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C201" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="202">
-      <c r="A202" s="31" t="s">
+      <c r="A202" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="B202" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C202" s="29" t="s">
+      <c r="B202" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D202" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D202" s="9" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="203">
-      <c r="A203" s="31" t="s">
+      <c r="A203" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="B203" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C203" s="29" t="s">
-        <v>343</v>
+      <c r="B203" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="31" t="s">
+      <c r="A204" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="B204" s="29" t="s">
+      <c r="B204" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C204" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="205">
-      <c r="A205" s="31" t="s">
+      <c r="A205" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="B205" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C205" s="29" t="s">
-        <v>343</v>
+      <c r="B205" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="31" t="s">
+      <c r="A206" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="B206" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C206" s="29" t="s">
-        <v>343</v>
+      <c r="B206" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="B207" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C207" s="29" t="s">
-        <v>343</v>
+      <c r="B207" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="31" t="s">
+      <c r="A208" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="B208" s="29" t="s">
+      <c r="B208" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C208" s="29" t="s">
+      <c r="C208" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="209">
-      <c r="A209" s="31" t="s">
+      <c r="A209" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="B209" s="29" t="s">
+      <c r="B209" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C209" s="29" t="s">
+    </row>
+    <row r="210">
+      <c r="A210" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D209" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B210" s="29" t="s">
+    </row>
+    <row r="211">
+      <c r="A211" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B211" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C210" s="29" t="s">
+      <c r="C211" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D211" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D210" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="B211" s="29" t="s">
+    </row>
+    <row r="212">
+      <c r="A212" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C212" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C211" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="B212" s="29" t="s">
+      <c r="D212" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C212" s="29" t="s">
+    </row>
+    <row r="213">
+      <c r="A213" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D213" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D212" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="B213" s="29" t="s">
+    </row>
+    <row r="214">
+      <c r="A214" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C214" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C213" s="29" t="s">
+      <c r="D214" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D213" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="B214" s="29" t="s">
+    </row>
+    <row r="215">
+      <c r="A215" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B215" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C215" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C214" s="29" t="s">
+      <c r="D215" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D214" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B215" s="29" t="s">
+    </row>
+    <row r="216">
+      <c r="A216" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C216" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C215" s="29" t="s">
+      <c r="D216" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D215" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="B216" s="29" t="s">
+    </row>
+    <row r="217">
+      <c r="A217" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C217" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C216" s="29" t="s">
+      <c r="D217" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B217" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C217" s="29" t="s">
+    </row>
+    <row r="218">
+      <c r="A218" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D218" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B218" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C218" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="219">
-      <c r="A219" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B219" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C219" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>332</v>
-      </c>
+      <c r="B219" s="30"/>
+      <c r="C219" s="30"/>
     </row>
     <row r="220">
-      <c r="B220" s="33"/>
-      <c r="C220" s="33"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
     </row>
     <row r="221">
-      <c r="B221" s="33"/>
-      <c r="C221" s="33"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
     </row>
     <row r="222">
-      <c r="B222" s="33"/>
-      <c r="C222" s="33"/>
+      <c r="B222" s="30"/>
+      <c r="C222" s="30"/>
     </row>
     <row r="223">
-      <c r="B223" s="33"/>
-      <c r="C223" s="33"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="30"/>
     </row>
     <row r="224">
-      <c r="B224" s="33"/>
-      <c r="C224" s="33"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="30"/>
     </row>
     <row r="225">
-      <c r="B225" s="33"/>
-      <c r="C225" s="33"/>
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
     </row>
     <row r="226">
-      <c r="B226" s="33"/>
-      <c r="C226" s="33"/>
+      <c r="B226" s="30"/>
+      <c r="C226" s="30"/>
     </row>
     <row r="227">
-      <c r="B227" s="33"/>
-      <c r="C227" s="33"/>
+      <c r="B227" s="30"/>
+      <c r="C227" s="30"/>
     </row>
     <row r="228">
-      <c r="B228" s="33"/>
-      <c r="C228" s="33"/>
+      <c r="B228" s="30"/>
+      <c r="C228" s="30"/>
     </row>
     <row r="229">
-      <c r="B229" s="33"/>
-      <c r="C229" s="33"/>
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
     </row>
     <row r="230">
-      <c r="B230" s="33"/>
-      <c r="C230" s="33"/>
+      <c r="B230" s="30"/>
+      <c r="C230" s="30"/>
     </row>
     <row r="231">
-      <c r="B231" s="33"/>
-      <c r="C231" s="33"/>
+      <c r="B231" s="30"/>
+      <c r="C231" s="30"/>
     </row>
     <row r="232">
-      <c r="B232" s="33"/>
-      <c r="C232" s="33"/>
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
     </row>
     <row r="233">
-      <c r="B233" s="33"/>
-      <c r="C233" s="33"/>
+      <c r="B233" s="30"/>
+      <c r="C233" s="30"/>
     </row>
     <row r="234">
-      <c r="B234" s="33"/>
-      <c r="C234" s="33"/>
+      <c r="B234" s="30"/>
+      <c r="C234" s="30"/>
     </row>
     <row r="235">
-      <c r="B235" s="33"/>
-      <c r="C235" s="33"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="30"/>
     </row>
     <row r="236">
-      <c r="B236" s="33"/>
-      <c r="C236" s="33"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
     </row>
     <row r="237">
-      <c r="B237" s="33"/>
-      <c r="C237" s="33"/>
+      <c r="B237" s="30"/>
+      <c r="C237" s="30"/>
     </row>
     <row r="238">
-      <c r="B238" s="33"/>
-      <c r="C238" s="33"/>
+      <c r="B238" s="30"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239">
-      <c r="B239" s="33"/>
-      <c r="C239" s="33"/>
+      <c r="B239" s="30"/>
+      <c r="C239" s="30"/>
     </row>
     <row r="240">
-      <c r="B240" s="33"/>
-      <c r="C240" s="33"/>
+      <c r="B240" s="30"/>
+      <c r="C240" s="30"/>
     </row>
     <row r="241">
-      <c r="B241" s="33"/>
-      <c r="C241" s="33"/>
+      <c r="B241" s="30"/>
+      <c r="C241" s="30"/>
     </row>
     <row r="242">
-      <c r="B242" s="33"/>
-      <c r="C242" s="33"/>
+      <c r="B242" s="30"/>
+      <c r="C242" s="30"/>
     </row>
     <row r="243">
-      <c r="B243" s="33"/>
-      <c r="C243" s="33"/>
+      <c r="B243" s="30"/>
+      <c r="C243" s="30"/>
     </row>
     <row r="244">
-      <c r="B244" s="33"/>
-      <c r="C244" s="33"/>
+      <c r="B244" s="30"/>
+      <c r="C244" s="30"/>
     </row>
     <row r="245">
-      <c r="B245" s="33"/>
-      <c r="C245" s="33"/>
+      <c r="B245" s="30"/>
+      <c r="C245" s="30"/>
     </row>
     <row r="246">
-      <c r="B246" s="33"/>
-      <c r="C246" s="33"/>
+      <c r="B246" s="30"/>
+      <c r="C246" s="30"/>
     </row>
     <row r="247">
-      <c r="B247" s="33"/>
-      <c r="C247" s="33"/>
+      <c r="B247" s="30"/>
+      <c r="C247" s="30"/>
     </row>
     <row r="248">
-      <c r="B248" s="33"/>
-      <c r="C248" s="33"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="30"/>
     </row>
     <row r="249">
-      <c r="B249" s="33"/>
-      <c r="C249" s="33"/>
+      <c r="B249" s="30"/>
+      <c r="C249" s="30"/>
     </row>
     <row r="250">
-      <c r="B250" s="33"/>
-      <c r="C250" s="33"/>
+      <c r="B250" s="30"/>
+      <c r="C250" s="30"/>
     </row>
     <row r="251">
-      <c r="B251" s="33"/>
-      <c r="C251" s="33"/>
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
     </row>
     <row r="252">
-      <c r="B252" s="33"/>
-      <c r="C252" s="33"/>
+      <c r="B252" s="30"/>
+      <c r="C252" s="30"/>
     </row>
     <row r="253">
-      <c r="B253" s="33"/>
-      <c r="C253" s="33"/>
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
     </row>
     <row r="254">
-      <c r="B254" s="33"/>
-      <c r="C254" s="33"/>
+      <c r="B254" s="30"/>
+      <c r="C254" s="30"/>
     </row>
     <row r="255">
-      <c r="B255" s="33"/>
-      <c r="C255" s="33"/>
+      <c r="B255" s="30"/>
+      <c r="C255" s="30"/>
     </row>
     <row r="256">
-      <c r="B256" s="33"/>
-      <c r="C256" s="33"/>
+      <c r="B256" s="30"/>
+      <c r="C256" s="30"/>
     </row>
     <row r="257">
-      <c r="B257" s="33"/>
-      <c r="C257" s="33"/>
+      <c r="B257" s="30"/>
+      <c r="C257" s="30"/>
     </row>
     <row r="258">
-      <c r="B258" s="33"/>
-      <c r="C258" s="33"/>
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
     </row>
     <row r="259">
-      <c r="B259" s="33"/>
-      <c r="C259" s="33"/>
+      <c r="B259" s="30"/>
+      <c r="C259" s="30"/>
     </row>
     <row r="260">
-      <c r="B260" s="33"/>
-      <c r="C260" s="33"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
     </row>
     <row r="261">
-      <c r="B261" s="33"/>
-      <c r="C261" s="33"/>
+      <c r="B261" s="30"/>
+      <c r="C261" s="30"/>
     </row>
     <row r="262">
-      <c r="B262" s="33"/>
-      <c r="C262" s="33"/>
+      <c r="B262" s="30"/>
+      <c r="C262" s="30"/>
     </row>
     <row r="263">
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
+      <c r="B263" s="30"/>
+      <c r="C263" s="30"/>
     </row>
     <row r="264">
-      <c r="B264" s="33"/>
-      <c r="C264" s="33"/>
+      <c r="B264" s="30"/>
+      <c r="C264" s="30"/>
     </row>
     <row r="265">
-      <c r="B265" s="33"/>
-      <c r="C265" s="33"/>
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
     </row>
     <row r="266">
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
     </row>
     <row r="267">
-      <c r="B267" s="33"/>
-      <c r="C267" s="33"/>
+      <c r="B267" s="30"/>
+      <c r="C267" s="30"/>
     </row>
     <row r="268">
-      <c r="B268" s="33"/>
-      <c r="C268" s="33"/>
+      <c r="B268" s="30"/>
+      <c r="C268" s="30"/>
     </row>
     <row r="269">
-      <c r="B269" s="33"/>
-      <c r="C269" s="33"/>
+      <c r="B269" s="30"/>
+      <c r="C269" s="30"/>
     </row>
     <row r="270">
-      <c r="B270" s="33"/>
-      <c r="C270" s="33"/>
+      <c r="B270" s="30"/>
+      <c r="C270" s="30"/>
     </row>
     <row r="271">
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
+      <c r="B271" s="30"/>
+      <c r="C271" s="30"/>
     </row>
     <row r="272">
-      <c r="B272" s="33"/>
-      <c r="C272" s="33"/>
+      <c r="B272" s="30"/>
+      <c r="C272" s="30"/>
     </row>
     <row r="273">
-      <c r="B273" s="33"/>
-      <c r="C273" s="33"/>
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
     </row>
     <row r="274">
-      <c r="B274" s="33"/>
-      <c r="C274" s="33"/>
+      <c r="B274" s="30"/>
+      <c r="C274" s="30"/>
     </row>
     <row r="275">
-      <c r="B275" s="33"/>
-      <c r="C275" s="33"/>
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
     </row>
     <row r="276">
-      <c r="B276" s="33"/>
-      <c r="C276" s="33"/>
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
     </row>
     <row r="277">
-      <c r="B277" s="33"/>
-      <c r="C277" s="33"/>
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
     </row>
     <row r="278">
-      <c r="B278" s="33"/>
-      <c r="C278" s="33"/>
+      <c r="B278" s="30"/>
+      <c r="C278" s="30"/>
     </row>
     <row r="279">
-      <c r="B279" s="33"/>
-      <c r="C279" s="33"/>
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
     </row>
     <row r="280">
-      <c r="B280" s="33"/>
-      <c r="C280" s="33"/>
+      <c r="B280" s="30"/>
+      <c r="C280" s="30"/>
     </row>
     <row r="281">
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
+      <c r="B281" s="30"/>
+      <c r="C281" s="30"/>
     </row>
     <row r="282">
-      <c r="B282" s="33"/>
-      <c r="C282" s="33"/>
+      <c r="B282" s="30"/>
+      <c r="C282" s="30"/>
     </row>
     <row r="283">
-      <c r="B283" s="33"/>
-      <c r="C283" s="33"/>
+      <c r="B283" s="30"/>
+      <c r="C283" s="30"/>
     </row>
     <row r="284">
-      <c r="B284" s="33"/>
-      <c r="C284" s="33"/>
+      <c r="B284" s="30"/>
+      <c r="C284" s="30"/>
     </row>
     <row r="285">
-      <c r="B285" s="33"/>
-      <c r="C285" s="33"/>
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
     </row>
     <row r="286">
-      <c r="B286" s="33"/>
-      <c r="C286" s="33"/>
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
     </row>
     <row r="287">
-      <c r="B287" s="33"/>
-      <c r="C287" s="33"/>
+      <c r="B287" s="30"/>
+      <c r="C287" s="30"/>
     </row>
     <row r="288">
-      <c r="B288" s="33"/>
-      <c r="C288" s="33"/>
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
     </row>
     <row r="289">
-      <c r="B289" s="33"/>
-      <c r="C289" s="33"/>
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
     </row>
     <row r="290">
-      <c r="B290" s="33"/>
-      <c r="C290" s="33"/>
+      <c r="B290" s="30"/>
+      <c r="C290" s="30"/>
     </row>
     <row r="291">
-      <c r="B291" s="33"/>
-      <c r="C291" s="33"/>
+      <c r="B291" s="30"/>
+      <c r="C291" s="30"/>
     </row>
     <row r="292">
-      <c r="B292" s="33"/>
-      <c r="C292" s="33"/>
+      <c r="B292" s="30"/>
+      <c r="C292" s="30"/>
     </row>
     <row r="293">
-      <c r="B293" s="33"/>
-      <c r="C293" s="33"/>
+      <c r="B293" s="30"/>
+      <c r="C293" s="30"/>
     </row>
     <row r="294">
-      <c r="B294" s="33"/>
-      <c r="C294" s="33"/>
+      <c r="B294" s="30"/>
+      <c r="C294" s="30"/>
     </row>
     <row r="295">
-      <c r="B295" s="33"/>
-      <c r="C295" s="33"/>
+      <c r="B295" s="30"/>
+      <c r="C295" s="30"/>
     </row>
     <row r="296">
-      <c r="B296" s="33"/>
-      <c r="C296" s="33"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="30"/>
     </row>
     <row r="297">
-      <c r="B297" s="33"/>
-      <c r="C297" s="33"/>
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
     </row>
     <row r="298">
-      <c r="B298" s="33"/>
-      <c r="C298" s="33"/>
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
     </row>
     <row r="299">
-      <c r="B299" s="33"/>
-      <c r="C299" s="33"/>
+      <c r="B299" s="30"/>
+      <c r="C299" s="30"/>
     </row>
     <row r="300">
-      <c r="B300" s="33"/>
-      <c r="C300" s="33"/>
+      <c r="B300" s="30"/>
+      <c r="C300" s="30"/>
     </row>
     <row r="301">
-      <c r="B301" s="33"/>
-      <c r="C301" s="33"/>
+      <c r="B301" s="30"/>
+      <c r="C301" s="30"/>
     </row>
     <row r="302">
-      <c r="B302" s="33"/>
-      <c r="C302" s="33"/>
+      <c r="B302" s="30"/>
+      <c r="C302" s="30"/>
     </row>
     <row r="303">
-      <c r="B303" s="33"/>
-      <c r="C303" s="33"/>
+      <c r="B303" s="30"/>
+      <c r="C303" s="30"/>
     </row>
     <row r="304">
-      <c r="B304" s="33"/>
-      <c r="C304" s="33"/>
+      <c r="B304" s="30"/>
+      <c r="C304" s="30"/>
     </row>
     <row r="305">
-      <c r="B305" s="33"/>
-      <c r="C305" s="33"/>
+      <c r="B305" s="30"/>
+      <c r="C305" s="30"/>
     </row>
     <row r="306">
-      <c r="B306" s="33"/>
-      <c r="C306" s="33"/>
+      <c r="B306" s="30"/>
+      <c r="C306" s="30"/>
     </row>
     <row r="307">
-      <c r="B307" s="33"/>
-      <c r="C307" s="33"/>
+      <c r="B307" s="30"/>
+      <c r="C307" s="30"/>
     </row>
     <row r="308">
-      <c r="B308" s="33"/>
-      <c r="C308" s="33"/>
+      <c r="B308" s="30"/>
+      <c r="C308" s="30"/>
     </row>
     <row r="309">
-      <c r="B309" s="33"/>
-      <c r="C309" s="33"/>
+      <c r="B309" s="30"/>
+      <c r="C309" s="30"/>
     </row>
     <row r="310">
-      <c r="B310" s="33"/>
-      <c r="C310" s="33"/>
+      <c r="B310" s="30"/>
+      <c r="C310" s="30"/>
     </row>
     <row r="311">
-      <c r="B311" s="33"/>
-      <c r="C311" s="33"/>
+      <c r="B311" s="30"/>
+      <c r="C311" s="30"/>
     </row>
     <row r="312">
-      <c r="B312" s="33"/>
-      <c r="C312" s="33"/>
+      <c r="B312" s="30"/>
+      <c r="C312" s="30"/>
     </row>
     <row r="313">
-      <c r="B313" s="33"/>
-      <c r="C313" s="33"/>
+      <c r="B313" s="30"/>
+      <c r="C313" s="30"/>
     </row>
     <row r="314">
-      <c r="B314" s="33"/>
-      <c r="C314" s="33"/>
+      <c r="B314" s="30"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="315">
-      <c r="B315" s="33"/>
-      <c r="C315" s="33"/>
+      <c r="B315" s="30"/>
+      <c r="C315" s="30"/>
     </row>
     <row r="316">
-      <c r="B316" s="33"/>
-      <c r="C316" s="33"/>
+      <c r="B316" s="30"/>
+      <c r="C316" s="30"/>
     </row>
     <row r="317">
-      <c r="B317" s="33"/>
-      <c r="C317" s="33"/>
+      <c r="B317" s="30"/>
+      <c r="C317" s="30"/>
     </row>
     <row r="318">
-      <c r="B318" s="33"/>
-      <c r="C318" s="33"/>
+      <c r="B318" s="30"/>
+      <c r="C318" s="30"/>
     </row>
     <row r="319">
-      <c r="B319" s="33"/>
-      <c r="C319" s="33"/>
+      <c r="B319" s="30"/>
+      <c r="C319" s="30"/>
     </row>
     <row r="320">
-      <c r="B320" s="33"/>
-      <c r="C320" s="33"/>
+      <c r="B320" s="30"/>
+      <c r="C320" s="30"/>
     </row>
     <row r="321">
-      <c r="B321" s="33"/>
-      <c r="C321" s="33"/>
+      <c r="B321" s="30"/>
+      <c r="C321" s="30"/>
     </row>
     <row r="322">
-      <c r="B322" s="33"/>
-      <c r="C322" s="33"/>
+      <c r="B322" s="30"/>
+      <c r="C322" s="30"/>
     </row>
     <row r="323">
-      <c r="B323" s="33"/>
-      <c r="C323" s="33"/>
+      <c r="B323" s="30"/>
+      <c r="C323" s="30"/>
     </row>
     <row r="324">
-      <c r="B324" s="33"/>
-      <c r="C324" s="33"/>
+      <c r="B324" s="30"/>
+      <c r="C324" s="30"/>
     </row>
     <row r="325">
-      <c r="B325" s="33"/>
-      <c r="C325" s="33"/>
+      <c r="B325" s="30"/>
+      <c r="C325" s="30"/>
     </row>
     <row r="326">
-      <c r="B326" s="33"/>
-      <c r="C326" s="33"/>
+      <c r="B326" s="30"/>
+      <c r="C326" s="30"/>
     </row>
     <row r="327">
-      <c r="B327" s="33"/>
-      <c r="C327" s="33"/>
+      <c r="B327" s="30"/>
+      <c r="C327" s="30"/>
     </row>
     <row r="328">
-      <c r="B328" s="33"/>
-      <c r="C328" s="33"/>
+      <c r="B328" s="30"/>
+      <c r="C328" s="30"/>
     </row>
     <row r="329">
-      <c r="B329" s="33"/>
-      <c r="C329" s="33"/>
+      <c r="B329" s="30"/>
+      <c r="C329" s="30"/>
     </row>
     <row r="330">
-      <c r="B330" s="33"/>
-      <c r="C330" s="33"/>
+      <c r="B330" s="30"/>
+      <c r="C330" s="30"/>
     </row>
     <row r="331">
-      <c r="B331" s="33"/>
-      <c r="C331" s="33"/>
+      <c r="B331" s="30"/>
+      <c r="C331" s="30"/>
     </row>
     <row r="332">
-      <c r="B332" s="33"/>
-      <c r="C332" s="33"/>
+      <c r="B332" s="30"/>
+      <c r="C332" s="30"/>
     </row>
     <row r="333">
-      <c r="B333" s="33"/>
-      <c r="C333" s="33"/>
+      <c r="B333" s="30"/>
+      <c r="C333" s="30"/>
     </row>
     <row r="334">
-      <c r="B334" s="33"/>
-      <c r="C334" s="33"/>
+      <c r="B334" s="30"/>
+      <c r="C334" s="30"/>
     </row>
     <row r="335">
-      <c r="B335" s="33"/>
-      <c r="C335" s="33"/>
+      <c r="B335" s="30"/>
+      <c r="C335" s="30"/>
     </row>
     <row r="336">
-      <c r="B336" s="33"/>
-      <c r="C336" s="33"/>
+      <c r="B336" s="30"/>
+      <c r="C336" s="30"/>
     </row>
     <row r="337">
-      <c r="B337" s="33"/>
-      <c r="C337" s="33"/>
+      <c r="B337" s="30"/>
+      <c r="C337" s="30"/>
     </row>
     <row r="338">
-      <c r="B338" s="33"/>
-      <c r="C338" s="33"/>
+      <c r="B338" s="30"/>
+      <c r="C338" s="30"/>
     </row>
     <row r="339">
-      <c r="B339" s="33"/>
-      <c r="C339" s="33"/>
+      <c r="B339" s="30"/>
+      <c r="C339" s="30"/>
     </row>
     <row r="340">
-      <c r="B340" s="33"/>
-      <c r="C340" s="33"/>
+      <c r="B340" s="30"/>
+      <c r="C340" s="30"/>
     </row>
     <row r="341">
-      <c r="B341" s="33"/>
-      <c r="C341" s="33"/>
+      <c r="B341" s="30"/>
+      <c r="C341" s="30"/>
     </row>
     <row r="342">
-      <c r="B342" s="33"/>
-      <c r="C342" s="33"/>
+      <c r="B342" s="30"/>
+      <c r="C342" s="30"/>
     </row>
     <row r="343">
-      <c r="B343" s="33"/>
-      <c r="C343" s="33"/>
+      <c r="B343" s="30"/>
+      <c r="C343" s="30"/>
     </row>
     <row r="344">
-      <c r="B344" s="33"/>
-      <c r="C344" s="33"/>
+      <c r="B344" s="30"/>
+      <c r="C344" s="30"/>
     </row>
     <row r="345">
-      <c r="B345" s="33"/>
-      <c r="C345" s="33"/>
+      <c r="B345" s="30"/>
+      <c r="C345" s="30"/>
     </row>
     <row r="346">
-      <c r="B346" s="33"/>
-      <c r="C346" s="33"/>
+      <c r="B346" s="30"/>
+      <c r="C346" s="30"/>
     </row>
     <row r="347">
-      <c r="B347" s="33"/>
-      <c r="C347" s="33"/>
+      <c r="B347" s="30"/>
+      <c r="C347" s="30"/>
     </row>
     <row r="348">
-      <c r="B348" s="33"/>
-      <c r="C348" s="33"/>
+      <c r="B348" s="30"/>
+      <c r="C348" s="30"/>
     </row>
     <row r="349">
-      <c r="B349" s="33"/>
-      <c r="C349" s="33"/>
+      <c r="B349" s="30"/>
+      <c r="C349" s="30"/>
     </row>
     <row r="350">
-      <c r="B350" s="33"/>
-      <c r="C350" s="33"/>
+      <c r="B350" s="30"/>
+      <c r="C350" s="30"/>
     </row>
     <row r="351">
-      <c r="B351" s="33"/>
-      <c r="C351" s="33"/>
+      <c r="B351" s="30"/>
+      <c r="C351" s="30"/>
     </row>
     <row r="352">
-      <c r="B352" s="33"/>
-      <c r="C352" s="33"/>
+      <c r="B352" s="30"/>
+      <c r="C352" s="30"/>
     </row>
     <row r="353">
-      <c r="B353" s="33"/>
-      <c r="C353" s="33"/>
+      <c r="B353" s="30"/>
+      <c r="C353" s="30"/>
     </row>
     <row r="354">
-      <c r="B354" s="33"/>
-      <c r="C354" s="33"/>
+      <c r="B354" s="30"/>
+      <c r="C354" s="30"/>
     </row>
     <row r="355">
-      <c r="B355" s="33"/>
-      <c r="C355" s="33"/>
+      <c r="B355" s="30"/>
+      <c r="C355" s="30"/>
     </row>
     <row r="356">
-      <c r="B356" s="33"/>
-      <c r="C356" s="33"/>
+      <c r="B356" s="30"/>
+      <c r="C356" s="30"/>
     </row>
     <row r="357">
-      <c r="B357" s="33"/>
-      <c r="C357" s="33"/>
+      <c r="B357" s="30"/>
+      <c r="C357" s="30"/>
     </row>
     <row r="358">
-      <c r="B358" s="33"/>
-      <c r="C358" s="33"/>
+      <c r="B358" s="30"/>
+      <c r="C358" s="30"/>
     </row>
     <row r="359">
-      <c r="B359" s="33"/>
-      <c r="C359" s="33"/>
+      <c r="B359" s="30"/>
+      <c r="C359" s="30"/>
     </row>
     <row r="360">
-      <c r="B360" s="33"/>
-      <c r="C360" s="33"/>
+      <c r="B360" s="30"/>
+      <c r="C360" s="30"/>
     </row>
     <row r="361">
-      <c r="B361" s="33"/>
-      <c r="C361" s="33"/>
+      <c r="B361" s="30"/>
+      <c r="C361" s="30"/>
     </row>
     <row r="362">
-      <c r="B362" s="33"/>
-      <c r="C362" s="33"/>
+      <c r="B362" s="30"/>
+      <c r="C362" s="30"/>
     </row>
     <row r="363">
-      <c r="B363" s="33"/>
-      <c r="C363" s="33"/>
+      <c r="B363" s="30"/>
+      <c r="C363" s="30"/>
     </row>
     <row r="364">
-      <c r="B364" s="33"/>
-      <c r="C364" s="33"/>
+      <c r="B364" s="30"/>
+      <c r="C364" s="30"/>
     </row>
     <row r="365">
-      <c r="B365" s="33"/>
-      <c r="C365" s="33"/>
+      <c r="B365" s="30"/>
+      <c r="C365" s="30"/>
     </row>
     <row r="366">
-      <c r="B366" s="33"/>
-      <c r="C366" s="33"/>
+      <c r="B366" s="30"/>
+      <c r="C366" s="30"/>
     </row>
     <row r="367">
-      <c r="B367" s="33"/>
-      <c r="C367" s="33"/>
+      <c r="B367" s="30"/>
+      <c r="C367" s="30"/>
     </row>
     <row r="368">
-      <c r="B368" s="33"/>
-      <c r="C368" s="33"/>
+      <c r="B368" s="30"/>
+      <c r="C368" s="30"/>
     </row>
     <row r="369">
-      <c r="B369" s="33"/>
-      <c r="C369" s="33"/>
+      <c r="B369" s="30"/>
+      <c r="C369" s="30"/>
     </row>
     <row r="370">
-      <c r="B370" s="33"/>
-      <c r="C370" s="33"/>
+      <c r="B370" s="30"/>
+      <c r="C370" s="30"/>
     </row>
     <row r="371">
-      <c r="B371" s="33"/>
-      <c r="C371" s="33"/>
+      <c r="B371" s="30"/>
+      <c r="C371" s="30"/>
     </row>
     <row r="372">
-      <c r="B372" s="33"/>
-      <c r="C372" s="33"/>
+      <c r="B372" s="30"/>
+      <c r="C372" s="30"/>
     </row>
     <row r="373">
-      <c r="B373" s="33"/>
-      <c r="C373" s="33"/>
+      <c r="B373" s="30"/>
+      <c r="C373" s="30"/>
     </row>
     <row r="374">
-      <c r="B374" s="33"/>
-      <c r="C374" s="33"/>
+      <c r="B374" s="30"/>
+      <c r="C374" s="30"/>
     </row>
     <row r="375">
-      <c r="B375" s="33"/>
-      <c r="C375" s="33"/>
+      <c r="B375" s="30"/>
+      <c r="C375" s="30"/>
     </row>
     <row r="376">
-      <c r="B376" s="33"/>
-      <c r="C376" s="33"/>
+      <c r="B376" s="30"/>
+      <c r="C376" s="30"/>
     </row>
     <row r="377">
-      <c r="B377" s="33"/>
-      <c r="C377" s="33"/>
+      <c r="B377" s="30"/>
+      <c r="C377" s="30"/>
     </row>
     <row r="378">
-      <c r="B378" s="33"/>
-      <c r="C378" s="33"/>
+      <c r="B378" s="30"/>
+      <c r="C378" s="30"/>
     </row>
     <row r="379">
-      <c r="B379" s="33"/>
-      <c r="C379" s="33"/>
+      <c r="B379" s="30"/>
+      <c r="C379" s="30"/>
     </row>
     <row r="380">
-      <c r="B380" s="33"/>
-      <c r="C380" s="33"/>
+      <c r="B380" s="30"/>
+      <c r="C380" s="30"/>
     </row>
     <row r="381">
-      <c r="B381" s="33"/>
-      <c r="C381" s="33"/>
+      <c r="B381" s="30"/>
+      <c r="C381" s="30"/>
     </row>
     <row r="382">
-      <c r="B382" s="33"/>
-      <c r="C382" s="33"/>
+      <c r="B382" s="30"/>
+      <c r="C382" s="30"/>
     </row>
     <row r="383">
-      <c r="B383" s="33"/>
-      <c r="C383" s="33"/>
+      <c r="B383" s="30"/>
+      <c r="C383" s="30"/>
     </row>
     <row r="384">
-      <c r="B384" s="33"/>
-      <c r="C384" s="33"/>
+      <c r="B384" s="30"/>
+      <c r="C384" s="30"/>
     </row>
     <row r="385">
-      <c r="B385" s="33"/>
-      <c r="C385" s="33"/>
-    </row>
-    <row r="386">
-      <c r="B386" s="33"/>
-      <c r="C386" s="33"/>
+      <c r="B385" s="30"/>
+      <c r="C385" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/IdentificacionSesgo.xlsx
+++ b/data/IdentificacionSesgo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="393">
   <si>
     <r>
       <rPr>
@@ -1235,12 +1235,6 @@
     <t>¿Cómo podría entenderse que los jóvenes sin oportunidades de estudio pudieran salir a oponerse a una reforma tributaria, cuando la misma incluía matrícula cero en las instituciones de educación superior públicas para los estudiantes de los estratos 1, 2 y 3? ¿Qué motivó a los menores de 28 años que buscan su primer trabajo, a salir a gritar a las calles, desconociendo la validez de la institucionalidad y del Estado, cuando lo que se pretendía era que todos los que pagamos impuestos, subsidiáramos sus prestaciones sociales para que fuera más económico contratarlos y así disminuir su desempleo? La respuesta es una sola, sólo se le ocurre a quienes nada de lo que está pasando con esta pandemia les afecta en sus condiciones de vida, a quienes tienen garantizado su trabajo y a quienes no les importa la sostenibilidad de sus empresas. Sí, son esos populistas quienes dicen defender y representar los intereses de los más necesitados, pero a quienes el Estado, el Gobierno y las empresas, les garantizan seguir con su vida alejada de la realidad que hoy vive el país.</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>DT</t>
   </si>
   <si>
@@ -1250,12 +1244,6 @@
     <t xml:space="preserve">La criminalización del derecho a la protesta, que cuando la única herramienta es cortar una ruta o hacer una manifestación artística empieza la persecución a través de redes sociales, a dispararles, hacerles perder la visión, golpearlos, torturarlos, generarles miedo. No son hechos aislados porque es un política de Estado para que eso ocurra. Hay un aval. El Esmad y la Policía actúan y violan los derechos humanos sabiendo que los van aplaudir y condecorar. También el cerco mediático de los grandes medios de comunicación que victimizan al agresor. Hacen quedar como que los manifestantes son unos vándalos y los que disparan son los buenos y la “gente de bien”. Para los medios, los violentos son los que se están defendiendo con un escudo de chapa, y los buenos son los que están disparando con gases vencidos, a los ojos, los que detienen arbitrariamente y torturan. </t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>La familia de Santiago Ochoa ya reconoció los restos, pero se necesita la confirmación de Medicina Legal para el proceso judicial por desaparición que debe adelantar la Fiscalía. “En el caso de que mi sobrino pertenecía a la primera línea o que tuviera que ver sobre el paro o que el Esmad lo secuestró es totalmente falso. De ninguna información hemos dado autorización o permiso para que suban dicha información falsa”, aseguró la familiar de Santiago Ochoa. El presidente Iván Duque rechazó los hechos y pidió avanzar en la investigación para dar con los culpables.</t>
   </si>
   <si>
@@ -1265,6 +1253,9 @@
     <t>No se permitirán bloqueos en próximas jornadas de manifestaciones: MinDefensa. El ministro Diego Molano, aseguró que hay información de inteligencia sobre que las disidencias de las Farc y el ELN buscan financiar actos violentos. Un nuevo mensaje le envió el gobierno a quienes pretenden tomarse las vías de hecho en medio de manifestaciones. Dijo el ejecutivo que no se permitirán actos de vandalismo ni bloqueos como ocurrido en las últimas jornadas del paro nacional.</t>
   </si>
   <si>
+    <t>1,2,2</t>
+  </si>
+  <si>
     <t>¿Niños entrenados en las filas de la ‘primera línea’? Crece la polémica. La polémica sigue viva luego de que aparecieran videos de menores siendo entrenados para hacer parte de la primera línea del denominado paro nacional. En entrevista con Vicky en SEMANA, Yohana Jiménez, promotora de la cadena perpetua para violadores en Colombia, y Margarita Restrepo, representante a la Cámara por el Centro Democrático, debatieron sobre los videos que se han conocido en redes sociales que dan cuenta de niños que estarían siendo entrenados para hacer parte de la denominada primera línea, acompañados por adultos.</t>
   </si>
   <si>
@@ -1274,12 +1265,12 @@
     <t>Del Comité del Paro a una campaña presidencial, Jennifer Pedraza salta a la arena política. La líder estudiantil será la jefe de debate del precandidato presidencial Jorge Enrique Robledo. Jennifer Pedraza, reconocida activista que ha conocido el país por su participación en las distintas movilizaciones que se han hecho en los últimos meses, anunció en sus redes sociales que será la jefe de debate del precandidato presidencial Jorge Enrique Robledo.</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>“Es doloroso que usemos a los niños con fines políticos y tal vez de guerra”: directora del ICBF. Las imágenes de niños muy pequeños, aparentemente recibiendo entrenamiento de miembros de la primera línea en Medellín, han causado indignación. El ministro de Defensa, la alcaldía, la Personería y la Defensoría del Pueblo también se pronunciaron. Las primeras líneas del país han despertado un debate sobre la protestas pacífica y cómo esta llega a tornarse violenta, tras más de dos meses de disturbios en todo el país. Desde hace semanas se sabe que entre los integrantes hay menores de edad, pero en las últimas horas, la polémica creció por las imágenes de presuntos miembros de esos grupos, entrenando a niños muy pequeños en el Parque de los Deseos de la capital de Antioquia.</t>
   </si>
   <si>
+    <t>1,1,0</t>
+  </si>
+  <si>
     <t>Rechazamos el entrenamiento de niños por parte de la primera línea: MinDefensa. El ministro Diego Molano indicó que los menores de edad deben estar en la casa o en el colegio, pero no siendo adoctrinados por adultos. Rechazo han generado algunos videos en donde se ve a niños y menores de edad, siendo entrenados por integrantes de la primera línea en algunas ciudades como Cali y Medellín. Ante la situación, el ministro de Defensa, Diego Molano se sumó a las voces que condenaron dichos entrenamientos e indicó que los menores de edad deben estar en la casa con los padres, en el colegio estudiando, pero no siendo adoctrinados por adultos o por esta clase de grupos.</t>
   </si>
   <si>
@@ -1289,9 +1280,18 @@
     <t>Allí, por ley, los detenidos deben contar con la presencia del Ministerio Público para verificar el respeto de los derechos humanos. "Pero lo que hemos visto durante el Paro Nacional es que la Policía ha conducido a las personas a otro tipo de instalaciones, e incluso, como en Pereira, a centros clandestinos de detención”, explica Lanz. El otro tipo de detenciones que pueden estar llevando a reportes de desaparecidos son "las capturas de manifestantes o personas que se encuentren cerca de los lugares de protesta, que son directamente acusados de delitos como terrorismo sin que existan evidencias de ello”. Y precisamente porque, según Temblores, ni la Defensoría del Pueblo ni la Personería ni la Procuraduría están actuando, esa ONG anuncia el lanzamiento de "un plan de emergencia en búsqueda de los desaparecidos”.</t>
   </si>
   <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>-1,-1</t>
+  </si>
+  <si>
     <t>“La Primera Línea es un grupo de jóvenes dispuestos a enfrentarse con escudos, para repeler los ataques policiales contra los manifestantes”, explica Jonathan[1], uno de estos Gavroches latinos, quien hace parte de los 60 a 80 jóvenes presentes en Puerto Rellena, al norte de la ciudad, en la vía que conduce al aeropuerto Alfonso Bonilla Aragón y a la Panamericana, sitio que ha sido rebautizado como Puerto Resistencia y se ha convertido en un lugar emblemático en Cali. Sus escudos: placas de metal, protecciones artesanales hechas con latas abiertas y aplastadas. Sus armas contra la fuerza publica, que los enfrenta con munición letal y tanques: piedras. La situación esta muy lejos de ser como la Guerra de los botones.</t>
   </si>
   <si>
+    <t>2,2</t>
+  </si>
+  <si>
     <t>De manera análoga, el lunes en la mañana, en Yumbo, al norte de Cali, el ESMAD habría enviado un tanque para terminar la protesta. Utilizan armas de guerra contra civiles desarmados en las calles mientras que, paralelamente, se presentan situaciones diversas; "Dos motos de la policía se llevaron a Henry[i], uno de nuestros cascos azules", advierte Jonathan, que, al día de hoy, no tiene noticias suyas. “Queremos que los medios vengan aquí y vean qué está pasando. Esta es nuestra mejor arma: la información", agrega Peri, también de Paso Resistencia. De hecho, denuncian que la policía está sobornando con dinero a la población a cambio de información sobre la identidad de los jóvenes que constituyen la Primera Línea.</t>
   </si>
   <si>
@@ -1310,15 +1310,27 @@
     <t>La frase “Los héroes en Colombia sí existen” se ha tomado las redes. Dichos héroes son los comunes, los de a pie, los que, al juntarse, tienen la potencia de dar luz a un poder político prejurídico e ilimitado, capaz de poner en cintura a los delegatarios, modificar o abolir las instituciones injustas y sentar las bases de una democracia real, en clave social y ecológica. El pueblo es resiliente y valiente. Ha quedado demostrado una vez más que parar, protestar y rebelarse no es un acto estéril; por el contrario, las grandes conquistas siempre han estado precedidas de grandes revoluciones. Con conciencia, porfía y persistencia, el pueblo llano llevó contra las cuerdas al Gobierno, logró tumbar el proyecto de reforma y presionar eficazmente la renuncia de Carrasquilla del Ministerio de Hacienda y Crédito Público. Es una gesta importante, que se integra con otras y deberá completarse con las que siguen. A corto plazo, seguir en paro, presionar la salida de Duque y tumbar los nuevos proyectos de reforma a la salud, en materia pensional y laboral; a mediano plazo, luchar contra las pandemias sociales que ha capitaneado el Estado; a largo plazo, desmontar el Estado inconstitucional, en aras de alzar un nuevo proyecto que sí ampare la vida, la libertad, la igualdad y la felicidad.</t>
   </si>
   <si>
+    <t>2,1</t>
+  </si>
+  <si>
     <t>Exportaciones de café cayeron 11 % en junio debido a los bloqueos del paro nacional. Las exportaciones de café de Colombia recuperaron en junio mucho del terreno perdido por los bloqueos y cayeron apenas 11 %, a 986.000 sacos de 60 kg de café verde, frente a un 1,11 millones de sacos exportados en el mismo mes de 2020. Si bien aún no se han podido poner al día las exportaciones de café, sí vale la pena destacar el importante trabajo logístico realizado para alcanzar el nivel actual de envíos, luego de que el principal puerto de Colombia, Buenaventura, por donde sale más del 60 % del café del país, durara más de 40 días bloqueado, explicó el gerente general de la Federación Nacional de Cafeteros, Roberto Vélez Vallejo.</t>
   </si>
   <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
     <t>‘Primera Línea’ entregó la Universidad del Quindío en “deplorable estado de vandalización”, denuncia su rector. Cerca de 20 jóvenes que dicen ser miembros de la Primera Línea en esa región se habían tomado la universidad por más de 20 días. El consejero Presidencial de Seguridad Nacional, Rafael Guarín, arremetió en contra de dicho grupo, al advertir que no la integran, según él, jóvenes espontáneos que salen de barrios populares o pacíficas mamás. En su momento, el funcionario indicó que los de la primera línea no se pueden catalogar como “héroes”, a quienes, de acuerdo con el consejero presidencial, algunos políticos exaltan. Este martes, se conoció un nuevo hecho de vandalismo que se le atribuye a la primera línea, en esta ocasión en el departamento del Quindío, con lo que las críticas a este grupo de manifestantes siguen creciendo. El nuevo hecho en el que se ve envuelta la primera línea es un presunto hecho de robo y vandalización dentro de las instalaciones de la Universidad del Quindío, la cual se había tomado este grupo desde hace cerca de 25 días.</t>
   </si>
   <si>
     <t>Petro sí tiene que ver con el paro: Néstor Humberto Martínez. El exfiscal cree que el candidato de la Colombia Humana sí está detrás de las manifestaciones. En la entrevista, la directora de SEMANA, Vicky Dávila, le preguntó a Martínez si para él Petro tiene que ver con el paro, a lo que contestó: “Definitivamente, sí tiene que ver”. Agregó que es un hecho que el senador ha convocado grandes movilizaciones y que las personas más cercanas a él son quienes financian a quienes están en las calles. "Recordará el país que Petro convocó la marcha más grande de la historia de Colombia. Su gente es la dueña y financiadora de la Primera Línea, es decir, de la confrontación con el Esmad. O sea, forman parte no solamente de las marchas pacíficas, sino de los actos de violencia frente a la autoridad”, comentó. Martínez se refiere a la Vaki que promovió Gustavo Bolívar para entregarles elementos a los marchantes de este grupo.</t>
   </si>
   <si>
+    <t>0,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">“Gustavo Petro instigó el paro y no rechazó la violencia”: Enrique Peñalosa. El exalcalde de Bogotá habló sobre la ventaja que perdió Gustavo Petro sobre los demás candidatos para las elecciones de 2022, en la encuesta del Centro Nacional de Consultoría para SEMANA. Por esa razón, los dos fueron consultados sobre el desplome que tuvo Gustavo Petro en esta encuesta. Aunque se mantiene en el primer lugar de intención de voto, bajó cuatro puntos con relación a los resultados anteriores y logró un 21 %. Enrique Peñalosa, fue el más crítico con el exalcalde de Bogotá y señaló que esa pérdida porcentual es una consecuencia natural del paro nacional. “Es cierto que Gustavo Petro instigó el tema del paro y realmente no fue suficientemente claro y oportuno rechazando la violencia y los bloqueos que hubo. La ciudadanía sabe eso”, dijo Peñalosa. Además, indicó que Petro está teniendo un desgaste natural por las constantes peleas en redes sociales y el radicalismo en sus mensajes. </t>
   </si>
   <si>
@@ -1331,6 +1343,9 @@
     <t>“¿La primera línea es una nueva guerrilla insurgente urbana o paramilitarismo?”: Paloma Valencia. La senadora aseguró que la acción judicial de la alcaldesa Claudia López, de denunciar penalmente a esa movilización, “fue tardía”. La llamada primera línea de las manifestaciones hizo una grave amenaza este viernes contra la ciudadanía en Bogotá, algo que por supuesto generó rechazo en la alcaldesa Claudia López, quien anunció una denuncia penal contra ese grupo que quiso apelar a la violencia pues aseguraron tener la intención de “atacar” buses de TransMilenio y las personas que van en ellos. Para la congresista del Centro Democrático Paloma Vlencia es “evidente” que “hay que empezar a poner freno a la destrucción de este país porque no puede ser que con el ánimo de la protesta aquí nos están imponiendo no solo los bloqueos sino además el daño a los bienes públicos que tanto le ha costado a Bogotá, entonces yo celebro la denuncia penal”. No obstante, la senadora insistió en que “esto tiene que ir más allá porque aquí ha habido senadores como Gustavo Bolívar (...) quienes han financiado el vandalismo que ahora se torna en terrorismo (...) porque estamos enfrentando terrorismo puro y duro”.</t>
   </si>
   <si>
+    <t>2,3,2</t>
+  </si>
+  <si>
     <t>Atentado con carro bomba en Cúcuta: ¿hay que replantear la seguridad en unidades militares? Por su parte, el congresista Ciro Ramírez dijo que el fondo del asunto es que “hay un claro atentado contra todos los colombianos, tenemos nuevamente grupos criminales fortalecidos, rearmados, ocuparon espacios que las antiguas Farc dejaron, fortalecidos porque hoy Colombia está lleno de cocaína, y eso permite que economías ilegales se fortalezcan“. El senador del Centro Democrático aprovechó para comparar el paro nacional, que lleva más de un mes, con un atentado terrorista: “Lo del paro y los bloqueos fue un atentado terrorista porque los colombianos vieron cómo secuestraron la tercera ciudad del país, incendiaron 27 ciudades, atacaron misiones médicas y justo el día que anuncian la suspensión de protestas vemos actuaciones.</t>
   </si>
   <si>
@@ -1349,6 +1364,9 @@
     <t>Pese a que muchas historias han sido tristes, también hay alegres y conmovedoras. En el caso del ‘Capitán Colombia’ se ha generado mucha expectativa, pues aunque se desconoce la identidad, se sabe que participa dentro de la ‘Primera línea’ en las protestas.  Pero en medio de este revuelo también ha sido usado en memes, ha recibido piropos y se roba la mirada de más de una. Muchos lo tildan como el héroe de las protestas, pues se encarga de que estas se lleven a cabo de manera pacífica y cuando se presentan desórdenes, es el primero en salir a defender a la gente que está a su alrededor.  Las manifestaciones que se han dado en Colombia desde el pasado 28 de abril han sido un escenario de múltiples historias y personajes, entre ellos, el famoso ‘Capitán Colombia’.</t>
   </si>
   <si>
+    <t>0,0</t>
+  </si>
+  <si>
     <t>Como en las mejores batallas de rap, apareció un joven integrante de la Policía Nacional de Colombia para amenizar una tarde, donde centenares de personas se reunían para cumplir una jornada más del Paro Nacional en la ciudad de Medellín. El video fue publicado en la cuenta oficial de la Policía de Medellín donde se puede ver un centenar de personas haciendo un círculo en un parque del barrio Santa Lucía de la capital antioqueña, donde se puede ver al agente cantando hip-hop acompañado de los jóvenes que disfrutaron sus rimas y las aplaudieron.</t>
   </si>
   <si>
@@ -1379,16 +1397,22 @@
     <t xml:space="preserve">La CIDH también documentó la preocupación de los colombianos sobre las interrupciones del servicio de Internet en el contexto de las protestas. Según señalaron, esto habría generado un escenario de obstaculización de las denuncias sobre el actuar de la fuerza pública. Los reportes recibidos enseñan tanto el posible uso de tecnología dirigida a inhibir o restringir la señal de Internet, como el bloqueo de las direcciones de dos páginas en Internet que contenían información sobre las protestas. Otra de las preocupaciones de la Comisión en materia de tecnología son las reiteradas denuncias que recibió sobre el perfilamiento de usuarios de redes sociales, participantes o no de las protestas. Reseñó que “la caracterización genérica a través de términos como terrorismo, vandalismo o criminales estigmatiza a las personas manifestantes, activa un ambiente hostil al ejercicio de la protesta y a la libertad de expresión en Internet. La Relatoría Especial para la Libertad de Expresión ha señalado que las sanciones penales por la difusión de información presuntamente falsa podrían retrotraer a la región a una lógica de criminalizar expresiones sobre asuntos de interés público y establecer una herramienta con un fuerte efecto inhibitorio. </t>
   </si>
   <si>
+    <t>2,2,3</t>
+  </si>
+  <si>
     <t>Mindefensa advierte que ya tienen borrador del proyecto antivandalismo. El ministro Diego Molano explicó cuáles son los puntos centrales de este proyecto anunciado por el presidente Iván Duque. El proyecto antivandalismo, que propuso el presidente de la República, Iván Duque, fue una respuesta a los hechos de violencia, terrorismo y hostigamientos, no sólo a la fuerza pública, sino a la comunidad y durante las jornadas de protesta del Paro Nacional. El presidente lo anticipó y ahora el ministro de Defensa, Diego Molano, advirtió que tienen listo un borrador de ese proyecto. Molano aseguró que el proyecto tiene tres pilares fundamentales, que incluye, en primer lugar: endurecer las penas para quienes incurran en conductas ilegales relacionadas con la movilización o que afecten la protesta pacífica. El proyecto, según el ministro Molano, se acompaña de la creación de nuevo tipos penales, es decir, nuevos delitos sobre conductas que a su criterio no están penalizadas. Por último, son los mecanismos para garantizar que la infiltración de los violentos no afecte el normal desarrollo de la protesta pacífica.</t>
   </si>
   <si>
     <t>El ministro, Diego Molano, salió en defensa del papel de la fuerza pública. Durante su intervención, el funcionario reiteró que durante los actos violentos ha habido intereses de organizaciones al margen la ley, como las disidencias de las Farc y el ELN. Explicó que en Cali, Medellín, Popayán y Bogotá se han dado ataques sistemáticos a las entidades del Estado, como la Defensoría del Pueblo, la Fiscalía, la Procuraduría y la Policía, acciones que son plenamente organizadas, no por los manifestantes pacíficos sino por organizaciones criminales, en hechos que reiteró son terroristas. “¿Quién está detrás de la violencia, del ataque a las entidades? Los vamos a identificar a los responsables, los encontraremos y judicializaremos. No son supuestos ni hipótesis, lo de las disidencias y el ELN está comprobado como el caso de alias Jacobo, quien estaba incentivando el odio en las redes sociales”, señalo el funcionario. De igual manera Molano insistió en que las protestas pacíficas serán respetadas en el país, pero serán combatidos los actos violentos que comentan vándalos.</t>
   </si>
   <si>
+    <t>2,3,1</t>
+  </si>
+  <si>
     <t>Los policías del Esmad son héroes: la acérrima defensa del ministro Molano durante la moción de censura. El funcionario respondió a los ataques que le hizo la oposición, que lo confrontó bajo el argumento de que se ha manejado mal el orden publico durante el paro nacional. Sobre este punto, destacó el papel del Escuadrón Móvil Antidisturbios, en donde dijo que quienes integraban estas unidades eran héroes. “Quiero hablar del Esmad, quien afecta las manifestaciones son los violentos y no el Esmad (…) yo quisiera invitarlos (Congresistas) a que hablaran con un policía del Esmad, los policías del Esmad son unos héroes, 105 países del mundo tienen policía como el Esmad, y la de Colombia es una de las reconocidas, están regulados, tiene entrenamientos formados en derechos humanos, y aún así los tildan como si estuvieran en contra de la sociedad cuando buscan garantizar la manifestación pacífica”, dijo Molano. De igual manera rechazo el prejuzgamiento que ha recibido la fuerza pública durante su actuación en el paro nacional “Por supuesto se nos ha prejuzgado señalado de todo tipo de delitos, mientras que muchas veces la mentira va rápido, se mueve en las redes, a los funcionarios nos corresponde decir la verdad, aquí no se puede tildar al gobierno de estigmatizar la protesta, se ha garantizado, miles de colombianos han salido a marchar, más de 8.000 actividades en más de 700 municipios de Colombia, esa responsabilidad y la asume la fuerza pública con toda garantía”.</t>
   </si>
   <si>
-    <t>En el marco de las jornadas de manifestaciones y desmanes que se han adelantado en el país por más de 18 días, desde diferentes sectores del Gobierno Nacional y fuerza pública han manifestado que las marcas han estado siendo infiltradas por organizaciones criminales, con el propósito de desestabilizar al país... se ha expuesto el plan que estaría ejecutando las disidencias de las Farc y milicias urbanas del ELN para lograr el control de la ciudad de Cali.  El medio de comunicación indicó que existen una serie de grabaciones junto a información de inteligencia, que evidencias cómo se desarrolló un presunto ‘plan criminal’ en el marco de las manifestaciones en Cali. Este plan habría partido de la implementación de unos estímulos para promover el vandalismo en varias zonas de la ciudad, lo cual se reflejó en saqueos, destrucción de propiedad pública y privada, junto a enfrentamientos de encapuchados y agentes del Esmad.</t>
+    <t>En el marco de las jornadas de manifestaciones y desmanes que se han adelantado en el país por más de 18 días, desde diferentes sectores del Gobierno Nacional y fuerza pública han manifestado que las marchas han estado siendo infiltradas por organizaciones criminales, con el propósito de desestabilizar al país... se ha expuesto el plan que estaría ejecutando las disidencias de las Farc y milicias urbanas del ELN para lograr el control de la ciudad de Cali.  El medio de comunicación indicó que existen una serie de grabaciones junto a información de inteligencia, que evidencian cómo se desarrolló un presunto ‘plan criminal’ en el marco de las manifestaciones en Cali. Este plan habría partido de la implementación de unos estímulos para promover el vandalismo en varias zonas de la ciudad, lo cual se reflejó en saqueos, destrucción de propiedad pública y privada, junto a enfrentamientos de encapuchados y agentes del Esmad.</t>
   </si>
   <si>
     <t>Molano, en diálogo con RCN Radio, aseguró que es necesario tener claridad en el papel y la función de "nuestra fuerza pública, policías y soldados" durante las protestas: "Su papel es garantizar el derecho y la tranquilidad de quienes no marchan, garantizar el derecho a la protesta pacífica de quienes marchan y lo hacen pacíficamente, pero por supuesto actuar de forma contundente contra todos aquellos que afectan la tranquilidad la vida y que están cometiendo actos de vandalismo". Según Molano, tras el trabajo de los grupos de inteligencia de la Policía Nacional, se encontró que "hay una relación directa porque hay una fuerza que organiza ataques sistemáticos planeados, premeditados y que son financiados por disidencias de las Farc y el ELN, con unos movimientos como el M-19, el movimiento Bolivariano, los Capuchos, los Escudos Azules y el 8 de junio de la célula de ese grupo armado". Así mismo, el ministro señaló que son estos grupos los que "están cometiendo y promoviendo este tipo de actos de terrorismo de baja intensidad a nivel urbano y que han afectado las ciudades sistemáticamente".</t>
@@ -1407,7 +1431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1457,7 +1481,6 @@
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -1491,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1573,13 +1596,10 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -4165,7 +4185,7 @@
       <c r="B167" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C167" s="26" t="s">
+      <c r="C167" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D167" s="9" t="s">
@@ -4173,1386 +4193,1386 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="21" t="s">
         <v>328</v>
       </c>
       <c r="B168" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D168" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C168" s="8" t="s">
+    </row>
+    <row r="169">
+      <c r="A169" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="B169" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="21" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="11" t="s">
+      <c r="B170" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B171" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D171" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="11" t="s">
+    </row>
+    <row r="172">
+      <c r="A172" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B172" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="B173" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="11" t="s">
+      <c r="C173" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="11" t="s">
+      <c r="B174" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D172" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="11" t="s">
+      <c r="B175" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D173" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="11" t="s">
+      <c r="B176" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B177" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D177" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D174" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="11" t="s">
+    </row>
+    <row r="178">
+      <c r="A178" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C178" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D175" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B176" s="8" t="s">
+      <c r="D178" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D176" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="11" t="s">
+      <c r="B179" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B180" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="11" t="s">
+    </row>
+    <row r="181">
+      <c r="A181" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="C183" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D183" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D178" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="11" t="s">
+    </row>
+    <row r="184">
+      <c r="A184" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C187" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C179" s="8" t="s">
+      <c r="D187" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B192" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D179" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C180" s="8" t="s">
+      <c r="C192" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B211" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D180" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B181" s="8" t="s">
+      <c r="C211" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D211" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D181" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B182" s="8" t="s">
+    </row>
+    <row r="212">
+      <c r="A212" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D212" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D183" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D184" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B185" s="8" t="s">
+    </row>
+    <row r="213">
+      <c r="A213" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D213" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D185" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D186" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D188" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D190" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D191" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D192" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D193" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D194" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D196" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D197" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D198" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="B199" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C199" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="B200" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C200" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B201" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C201" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B202" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C202" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="B203" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C203" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="B204" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C204" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="B205" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="B206" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C206" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="B207" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C207" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="B208" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C208" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="B209" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C209" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="B210" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C210" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="B211" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C211" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="B212" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C212" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="B213" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C213" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="28" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B214" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C214" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="215">
-      <c r="A215" s="28" t="s">
-        <v>381</v>
+      <c r="A215" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="B215" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D215" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C215" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="216">
-      <c r="A216" s="28" t="s">
-        <v>382</v>
+      <c r="A216" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="B216" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C216" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="217">
-      <c r="A217" s="28" t="s">
-        <v>383</v>
+      <c r="A217" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="B217" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D217" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C217" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="218">
-      <c r="A218" s="28" t="s">
-        <v>384</v>
+      <c r="A218" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="B218" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D218" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C218" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="219">
-      <c r="B219" s="30"/>
-      <c r="C219" s="30"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
     </row>
     <row r="220">
-      <c r="B220" s="30"/>
-      <c r="C220" s="30"/>
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
     </row>
     <row r="221">
-      <c r="B221" s="30"/>
-      <c r="C221" s="30"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="29"/>
     </row>
     <row r="222">
-      <c r="B222" s="30"/>
-      <c r="C222" s="30"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="29"/>
     </row>
     <row r="223">
-      <c r="B223" s="30"/>
-      <c r="C223" s="30"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="29"/>
     </row>
     <row r="224">
-      <c r="B224" s="30"/>
-      <c r="C224" s="30"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="29"/>
     </row>
     <row r="225">
-      <c r="B225" s="30"/>
-      <c r="C225" s="30"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="29"/>
     </row>
     <row r="226">
-      <c r="B226" s="30"/>
-      <c r="C226" s="30"/>
+      <c r="B226" s="29"/>
+      <c r="C226" s="29"/>
     </row>
     <row r="227">
-      <c r="B227" s="30"/>
-      <c r="C227" s="30"/>
+      <c r="B227" s="29"/>
+      <c r="C227" s="29"/>
     </row>
     <row r="228">
-      <c r="B228" s="30"/>
-      <c r="C228" s="30"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="29"/>
     </row>
     <row r="229">
-      <c r="B229" s="30"/>
-      <c r="C229" s="30"/>
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
     </row>
     <row r="230">
-      <c r="B230" s="30"/>
-      <c r="C230" s="30"/>
+      <c r="B230" s="29"/>
+      <c r="C230" s="29"/>
     </row>
     <row r="231">
-      <c r="B231" s="30"/>
-      <c r="C231" s="30"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
     </row>
     <row r="232">
-      <c r="B232" s="30"/>
-      <c r="C232" s="30"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
     </row>
     <row r="233">
-      <c r="B233" s="30"/>
-      <c r="C233" s="30"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
     </row>
     <row r="234">
-      <c r="B234" s="30"/>
-      <c r="C234" s="30"/>
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
     </row>
     <row r="235">
-      <c r="B235" s="30"/>
-      <c r="C235" s="30"/>
+      <c r="B235" s="29"/>
+      <c r="C235" s="29"/>
     </row>
     <row r="236">
-      <c r="B236" s="30"/>
-      <c r="C236" s="30"/>
+      <c r="B236" s="29"/>
+      <c r="C236" s="29"/>
     </row>
     <row r="237">
-      <c r="B237" s="30"/>
-      <c r="C237" s="30"/>
+      <c r="B237" s="29"/>
+      <c r="C237" s="29"/>
     </row>
     <row r="238">
-      <c r="B238" s="30"/>
-      <c r="C238" s="30"/>
+      <c r="B238" s="29"/>
+      <c r="C238" s="29"/>
     </row>
     <row r="239">
-      <c r="B239" s="30"/>
-      <c r="C239" s="30"/>
+      <c r="B239" s="29"/>
+      <c r="C239" s="29"/>
     </row>
     <row r="240">
-      <c r="B240" s="30"/>
-      <c r="C240" s="30"/>
+      <c r="B240" s="29"/>
+      <c r="C240" s="29"/>
     </row>
     <row r="241">
-      <c r="B241" s="30"/>
-      <c r="C241" s="30"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="29"/>
     </row>
     <row r="242">
-      <c r="B242" s="30"/>
-      <c r="C242" s="30"/>
+      <c r="B242" s="29"/>
+      <c r="C242" s="29"/>
     </row>
     <row r="243">
-      <c r="B243" s="30"/>
-      <c r="C243" s="30"/>
+      <c r="B243" s="29"/>
+      <c r="C243" s="29"/>
     </row>
     <row r="244">
-      <c r="B244" s="30"/>
-      <c r="C244" s="30"/>
+      <c r="B244" s="29"/>
+      <c r="C244" s="29"/>
     </row>
     <row r="245">
-      <c r="B245" s="30"/>
-      <c r="C245" s="30"/>
+      <c r="B245" s="29"/>
+      <c r="C245" s="29"/>
     </row>
     <row r="246">
-      <c r="B246" s="30"/>
-      <c r="C246" s="30"/>
+      <c r="B246" s="29"/>
+      <c r="C246" s="29"/>
     </row>
     <row r="247">
-      <c r="B247" s="30"/>
-      <c r="C247" s="30"/>
+      <c r="B247" s="29"/>
+      <c r="C247" s="29"/>
     </row>
     <row r="248">
-      <c r="B248" s="30"/>
-      <c r="C248" s="30"/>
+      <c r="B248" s="29"/>
+      <c r="C248" s="29"/>
     </row>
     <row r="249">
-      <c r="B249" s="30"/>
-      <c r="C249" s="30"/>
+      <c r="B249" s="29"/>
+      <c r="C249" s="29"/>
     </row>
     <row r="250">
-      <c r="B250" s="30"/>
-      <c r="C250" s="30"/>
+      <c r="B250" s="29"/>
+      <c r="C250" s="29"/>
     </row>
     <row r="251">
-      <c r="B251" s="30"/>
-      <c r="C251" s="30"/>
+      <c r="B251" s="29"/>
+      <c r="C251" s="29"/>
     </row>
     <row r="252">
-      <c r="B252" s="30"/>
-      <c r="C252" s="30"/>
+      <c r="B252" s="29"/>
+      <c r="C252" s="29"/>
     </row>
     <row r="253">
-      <c r="B253" s="30"/>
-      <c r="C253" s="30"/>
+      <c r="B253" s="29"/>
+      <c r="C253" s="29"/>
     </row>
     <row r="254">
-      <c r="B254" s="30"/>
-      <c r="C254" s="30"/>
+      <c r="B254" s="29"/>
+      <c r="C254" s="29"/>
     </row>
     <row r="255">
-      <c r="B255" s="30"/>
-      <c r="C255" s="30"/>
+      <c r="B255" s="29"/>
+      <c r="C255" s="29"/>
     </row>
     <row r="256">
-      <c r="B256" s="30"/>
-      <c r="C256" s="30"/>
+      <c r="B256" s="29"/>
+      <c r="C256" s="29"/>
     </row>
     <row r="257">
-      <c r="B257" s="30"/>
-      <c r="C257" s="30"/>
+      <c r="B257" s="29"/>
+      <c r="C257" s="29"/>
     </row>
     <row r="258">
-      <c r="B258" s="30"/>
-      <c r="C258" s="30"/>
+      <c r="B258" s="29"/>
+      <c r="C258" s="29"/>
     </row>
     <row r="259">
-      <c r="B259" s="30"/>
-      <c r="C259" s="30"/>
+      <c r="B259" s="29"/>
+      <c r="C259" s="29"/>
     </row>
     <row r="260">
-      <c r="B260" s="30"/>
-      <c r="C260" s="30"/>
+      <c r="B260" s="29"/>
+      <c r="C260" s="29"/>
     </row>
     <row r="261">
-      <c r="B261" s="30"/>
-      <c r="C261" s="30"/>
+      <c r="B261" s="29"/>
+      <c r="C261" s="29"/>
     </row>
     <row r="262">
-      <c r="B262" s="30"/>
-      <c r="C262" s="30"/>
+      <c r="B262" s="29"/>
+      <c r="C262" s="29"/>
     </row>
     <row r="263">
-      <c r="B263" s="30"/>
-      <c r="C263" s="30"/>
+      <c r="B263" s="29"/>
+      <c r="C263" s="29"/>
     </row>
     <row r="264">
-      <c r="B264" s="30"/>
-      <c r="C264" s="30"/>
+      <c r="B264" s="29"/>
+      <c r="C264" s="29"/>
     </row>
     <row r="265">
-      <c r="B265" s="30"/>
-      <c r="C265" s="30"/>
+      <c r="B265" s="29"/>
+      <c r="C265" s="29"/>
     </row>
     <row r="266">
-      <c r="B266" s="30"/>
-      <c r="C266" s="30"/>
+      <c r="B266" s="29"/>
+      <c r="C266" s="29"/>
     </row>
     <row r="267">
-      <c r="B267" s="30"/>
-      <c r="C267" s="30"/>
+      <c r="B267" s="29"/>
+      <c r="C267" s="29"/>
     </row>
     <row r="268">
-      <c r="B268" s="30"/>
-      <c r="C268" s="30"/>
+      <c r="B268" s="29"/>
+      <c r="C268" s="29"/>
     </row>
     <row r="269">
-      <c r="B269" s="30"/>
-      <c r="C269" s="30"/>
+      <c r="B269" s="29"/>
+      <c r="C269" s="29"/>
     </row>
     <row r="270">
-      <c r="B270" s="30"/>
-      <c r="C270" s="30"/>
+      <c r="B270" s="29"/>
+      <c r="C270" s="29"/>
     </row>
     <row r="271">
-      <c r="B271" s="30"/>
-      <c r="C271" s="30"/>
+      <c r="B271" s="29"/>
+      <c r="C271" s="29"/>
     </row>
     <row r="272">
-      <c r="B272" s="30"/>
-      <c r="C272" s="30"/>
+      <c r="B272" s="29"/>
+      <c r="C272" s="29"/>
     </row>
     <row r="273">
-      <c r="B273" s="30"/>
-      <c r="C273" s="30"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="29"/>
     </row>
     <row r="274">
-      <c r="B274" s="30"/>
-      <c r="C274" s="30"/>
+      <c r="B274" s="29"/>
+      <c r="C274" s="29"/>
     </row>
     <row r="275">
-      <c r="B275" s="30"/>
-      <c r="C275" s="30"/>
+      <c r="B275" s="29"/>
+      <c r="C275" s="29"/>
     </row>
     <row r="276">
-      <c r="B276" s="30"/>
-      <c r="C276" s="30"/>
+      <c r="B276" s="29"/>
+      <c r="C276" s="29"/>
     </row>
     <row r="277">
-      <c r="B277" s="30"/>
-      <c r="C277" s="30"/>
+      <c r="B277" s="29"/>
+      <c r="C277" s="29"/>
     </row>
     <row r="278">
-      <c r="B278" s="30"/>
-      <c r="C278" s="30"/>
+      <c r="B278" s="29"/>
+      <c r="C278" s="29"/>
     </row>
     <row r="279">
-      <c r="B279" s="30"/>
-      <c r="C279" s="30"/>
+      <c r="B279" s="29"/>
+      <c r="C279" s="29"/>
     </row>
     <row r="280">
-      <c r="B280" s="30"/>
-      <c r="C280" s="30"/>
+      <c r="B280" s="29"/>
+      <c r="C280" s="29"/>
     </row>
     <row r="281">
-      <c r="B281" s="30"/>
-      <c r="C281" s="30"/>
+      <c r="B281" s="29"/>
+      <c r="C281" s="29"/>
     </row>
     <row r="282">
-      <c r="B282" s="30"/>
-      <c r="C282" s="30"/>
+      <c r="B282" s="29"/>
+      <c r="C282" s="29"/>
     </row>
     <row r="283">
-      <c r="B283" s="30"/>
-      <c r="C283" s="30"/>
+      <c r="B283" s="29"/>
+      <c r="C283" s="29"/>
     </row>
     <row r="284">
-      <c r="B284" s="30"/>
-      <c r="C284" s="30"/>
+      <c r="B284" s="29"/>
+      <c r="C284" s="29"/>
     </row>
     <row r="285">
-      <c r="B285" s="30"/>
-      <c r="C285" s="30"/>
+      <c r="B285" s="29"/>
+      <c r="C285" s="29"/>
     </row>
     <row r="286">
-      <c r="B286" s="30"/>
-      <c r="C286" s="30"/>
+      <c r="B286" s="29"/>
+      <c r="C286" s="29"/>
     </row>
     <row r="287">
-      <c r="B287" s="30"/>
-      <c r="C287" s="30"/>
+      <c r="B287" s="29"/>
+      <c r="C287" s="29"/>
     </row>
     <row r="288">
-      <c r="B288" s="30"/>
-      <c r="C288" s="30"/>
+      <c r="B288" s="29"/>
+      <c r="C288" s="29"/>
     </row>
     <row r="289">
-      <c r="B289" s="30"/>
-      <c r="C289" s="30"/>
+      <c r="B289" s="29"/>
+      <c r="C289" s="29"/>
     </row>
     <row r="290">
-      <c r="B290" s="30"/>
-      <c r="C290" s="30"/>
+      <c r="B290" s="29"/>
+      <c r="C290" s="29"/>
     </row>
     <row r="291">
-      <c r="B291" s="30"/>
-      <c r="C291" s="30"/>
+      <c r="B291" s="29"/>
+      <c r="C291" s="29"/>
     </row>
     <row r="292">
-      <c r="B292" s="30"/>
-      <c r="C292" s="30"/>
+      <c r="B292" s="29"/>
+      <c r="C292" s="29"/>
     </row>
     <row r="293">
-      <c r="B293" s="30"/>
-      <c r="C293" s="30"/>
+      <c r="B293" s="29"/>
+      <c r="C293" s="29"/>
     </row>
     <row r="294">
-      <c r="B294" s="30"/>
-      <c r="C294" s="30"/>
+      <c r="B294" s="29"/>
+      <c r="C294" s="29"/>
     </row>
     <row r="295">
-      <c r="B295" s="30"/>
-      <c r="C295" s="30"/>
+      <c r="B295" s="29"/>
+      <c r="C295" s="29"/>
     </row>
     <row r="296">
-      <c r="B296" s="30"/>
-      <c r="C296" s="30"/>
+      <c r="B296" s="29"/>
+      <c r="C296" s="29"/>
     </row>
     <row r="297">
-      <c r="B297" s="30"/>
-      <c r="C297" s="30"/>
+      <c r="B297" s="29"/>
+      <c r="C297" s="29"/>
     </row>
     <row r="298">
-      <c r="B298" s="30"/>
-      <c r="C298" s="30"/>
+      <c r="B298" s="29"/>
+      <c r="C298" s="29"/>
     </row>
     <row r="299">
-      <c r="B299" s="30"/>
-      <c r="C299" s="30"/>
+      <c r="B299" s="29"/>
+      <c r="C299" s="29"/>
     </row>
     <row r="300">
-      <c r="B300" s="30"/>
-      <c r="C300" s="30"/>
+      <c r="B300" s="29"/>
+      <c r="C300" s="29"/>
     </row>
     <row r="301">
-      <c r="B301" s="30"/>
-      <c r="C301" s="30"/>
+      <c r="B301" s="29"/>
+      <c r="C301" s="29"/>
     </row>
     <row r="302">
-      <c r="B302" s="30"/>
-      <c r="C302" s="30"/>
+      <c r="B302" s="29"/>
+      <c r="C302" s="29"/>
     </row>
     <row r="303">
-      <c r="B303" s="30"/>
-      <c r="C303" s="30"/>
+      <c r="B303" s="29"/>
+      <c r="C303" s="29"/>
     </row>
     <row r="304">
-      <c r="B304" s="30"/>
-      <c r="C304" s="30"/>
+      <c r="B304" s="29"/>
+      <c r="C304" s="29"/>
     </row>
     <row r="305">
-      <c r="B305" s="30"/>
-      <c r="C305" s="30"/>
+      <c r="B305" s="29"/>
+      <c r="C305" s="29"/>
     </row>
     <row r="306">
-      <c r="B306" s="30"/>
-      <c r="C306" s="30"/>
+      <c r="B306" s="29"/>
+      <c r="C306" s="29"/>
     </row>
     <row r="307">
-      <c r="B307" s="30"/>
-      <c r="C307" s="30"/>
+      <c r="B307" s="29"/>
+      <c r="C307" s="29"/>
     </row>
     <row r="308">
-      <c r="B308" s="30"/>
-      <c r="C308" s="30"/>
+      <c r="B308" s="29"/>
+      <c r="C308" s="29"/>
     </row>
     <row r="309">
-      <c r="B309" s="30"/>
-      <c r="C309" s="30"/>
+      <c r="B309" s="29"/>
+      <c r="C309" s="29"/>
     </row>
     <row r="310">
-      <c r="B310" s="30"/>
-      <c r="C310" s="30"/>
+      <c r="B310" s="29"/>
+      <c r="C310" s="29"/>
     </row>
     <row r="311">
-      <c r="B311" s="30"/>
-      <c r="C311" s="30"/>
+      <c r="B311" s="29"/>
+      <c r="C311" s="29"/>
     </row>
     <row r="312">
-      <c r="B312" s="30"/>
-      <c r="C312" s="30"/>
+      <c r="B312" s="29"/>
+      <c r="C312" s="29"/>
     </row>
     <row r="313">
-      <c r="B313" s="30"/>
-      <c r="C313" s="30"/>
+      <c r="B313" s="29"/>
+      <c r="C313" s="29"/>
     </row>
     <row r="314">
-      <c r="B314" s="30"/>
-      <c r="C314" s="30"/>
+      <c r="B314" s="29"/>
+      <c r="C314" s="29"/>
     </row>
     <row r="315">
-      <c r="B315" s="30"/>
-      <c r="C315" s="30"/>
+      <c r="B315" s="29"/>
+      <c r="C315" s="29"/>
     </row>
     <row r="316">
-      <c r="B316" s="30"/>
-      <c r="C316" s="30"/>
+      <c r="B316" s="29"/>
+      <c r="C316" s="29"/>
     </row>
     <row r="317">
-      <c r="B317" s="30"/>
-      <c r="C317" s="30"/>
+      <c r="B317" s="29"/>
+      <c r="C317" s="29"/>
     </row>
     <row r="318">
-      <c r="B318" s="30"/>
-      <c r="C318" s="30"/>
+      <c r="B318" s="29"/>
+      <c r="C318" s="29"/>
     </row>
     <row r="319">
-      <c r="B319" s="30"/>
-      <c r="C319" s="30"/>
+      <c r="B319" s="29"/>
+      <c r="C319" s="29"/>
     </row>
     <row r="320">
-      <c r="B320" s="30"/>
-      <c r="C320" s="30"/>
+      <c r="B320" s="29"/>
+      <c r="C320" s="29"/>
     </row>
     <row r="321">
-      <c r="B321" s="30"/>
-      <c r="C321" s="30"/>
+      <c r="B321" s="29"/>
+      <c r="C321" s="29"/>
     </row>
     <row r="322">
-      <c r="B322" s="30"/>
-      <c r="C322" s="30"/>
+      <c r="B322" s="29"/>
+      <c r="C322" s="29"/>
     </row>
     <row r="323">
-      <c r="B323" s="30"/>
-      <c r="C323" s="30"/>
+      <c r="B323" s="29"/>
+      <c r="C323" s="29"/>
     </row>
     <row r="324">
-      <c r="B324" s="30"/>
-      <c r="C324" s="30"/>
+      <c r="B324" s="29"/>
+      <c r="C324" s="29"/>
     </row>
     <row r="325">
-      <c r="B325" s="30"/>
-      <c r="C325" s="30"/>
+      <c r="B325" s="29"/>
+      <c r="C325" s="29"/>
     </row>
     <row r="326">
-      <c r="B326" s="30"/>
-      <c r="C326" s="30"/>
+      <c r="B326" s="29"/>
+      <c r="C326" s="29"/>
     </row>
     <row r="327">
-      <c r="B327" s="30"/>
-      <c r="C327" s="30"/>
+      <c r="B327" s="29"/>
+      <c r="C327" s="29"/>
     </row>
     <row r="328">
-      <c r="B328" s="30"/>
-      <c r="C328" s="30"/>
+      <c r="B328" s="29"/>
+      <c r="C328" s="29"/>
     </row>
     <row r="329">
-      <c r="B329" s="30"/>
-      <c r="C329" s="30"/>
+      <c r="B329" s="29"/>
+      <c r="C329" s="29"/>
     </row>
     <row r="330">
-      <c r="B330" s="30"/>
-      <c r="C330" s="30"/>
+      <c r="B330" s="29"/>
+      <c r="C330" s="29"/>
     </row>
     <row r="331">
-      <c r="B331" s="30"/>
-      <c r="C331" s="30"/>
+      <c r="B331" s="29"/>
+      <c r="C331" s="29"/>
     </row>
     <row r="332">
-      <c r="B332" s="30"/>
-      <c r="C332" s="30"/>
+      <c r="B332" s="29"/>
+      <c r="C332" s="29"/>
     </row>
     <row r="333">
-      <c r="B333" s="30"/>
-      <c r="C333" s="30"/>
+      <c r="B333" s="29"/>
+      <c r="C333" s="29"/>
     </row>
     <row r="334">
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
+      <c r="B334" s="29"/>
+      <c r="C334" s="29"/>
     </row>
     <row r="335">
-      <c r="B335" s="30"/>
-      <c r="C335" s="30"/>
+      <c r="B335" s="29"/>
+      <c r="C335" s="29"/>
     </row>
     <row r="336">
-      <c r="B336" s="30"/>
-      <c r="C336" s="30"/>
+      <c r="B336" s="29"/>
+      <c r="C336" s="29"/>
     </row>
     <row r="337">
-      <c r="B337" s="30"/>
-      <c r="C337" s="30"/>
+      <c r="B337" s="29"/>
+      <c r="C337" s="29"/>
     </row>
     <row r="338">
-      <c r="B338" s="30"/>
-      <c r="C338" s="30"/>
+      <c r="B338" s="29"/>
+      <c r="C338" s="29"/>
     </row>
     <row r="339">
-      <c r="B339" s="30"/>
-      <c r="C339" s="30"/>
+      <c r="B339" s="29"/>
+      <c r="C339" s="29"/>
     </row>
     <row r="340">
-      <c r="B340" s="30"/>
-      <c r="C340" s="30"/>
+      <c r="B340" s="29"/>
+      <c r="C340" s="29"/>
     </row>
     <row r="341">
-      <c r="B341" s="30"/>
-      <c r="C341" s="30"/>
+      <c r="B341" s="29"/>
+      <c r="C341" s="29"/>
     </row>
     <row r="342">
-      <c r="B342" s="30"/>
-      <c r="C342" s="30"/>
+      <c r="B342" s="29"/>
+      <c r="C342" s="29"/>
     </row>
     <row r="343">
-      <c r="B343" s="30"/>
-      <c r="C343" s="30"/>
+      <c r="B343" s="29"/>
+      <c r="C343" s="29"/>
     </row>
     <row r="344">
-      <c r="B344" s="30"/>
-      <c r="C344" s="30"/>
+      <c r="B344" s="29"/>
+      <c r="C344" s="29"/>
     </row>
     <row r="345">
-      <c r="B345" s="30"/>
-      <c r="C345" s="30"/>
+      <c r="B345" s="29"/>
+      <c r="C345" s="29"/>
     </row>
     <row r="346">
-      <c r="B346" s="30"/>
-      <c r="C346" s="30"/>
+      <c r="B346" s="29"/>
+      <c r="C346" s="29"/>
     </row>
     <row r="347">
-      <c r="B347" s="30"/>
-      <c r="C347" s="30"/>
+      <c r="B347" s="29"/>
+      <c r="C347" s="29"/>
     </row>
     <row r="348">
-      <c r="B348" s="30"/>
-      <c r="C348" s="30"/>
+      <c r="B348" s="29"/>
+      <c r="C348" s="29"/>
     </row>
     <row r="349">
-      <c r="B349" s="30"/>
-      <c r="C349" s="30"/>
+      <c r="B349" s="29"/>
+      <c r="C349" s="29"/>
     </row>
     <row r="350">
-      <c r="B350" s="30"/>
-      <c r="C350" s="30"/>
+      <c r="B350" s="29"/>
+      <c r="C350" s="29"/>
     </row>
     <row r="351">
-      <c r="B351" s="30"/>
-      <c r="C351" s="30"/>
+      <c r="B351" s="29"/>
+      <c r="C351" s="29"/>
     </row>
     <row r="352">
-      <c r="B352" s="30"/>
-      <c r="C352" s="30"/>
+      <c r="B352" s="29"/>
+      <c r="C352" s="29"/>
     </row>
     <row r="353">
-      <c r="B353" s="30"/>
-      <c r="C353" s="30"/>
+      <c r="B353" s="29"/>
+      <c r="C353" s="29"/>
     </row>
     <row r="354">
-      <c r="B354" s="30"/>
-      <c r="C354" s="30"/>
+      <c r="B354" s="29"/>
+      <c r="C354" s="29"/>
     </row>
     <row r="355">
-      <c r="B355" s="30"/>
-      <c r="C355" s="30"/>
+      <c r="B355" s="29"/>
+      <c r="C355" s="29"/>
     </row>
     <row r="356">
-      <c r="B356" s="30"/>
-      <c r="C356" s="30"/>
+      <c r="B356" s="29"/>
+      <c r="C356" s="29"/>
     </row>
     <row r="357">
-      <c r="B357" s="30"/>
-      <c r="C357" s="30"/>
+      <c r="B357" s="29"/>
+      <c r="C357" s="29"/>
     </row>
     <row r="358">
-      <c r="B358" s="30"/>
-      <c r="C358" s="30"/>
+      <c r="B358" s="29"/>
+      <c r="C358" s="29"/>
     </row>
     <row r="359">
-      <c r="B359" s="30"/>
-      <c r="C359" s="30"/>
+      <c r="B359" s="29"/>
+      <c r="C359" s="29"/>
     </row>
     <row r="360">
-      <c r="B360" s="30"/>
-      <c r="C360" s="30"/>
+      <c r="B360" s="29"/>
+      <c r="C360" s="29"/>
     </row>
     <row r="361">
-      <c r="B361" s="30"/>
-      <c r="C361" s="30"/>
+      <c r="B361" s="29"/>
+      <c r="C361" s="29"/>
     </row>
     <row r="362">
-      <c r="B362" s="30"/>
-      <c r="C362" s="30"/>
+      <c r="B362" s="29"/>
+      <c r="C362" s="29"/>
     </row>
     <row r="363">
-      <c r="B363" s="30"/>
-      <c r="C363" s="30"/>
+      <c r="B363" s="29"/>
+      <c r="C363" s="29"/>
     </row>
     <row r="364">
-      <c r="B364" s="30"/>
-      <c r="C364" s="30"/>
+      <c r="B364" s="29"/>
+      <c r="C364" s="29"/>
     </row>
     <row r="365">
-      <c r="B365" s="30"/>
-      <c r="C365" s="30"/>
+      <c r="B365" s="29"/>
+      <c r="C365" s="29"/>
     </row>
     <row r="366">
-      <c r="B366" s="30"/>
-      <c r="C366" s="30"/>
+      <c r="B366" s="29"/>
+      <c r="C366" s="29"/>
     </row>
     <row r="367">
-      <c r="B367" s="30"/>
-      <c r="C367" s="30"/>
+      <c r="B367" s="29"/>
+      <c r="C367" s="29"/>
     </row>
     <row r="368">
-      <c r="B368" s="30"/>
-      <c r="C368" s="30"/>
+      <c r="B368" s="29"/>
+      <c r="C368" s="29"/>
     </row>
     <row r="369">
-      <c r="B369" s="30"/>
-      <c r="C369" s="30"/>
+      <c r="B369" s="29"/>
+      <c r="C369" s="29"/>
     </row>
     <row r="370">
-      <c r="B370" s="30"/>
-      <c r="C370" s="30"/>
+      <c r="B370" s="29"/>
+      <c r="C370" s="29"/>
     </row>
     <row r="371">
-      <c r="B371" s="30"/>
-      <c r="C371" s="30"/>
+      <c r="B371" s="29"/>
+      <c r="C371" s="29"/>
     </row>
     <row r="372">
-      <c r="B372" s="30"/>
-      <c r="C372" s="30"/>
+      <c r="B372" s="29"/>
+      <c r="C372" s="29"/>
     </row>
     <row r="373">
-      <c r="B373" s="30"/>
-      <c r="C373" s="30"/>
+      <c r="B373" s="29"/>
+      <c r="C373" s="29"/>
     </row>
     <row r="374">
-      <c r="B374" s="30"/>
-      <c r="C374" s="30"/>
+      <c r="B374" s="29"/>
+      <c r="C374" s="29"/>
     </row>
     <row r="375">
-      <c r="B375" s="30"/>
-      <c r="C375" s="30"/>
+      <c r="B375" s="29"/>
+      <c r="C375" s="29"/>
     </row>
     <row r="376">
-      <c r="B376" s="30"/>
-      <c r="C376" s="30"/>
+      <c r="B376" s="29"/>
+      <c r="C376" s="29"/>
     </row>
     <row r="377">
-      <c r="B377" s="30"/>
-      <c r="C377" s="30"/>
+      <c r="B377" s="29"/>
+      <c r="C377" s="29"/>
     </row>
     <row r="378">
-      <c r="B378" s="30"/>
-      <c r="C378" s="30"/>
+      <c r="B378" s="29"/>
+      <c r="C378" s="29"/>
     </row>
     <row r="379">
-      <c r="B379" s="30"/>
-      <c r="C379" s="30"/>
+      <c r="B379" s="29"/>
+      <c r="C379" s="29"/>
     </row>
     <row r="380">
-      <c r="B380" s="30"/>
-      <c r="C380" s="30"/>
+      <c r="B380" s="29"/>
+      <c r="C380" s="29"/>
     </row>
     <row r="381">
-      <c r="B381" s="30"/>
-      <c r="C381" s="30"/>
+      <c r="B381" s="29"/>
+      <c r="C381" s="29"/>
     </row>
     <row r="382">
-      <c r="B382" s="30"/>
-      <c r="C382" s="30"/>
+      <c r="B382" s="29"/>
+      <c r="C382" s="29"/>
     </row>
     <row r="383">
-      <c r="B383" s="30"/>
-      <c r="C383" s="30"/>
+      <c r="B383" s="29"/>
+      <c r="C383" s="29"/>
     </row>
     <row r="384">
-      <c r="B384" s="30"/>
-      <c r="C384" s="30"/>
+      <c r="B384" s="29"/>
+      <c r="C384" s="29"/>
     </row>
     <row r="385">
-      <c r="B385" s="30"/>
-      <c r="C385" s="30"/>
+      <c r="B385" s="29"/>
+      <c r="C385" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
